--- a/rasp_data/ФТИ_Стромынка 1 курс 1 сем  МАГИ_2021.xlsx
+++ b/rasp_data/ФТИ_Стромынка 1 курс 1 сем  МАГИ_2021.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="234">
   <si>
     <t>ВТОРНИК</t>
   </si>
@@ -700,9 +700,6 @@
     <t>Разработка и реализация проектов в дизайне</t>
   </si>
   <si>
-    <t>Зябнева О.А.</t>
-  </si>
-  <si>
     <t xml:space="preserve">лек </t>
   </si>
   <si>
@@ -762,9 +759,6 @@
     <t xml:space="preserve">Д </t>
   </si>
   <si>
-    <t>Материалы  для художественных изделий</t>
-  </si>
-  <si>
     <t>Дрюкова А.Э.</t>
   </si>
   <si>
@@ -796,9 +790,6 @@
   </si>
   <si>
     <t>Бойко Ю.А.</t>
-  </si>
-  <si>
-    <t>СГ  629</t>
   </si>
   <si>
     <t>СГ 320</t>
@@ -883,18 +874,6 @@
     <t>кр 1 н Материалы и технологии аддитивных производств</t>
   </si>
   <si>
-    <t>кр 1 н Дизайн-проектирование</t>
-  </si>
-  <si>
-    <t>кр 1 н История и методология технологии художественной обработки материалов</t>
-  </si>
-  <si>
-    <t>кр 1 н Разработка технологий и изготовление художественных изделий</t>
-  </si>
-  <si>
-    <t>кр 1 н Материалы  для художественных изделий</t>
-  </si>
-  <si>
     <t>кр 1 н Проектирование технологических процессов в условиях цифрового производства</t>
   </si>
   <si>
@@ -921,6 +900,25 @@
   <si>
     <t>Д
 208</t>
+  </si>
+  <si>
+    <t>Моисеев С.А.</t>
+  </si>
+  <si>
+    <t>Мильчакова Н.Е.
+ Марковска М.А.</t>
+  </si>
+  <si>
+    <t>Визуальная эстетика интерфейсов</t>
+  </si>
+  <si>
+    <t>Материалы для художественных изделий</t>
+  </si>
+  <si>
+    <t>Бойко Ю.А. Лобач Д.И.</t>
+  </si>
+  <si>
+    <t>СГ 321</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1822,12 +1820,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2037,9 +2046,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2430,6 +2436,108 @@
     <xf numFmtId="0" fontId="28" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2575,54 +2683,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2917,10 +2977,10 @@
   <dimension ref="A1:BA100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="L40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H74" sqref="H74"/>
+      <selection pane="bottomRight" activeCell="AD52" sqref="AD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -2983,150 +3043,150 @@
   <sheetData>
     <row r="1" spans="1:53" ht="112.5" customHeight="1" thickBot="1">
       <c r="A1" s="17"/>
-      <c r="B1" s="241" t="s">
+      <c r="B1" s="274" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
-      <c r="L1" s="241"/>
-      <c r="M1" s="241"/>
-      <c r="N1" s="242" t="s">
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="274"/>
+      <c r="G1" s="274"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="274"/>
+      <c r="K1" s="274"/>
+      <c r="L1" s="274"/>
+      <c r="M1" s="274"/>
+      <c r="N1" s="275" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="242"/>
-      <c r="P1" s="242"/>
-      <c r="Q1" s="242"/>
+      <c r="O1" s="275"/>
+      <c r="P1" s="275"/>
+      <c r="Q1" s="275"/>
       <c r="S1" s="17"/>
-      <c r="T1" s="241" t="s">
+      <c r="T1" s="274" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="241"/>
-      <c r="Z1" s="241"/>
-      <c r="AA1" s="241"/>
-      <c r="AB1" s="241"/>
-      <c r="AC1" s="241"/>
-      <c r="AD1" s="241"/>
-      <c r="AE1" s="241"/>
-      <c r="AF1" s="242" t="s">
+      <c r="U1" s="274"/>
+      <c r="V1" s="274"/>
+      <c r="W1" s="274"/>
+      <c r="X1" s="274"/>
+      <c r="Y1" s="274"/>
+      <c r="Z1" s="274"/>
+      <c r="AA1" s="274"/>
+      <c r="AB1" s="274"/>
+      <c r="AC1" s="274"/>
+      <c r="AD1" s="274"/>
+      <c r="AE1" s="274"/>
+      <c r="AF1" s="275" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="242"/>
-      <c r="AH1" s="242"/>
-      <c r="AI1" s="242"/>
+      <c r="AG1" s="275"/>
+      <c r="AH1" s="275"/>
+      <c r="AI1" s="275"/>
       <c r="AK1" s="17"/>
-      <c r="AL1" s="241" t="s">
+      <c r="AL1" s="274" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="241"/>
-      <c r="AN1" s="241"/>
-      <c r="AO1" s="241"/>
-      <c r="AP1" s="241"/>
-      <c r="AQ1" s="241"/>
-      <c r="AR1" s="241"/>
-      <c r="AS1" s="241"/>
-      <c r="AT1" s="241"/>
-      <c r="AU1" s="241"/>
-      <c r="AV1" s="241"/>
-      <c r="AW1" s="241"/>
-      <c r="AX1" s="242" t="s">
+      <c r="AM1" s="274"/>
+      <c r="AN1" s="274"/>
+      <c r="AO1" s="274"/>
+      <c r="AP1" s="274"/>
+      <c r="AQ1" s="274"/>
+      <c r="AR1" s="274"/>
+      <c r="AS1" s="274"/>
+      <c r="AT1" s="274"/>
+      <c r="AU1" s="274"/>
+      <c r="AV1" s="274"/>
+      <c r="AW1" s="274"/>
+      <c r="AX1" s="275" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" s="242"/>
-      <c r="AZ1" s="242"/>
-      <c r="BA1" s="242"/>
+      <c r="AY1" s="275"/>
+      <c r="AZ1" s="275"/>
+      <c r="BA1" s="275"/>
     </row>
     <row r="2" spans="1:53" s="4" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A2" s="243" t="s">
+      <c r="A2" s="276" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="245" t="s">
+      <c r="B2" s="278" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="247"/>
-      <c r="F2" s="248" t="s">
+      <c r="C2" s="279"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="281" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="249"/>
-      <c r="H2" s="250"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="283"/>
       <c r="I2" s="32"/>
-      <c r="J2" s="248" t="s">
+      <c r="J2" s="281" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="249"/>
-      <c r="L2" s="250"/>
+      <c r="K2" s="282"/>
+      <c r="L2" s="283"/>
       <c r="M2" s="32"/>
-      <c r="N2" s="248" t="s">
+      <c r="N2" s="281" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="249"/>
-      <c r="P2" s="250"/>
+      <c r="O2" s="282"/>
+      <c r="P2" s="283"/>
       <c r="Q2" s="40"/>
-      <c r="S2" s="243" t="s">
+      <c r="S2" s="276" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="245" t="s">
+      <c r="T2" s="278" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="246"/>
-      <c r="V2" s="246"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="248" t="s">
+      <c r="U2" s="279"/>
+      <c r="V2" s="279"/>
+      <c r="W2" s="280"/>
+      <c r="X2" s="281" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="249"/>
-      <c r="Z2" s="250"/>
+      <c r="Y2" s="282"/>
+      <c r="Z2" s="283"/>
       <c r="AA2" s="40"/>
-      <c r="AB2" s="251" t="s">
+      <c r="AB2" s="284" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" s="252"/>
-      <c r="AD2" s="253"/>
+      <c r="AC2" s="285"/>
+      <c r="AD2" s="286"/>
       <c r="AE2" s="40"/>
-      <c r="AF2" s="248" t="s">
+      <c r="AF2" s="281" t="s">
         <v>56</v>
       </c>
-      <c r="AG2" s="249"/>
-      <c r="AH2" s="250"/>
+      <c r="AG2" s="282"/>
+      <c r="AH2" s="283"/>
       <c r="AI2" s="40"/>
-      <c r="AK2" s="243" t="s">
+      <c r="AK2" s="276" t="s">
         <v>18</v>
       </c>
-      <c r="AL2" s="245" t="s">
+      <c r="AL2" s="278" t="s">
         <v>17</v>
       </c>
-      <c r="AM2" s="246"/>
-      <c r="AN2" s="246"/>
-      <c r="AO2" s="247"/>
-      <c r="AP2" s="260" t="s">
+      <c r="AM2" s="279"/>
+      <c r="AN2" s="279"/>
+      <c r="AO2" s="280"/>
+      <c r="AP2" s="293" t="s">
         <v>57</v>
       </c>
-      <c r="AQ2" s="252"/>
-      <c r="AR2" s="253"/>
+      <c r="AQ2" s="285"/>
+      <c r="AR2" s="286"/>
       <c r="AS2" s="40"/>
-      <c r="AT2" s="248"/>
-      <c r="AU2" s="249"/>
-      <c r="AV2" s="250"/>
+      <c r="AT2" s="281"/>
+      <c r="AU2" s="282"/>
+      <c r="AV2" s="283"/>
       <c r="AW2" s="40"/>
-      <c r="AX2" s="248"/>
-      <c r="AY2" s="249"/>
-      <c r="AZ2" s="250"/>
+      <c r="AX2" s="281"/>
+      <c r="AY2" s="282"/>
+      <c r="AZ2" s="283"/>
       <c r="BA2" s="40"/>
     </row>
     <row r="3" spans="1:53" s="2" customFormat="1" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A3" s="244"/>
+      <c r="A3" s="277"/>
       <c r="B3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3175,7 +3235,7 @@
       <c r="Q3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="244"/>
+      <c r="S3" s="277"/>
       <c r="T3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3224,7 +3284,7 @@
       <c r="AI3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AK3" s="244"/>
+      <c r="AK3" s="277"/>
       <c r="AL3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3275,16 +3335,16 @@
       </c>
     </row>
     <row r="4" spans="1:53" ht="30" customHeight="1">
-      <c r="A4" s="254" t="s">
+      <c r="A4" s="287" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="220">
-        <v>1</v>
-      </c>
-      <c r="C4" s="222" t="s">
+      <c r="B4" s="253">
+        <v>1</v>
+      </c>
+      <c r="C4" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="222" t="s">
+      <c r="D4" s="255" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -3297,21 +3357,21 @@
       <c r="J4" s="59"/>
       <c r="K4" s="3"/>
       <c r="L4" s="24"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="118"/>
-      <c r="S4" s="254" t="s">
+      <c r="M4" s="98"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="115"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="117"/>
+      <c r="S4" s="287" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="220">
-        <v>1</v>
-      </c>
-      <c r="U4" s="222" t="s">
+      <c r="T4" s="253">
+        <v>1</v>
+      </c>
+      <c r="U4" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="222" t="s">
+      <c r="V4" s="255" t="s">
         <v>34</v>
       </c>
       <c r="W4" s="9" t="s">
@@ -3323,30 +3383,30 @@
       <c r="AA4" s="34"/>
       <c r="AB4" s="59"/>
       <c r="AC4" s="3"/>
-      <c r="AD4" s="133"/>
+      <c r="AD4" s="132"/>
       <c r="AE4" s="60"/>
-      <c r="AF4" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH4" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI4" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK4" s="254" t="s">
+      <c r="AF4" s="188" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG4" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH4" s="232" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI4" s="130" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK4" s="287" t="s">
         <v>19</v>
       </c>
-      <c r="AL4" s="220">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="222" t="s">
+      <c r="AL4" s="253">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="AN4" s="222" t="s">
+      <c r="AN4" s="255" t="s">
         <v>34</v>
       </c>
       <c r="AO4" s="9" t="s">
@@ -3366,10 +3426,10 @@
       <c r="BA4" s="34"/>
     </row>
     <row r="5" spans="1:53" ht="30" customHeight="1">
-      <c r="A5" s="255"/>
-      <c r="B5" s="221"/>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
+      <c r="A5" s="288"/>
+      <c r="B5" s="254"/>
+      <c r="C5" s="256"/>
+      <c r="D5" s="256"/>
       <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
@@ -3381,14 +3441,14 @@
       <c r="K5" s="3"/>
       <c r="L5" s="24"/>
       <c r="M5" s="34"/>
-      <c r="N5" s="138"/>
+      <c r="N5" s="137"/>
       <c r="O5" s="58"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="118"/>
-      <c r="S5" s="255"/>
-      <c r="T5" s="221"/>
-      <c r="U5" s="223"/>
-      <c r="V5" s="223"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="117"/>
+      <c r="S5" s="288"/>
+      <c r="T5" s="254"/>
+      <c r="U5" s="256"/>
+      <c r="V5" s="256"/>
       <c r="W5" s="10" t="s">
         <v>2</v>
       </c>
@@ -3398,24 +3458,24 @@
       <c r="AA5" s="75"/>
       <c r="AB5" s="59"/>
       <c r="AC5" s="3"/>
-      <c r="AD5" s="133"/>
+      <c r="AD5" s="132"/>
       <c r="AE5" s="60"/>
-      <c r="AF5" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH5" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI5" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK5" s="255"/>
-      <c r="AL5" s="221"/>
-      <c r="AM5" s="223"/>
-      <c r="AN5" s="223"/>
+      <c r="AF5" s="231" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG5" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH5" s="233" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI5" s="234" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK5" s="288"/>
+      <c r="AL5" s="254"/>
+      <c r="AM5" s="256"/>
+      <c r="AN5" s="256"/>
       <c r="AO5" s="10" t="s">
         <v>2</v>
       </c>
@@ -3433,14 +3493,14 @@
       <c r="BA5" s="60"/>
     </row>
     <row r="6" spans="1:53" ht="47.25">
-      <c r="A6" s="255"/>
-      <c r="B6" s="224">
-        <v>2</v>
-      </c>
-      <c r="C6" s="225" t="s">
+      <c r="A6" s="288"/>
+      <c r="B6" s="257">
+        <v>2</v>
+      </c>
+      <c r="C6" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="225" t="s">
+      <c r="D6" s="258" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -3454,18 +3514,18 @@
       <c r="K6" s="3"/>
       <c r="L6" s="24"/>
       <c r="M6" s="34"/>
-      <c r="N6" s="138"/>
+      <c r="N6" s="137"/>
       <c r="O6" s="58"/>
-      <c r="P6" s="117"/>
-      <c r="Q6" s="118"/>
-      <c r="S6" s="255"/>
-      <c r="T6" s="224">
-        <v>2</v>
-      </c>
-      <c r="U6" s="225" t="s">
+      <c r="P6" s="116"/>
+      <c r="Q6" s="117"/>
+      <c r="S6" s="288"/>
+      <c r="T6" s="257">
+        <v>2</v>
+      </c>
+      <c r="U6" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="225" t="s">
+      <c r="V6" s="258" t="s">
         <v>36</v>
       </c>
       <c r="W6" s="11" t="s">
@@ -3481,32 +3541,32 @@
       <c r="AC6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AD6" s="133" t="s">
+      <c r="AD6" s="132" t="s">
         <v>127</v>
       </c>
       <c r="AE6" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="AF6" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH6" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI6" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK6" s="255"/>
-      <c r="AL6" s="224">
-        <v>2</v>
-      </c>
-      <c r="AM6" s="225" t="s">
+      <c r="AF6" s="231" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG6" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH6" s="233" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI6" s="234" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK6" s="288"/>
+      <c r="AL6" s="257">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="AN6" s="225" t="s">
+      <c r="AN6" s="258" t="s">
         <v>36</v>
       </c>
       <c r="AO6" s="11" t="s">
@@ -3526,10 +3586,10 @@
       <c r="BA6" s="60"/>
     </row>
     <row r="7" spans="1:53" ht="47.25">
-      <c r="A7" s="255"/>
-      <c r="B7" s="221"/>
-      <c r="C7" s="223"/>
-      <c r="D7" s="223"/>
+      <c r="A7" s="288"/>
+      <c r="B7" s="254"/>
+      <c r="C7" s="256"/>
+      <c r="D7" s="256"/>
       <c r="E7" s="11" t="s">
         <v>2</v>
       </c>
@@ -3541,14 +3601,14 @@
       <c r="K7" s="3"/>
       <c r="L7" s="24"/>
       <c r="M7" s="34"/>
-      <c r="N7" s="138"/>
+      <c r="N7" s="137"/>
       <c r="O7" s="58"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="118"/>
-      <c r="S7" s="255"/>
-      <c r="T7" s="221"/>
-      <c r="U7" s="223"/>
-      <c r="V7" s="223"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="117"/>
+      <c r="S7" s="288"/>
+      <c r="T7" s="254"/>
+      <c r="U7" s="256"/>
+      <c r="V7" s="256"/>
       <c r="W7" s="11" t="s">
         <v>2</v>
       </c>
@@ -3562,28 +3622,28 @@
       <c r="AC7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AD7" s="133" t="s">
+      <c r="AD7" s="132" t="s">
         <v>127</v>
       </c>
       <c r="AE7" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="AF7" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH7" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI7" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK7" s="255"/>
-      <c r="AL7" s="221"/>
-      <c r="AM7" s="223"/>
-      <c r="AN7" s="223"/>
+      <c r="AF7" s="231" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG7" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH7" s="233" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI7" s="234" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK7" s="288"/>
+      <c r="AL7" s="254"/>
+      <c r="AM7" s="256"/>
+      <c r="AN7" s="256"/>
       <c r="AO7" s="11" t="s">
         <v>2</v>
       </c>
@@ -3601,14 +3661,14 @@
       <c r="BA7" s="60"/>
     </row>
     <row r="8" spans="1:53" ht="47.25">
-      <c r="A8" s="255"/>
-      <c r="B8" s="224">
+      <c r="A8" s="288"/>
+      <c r="B8" s="257">
         <v>3</v>
       </c>
-      <c r="C8" s="225" t="s">
+      <c r="C8" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="225" t="s">
+      <c r="D8" s="258" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -3618,22 +3678,22 @@
       <c r="G8" s="3"/>
       <c r="H8" s="24"/>
       <c r="I8" s="34"/>
-      <c r="J8" s="88"/>
+      <c r="J8" s="87"/>
       <c r="K8" s="73"/>
-      <c r="L8" s="87"/>
+      <c r="L8" s="86"/>
       <c r="M8" s="34"/>
-      <c r="N8" s="138"/>
+      <c r="N8" s="137"/>
       <c r="O8" s="58"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="118"/>
-      <c r="S8" s="255"/>
-      <c r="T8" s="224">
+      <c r="P8" s="116"/>
+      <c r="Q8" s="117"/>
+      <c r="S8" s="288"/>
+      <c r="T8" s="257">
         <v>3</v>
       </c>
-      <c r="U8" s="225" t="s">
+      <c r="U8" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="V8" s="225" t="s">
+      <c r="V8" s="258" t="s">
         <v>47</v>
       </c>
       <c r="W8" s="11" t="s">
@@ -3648,7 +3708,7 @@
       <c r="Z8" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AA8" s="179" t="s">
+      <c r="AA8" s="178" t="s">
         <v>70</v>
       </c>
       <c r="AB8" s="59" t="s">
@@ -3657,32 +3717,32 @@
       <c r="AC8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AD8" s="133" t="s">
+      <c r="AD8" s="132" t="s">
         <v>127</v>
       </c>
       <c r="AE8" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="AF8" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH8" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI8" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK8" s="255"/>
-      <c r="AL8" s="224">
+      <c r="AF8" s="231" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG8" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH8" s="233" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI8" s="234" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK8" s="288"/>
+      <c r="AL8" s="257">
         <v>3</v>
       </c>
-      <c r="AM8" s="225" t="s">
+      <c r="AM8" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="AN8" s="225" t="s">
+      <c r="AN8" s="258" t="s">
         <v>47</v>
       </c>
       <c r="AO8" s="11" t="s">
@@ -3710,10 +3770,10 @@
       <c r="BA8" s="60"/>
     </row>
     <row r="9" spans="1:53" ht="47.25">
-      <c r="A9" s="255"/>
-      <c r="B9" s="227"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="226"/>
+      <c r="A9" s="288"/>
+      <c r="B9" s="260"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
       <c r="E9" s="11" t="s">
         <v>2</v>
       </c>
@@ -3721,61 +3781,61 @@
       <c r="G9" s="3"/>
       <c r="H9" s="24"/>
       <c r="I9" s="34"/>
-      <c r="J9" s="88"/>
+      <c r="J9" s="87"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="87"/>
+      <c r="L9" s="86"/>
       <c r="M9" s="34"/>
-      <c r="N9" s="138" t="s">
+      <c r="N9" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="O9" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="129" t="s">
+      <c r="O9" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="Q9" s="152" t="s">
+      <c r="Q9" s="151" t="s">
         <v>70</v>
       </c>
-      <c r="S9" s="255"/>
-      <c r="T9" s="227"/>
-      <c r="U9" s="226"/>
-      <c r="V9" s="226"/>
+      <c r="S9" s="288"/>
+      <c r="T9" s="260"/>
+      <c r="U9" s="259"/>
+      <c r="V9" s="259"/>
       <c r="W9" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X9" s="59"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="91"/>
+      <c r="AA9" s="90"/>
       <c r="AB9" s="59" t="s">
         <v>129</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AD9" s="133" t="s">
+      <c r="AD9" s="132" t="s">
         <v>127</v>
       </c>
       <c r="AE9" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="AF9" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH9" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="AI9" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK9" s="255"/>
-      <c r="AL9" s="227"/>
-      <c r="AM9" s="226"/>
-      <c r="AN9" s="226"/>
+      <c r="AF9" s="231" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG9" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH9" s="235" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI9" s="234" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK9" s="288"/>
+      <c r="AL9" s="260"/>
+      <c r="AM9" s="259"/>
+      <c r="AN9" s="259"/>
       <c r="AO9" s="11" t="s">
         <v>2</v>
       </c>
@@ -3801,14 +3861,14 @@
       <c r="BA9" s="60"/>
     </row>
     <row r="10" spans="1:53" ht="47.25">
-      <c r="A10" s="255"/>
-      <c r="B10" s="224">
+      <c r="A10" s="288"/>
+      <c r="B10" s="257">
         <v>4</v>
       </c>
-      <c r="C10" s="225" t="s">
+      <c r="C10" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="225" t="s">
+      <c r="D10" s="258" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -3818,23 +3878,23 @@
       <c r="G10" s="3"/>
       <c r="H10" s="24"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="88"/>
+      <c r="J10" s="87"/>
       <c r="K10" s="73"/>
-      <c r="L10" s="87"/>
+      <c r="L10" s="86"/>
       <c r="M10" s="34"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="152"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="151"/>
       <c r="R10" s="72"/>
-      <c r="S10" s="255"/>
-      <c r="T10" s="224">
+      <c r="S10" s="288"/>
+      <c r="T10" s="257">
         <v>4</v>
       </c>
-      <c r="U10" s="225" t="s">
+      <c r="U10" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="V10" s="225" t="s">
+      <c r="V10" s="258" t="s">
         <v>49</v>
       </c>
       <c r="W10" s="11" t="s">
@@ -3849,7 +3909,7 @@
       <c r="Z10" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AA10" s="179" t="s">
+      <c r="AA10" s="178" t="s">
         <v>70</v>
       </c>
       <c r="AB10" s="59" t="s">
@@ -3858,24 +3918,32 @@
       <c r="AC10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AD10" s="133" t="s">
+      <c r="AD10" s="132" t="s">
         <v>127</v>
       </c>
       <c r="AE10" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="34"/>
-      <c r="AK10" s="255"/>
-      <c r="AL10" s="224">
+      <c r="AF10" s="237" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG10" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH10" s="233" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI10" s="234" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK10" s="288"/>
+      <c r="AL10" s="257">
         <v>4</v>
       </c>
-      <c r="AM10" s="225" t="s">
+      <c r="AM10" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="AN10" s="225" t="s">
+      <c r="AN10" s="258" t="s">
         <v>49</v>
       </c>
       <c r="AO10" s="11" t="s">
@@ -3895,7 +3963,7 @@
       </c>
       <c r="AT10" s="27"/>
       <c r="AU10" s="3"/>
-      <c r="AV10" s="82"/>
+      <c r="AV10" s="81"/>
       <c r="AW10" s="60"/>
       <c r="AX10" s="59"/>
       <c r="AY10" s="58"/>
@@ -3903,14 +3971,14 @@
       <c r="BA10" s="60"/>
     </row>
     <row r="11" spans="1:53" ht="47.25">
-      <c r="A11" s="255"/>
-      <c r="B11" s="221"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
+      <c r="A11" s="288"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="256"/>
+      <c r="D11" s="256"/>
       <c r="E11" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="88"/>
+      <c r="F11" s="87"/>
       <c r="G11" s="73"/>
       <c r="H11" s="68"/>
       <c r="I11" s="75"/>
@@ -3918,42 +3986,50 @@
       <c r="K11" s="3"/>
       <c r="L11" s="64"/>
       <c r="M11" s="60"/>
-      <c r="N11" s="138" t="s">
+      <c r="N11" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="O11" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="117" t="s">
+      <c r="O11" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="Q11" s="152" t="s">
+      <c r="Q11" s="151" t="s">
         <v>70</v>
       </c>
       <c r="R11" s="72"/>
-      <c r="S11" s="255"/>
-      <c r="T11" s="221"/>
-      <c r="U11" s="223"/>
-      <c r="V11" s="223"/>
+      <c r="S11" s="288"/>
+      <c r="T11" s="254"/>
+      <c r="U11" s="256"/>
+      <c r="V11" s="256"/>
       <c r="W11" s="80" t="s">
         <v>2</v>
       </c>
       <c r="X11" s="59"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="91"/>
+      <c r="AA11" s="90"/>
       <c r="AB11" s="59"/>
       <c r="AC11" s="3"/>
-      <c r="AD11" s="133"/>
+      <c r="AD11" s="132"/>
       <c r="AE11" s="60"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="133"/>
-      <c r="AI11" s="67"/>
-      <c r="AK11" s="255"/>
-      <c r="AL11" s="221"/>
-      <c r="AM11" s="223"/>
-      <c r="AN11" s="223"/>
+      <c r="AF11" s="231" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG11" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH11" s="235" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI11" s="234" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK11" s="288"/>
+      <c r="AL11" s="254"/>
+      <c r="AM11" s="256"/>
+      <c r="AN11" s="256"/>
       <c r="AO11" s="80" t="s">
         <v>2</v>
       </c>
@@ -3963,7 +4039,7 @@
       <c r="AQ11" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="AR11" s="90" t="s">
+      <c r="AR11" s="89" t="s">
         <v>82</v>
       </c>
       <c r="AS11" s="34" t="s">
@@ -3979,56 +4055,56 @@
       <c r="BA11" s="60"/>
     </row>
     <row r="12" spans="1:53" ht="68.25" customHeight="1">
-      <c r="A12" s="255"/>
-      <c r="B12" s="224">
+      <c r="A12" s="288"/>
+      <c r="B12" s="257">
         <v>5</v>
       </c>
-      <c r="C12" s="225" t="s">
+      <c r="C12" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="225" t="s">
+      <c r="D12" s="258" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="58"/>
       <c r="H12" s="24"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="98" t="s">
+      <c r="J12" s="97" t="s">
+        <v>172</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="M12" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="M12" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="N12" s="138" t="s">
+      <c r="N12" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="O12" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="117" t="s">
+      <c r="O12" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="Q12" s="152">
+      <c r="Q12" s="151">
         <v>418</v>
       </c>
       <c r="R12" s="72"/>
-      <c r="S12" s="255"/>
-      <c r="T12" s="224">
+      <c r="S12" s="288"/>
+      <c r="T12" s="257">
         <v>5</v>
       </c>
-      <c r="U12" s="225" t="s">
+      <c r="U12" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="V12" s="225" t="s">
+      <c r="V12" s="258" t="s">
         <v>39</v>
       </c>
       <c r="W12" s="11" t="s">
@@ -4043,7 +4119,7 @@
       <c r="Z12" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="AA12" s="179" t="s">
+      <c r="AA12" s="178" t="s">
         <v>70</v>
       </c>
       <c r="AB12" s="59" t="s">
@@ -4052,24 +4128,24 @@
       <c r="AC12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AD12" s="133" t="s">
+      <c r="AD12" s="132" t="s">
         <v>127</v>
       </c>
       <c r="AE12" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="AF12" s="100"/>
-      <c r="AG12" s="141"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="140"/>
       <c r="AH12" s="58"/>
       <c r="AI12" s="60"/>
-      <c r="AK12" s="255"/>
-      <c r="AL12" s="224">
+      <c r="AK12" s="288"/>
+      <c r="AL12" s="257">
         <v>5</v>
       </c>
-      <c r="AM12" s="225" t="s">
+      <c r="AM12" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="AN12" s="225" t="s">
+      <c r="AN12" s="258" t="s">
         <v>39</v>
       </c>
       <c r="AO12" s="11" t="s">
@@ -4078,7 +4154,7 @@
       <c r="AP12" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="AQ12" s="93" t="s">
+      <c r="AQ12" s="92" t="s">
         <v>74</v>
       </c>
       <c r="AR12" s="58" t="s">
@@ -4097,10 +4173,10 @@
       <c r="BA12" s="60"/>
     </row>
     <row r="13" spans="1:53" ht="63">
-      <c r="A13" s="255"/>
-      <c r="B13" s="221"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="223"/>
+      <c r="A13" s="288"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
       <c r="E13" s="11" t="s">
         <v>2</v>
       </c>
@@ -4108,54 +4184,54 @@
       <c r="G13" s="6"/>
       <c r="H13" s="25"/>
       <c r="I13" s="35"/>
-      <c r="J13" s="98" t="s">
-        <v>177</v>
+      <c r="J13" s="97" t="s">
+        <v>176</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L13" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="L13" s="224" t="s">
+        <v>229</v>
+      </c>
+      <c r="M13" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="M13" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="N13" s="138" t="s">
+      <c r="N13" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="O13" s="171" t="s">
+      <c r="O13" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="117" t="s">
+      <c r="P13" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="Q13" s="152" t="s">
+      <c r="Q13" s="151" t="s">
         <v>70</v>
       </c>
       <c r="R13" s="72"/>
-      <c r="S13" s="255"/>
-      <c r="T13" s="221"/>
-      <c r="U13" s="223"/>
-      <c r="V13" s="223"/>
+      <c r="S13" s="288"/>
+      <c r="T13" s="254"/>
+      <c r="U13" s="256"/>
+      <c r="V13" s="256"/>
       <c r="W13" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X13" s="59"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="91"/>
+      <c r="AA13" s="90"/>
       <c r="AB13" s="59"/>
       <c r="AC13" s="3"/>
-      <c r="AD13" s="133"/>
+      <c r="AD13" s="132"/>
       <c r="AE13" s="60"/>
       <c r="AF13" s="59"/>
       <c r="AG13" s="3"/>
-      <c r="AH13" s="133"/>
+      <c r="AH13" s="132"/>
       <c r="AI13" s="67"/>
-      <c r="AK13" s="255"/>
-      <c r="AL13" s="221"/>
-      <c r="AM13" s="223"/>
-      <c r="AN13" s="223"/>
+      <c r="AK13" s="288"/>
+      <c r="AL13" s="254"/>
+      <c r="AM13" s="256"/>
+      <c r="AN13" s="256"/>
       <c r="AO13" s="11" t="s">
         <v>2</v>
       </c>
@@ -4176,25 +4252,25 @@
       <c r="AV13" s="59"/>
       <c r="AW13" s="60"/>
       <c r="AX13" s="59"/>
-      <c r="AY13" s="112"/>
+      <c r="AY13" s="111"/>
       <c r="AZ13" s="58"/>
       <c r="BA13" s="60"/>
     </row>
     <row r="14" spans="1:53" ht="94.5">
-      <c r="A14" s="255"/>
-      <c r="B14" s="224">
+      <c r="A14" s="288"/>
+      <c r="B14" s="257">
         <v>6</v>
       </c>
-      <c r="C14" s="225" t="s">
+      <c r="C14" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="225" t="s">
+      <c r="D14" s="258" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="F14" s="97" t="s">
         <v>148</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -4206,39 +4282,39 @@
       <c r="I14" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="J14" s="98" t="s">
+      <c r="J14" s="97" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L14" s="64" t="s">
+      <c r="L14" s="224" t="s">
+        <v>229</v>
+      </c>
+      <c r="M14" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="M14" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="N14" s="138" t="s">
+      <c r="N14" s="137" t="s">
         <v>71</v>
       </c>
-      <c r="O14" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="117" t="s">
+      <c r="O14" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="Q14" s="152">
+      <c r="Q14" s="151">
         <v>418</v>
       </c>
       <c r="R14" s="72"/>
-      <c r="S14" s="255"/>
-      <c r="T14" s="224">
+      <c r="S14" s="288"/>
+      <c r="T14" s="257">
         <v>5</v>
       </c>
-      <c r="U14" s="225" t="s">
+      <c r="U14" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="V14" s="225" t="s">
+      <c r="V14" s="258" t="s">
         <v>37</v>
       </c>
       <c r="W14" s="11" t="s">
@@ -4253,7 +4329,7 @@
       <c r="Z14" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="AA14" s="179" t="s">
+      <c r="AA14" s="178" t="s">
         <v>70</v>
       </c>
       <c r="AB14" s="59" t="s">
@@ -4268,18 +4344,18 @@
       <c r="AE14" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="AF14" s="100"/>
-      <c r="AG14" s="141"/>
+      <c r="AF14" s="99"/>
+      <c r="AG14" s="140"/>
       <c r="AH14" s="58"/>
       <c r="AI14" s="60"/>
-      <c r="AK14" s="255"/>
-      <c r="AL14" s="224">
+      <c r="AK14" s="288"/>
+      <c r="AL14" s="257">
         <v>5</v>
       </c>
-      <c r="AM14" s="225" t="s">
+      <c r="AM14" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="AN14" s="225" t="s">
+      <c r="AN14" s="258" t="s">
         <v>37</v>
       </c>
       <c r="AO14" s="11" t="s">
@@ -4288,7 +4364,7 @@
       <c r="AP14" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="AQ14" s="93" t="s">
+      <c r="AQ14" s="92" t="s">
         <v>85</v>
       </c>
       <c r="AR14" s="58" t="s">
@@ -4307,14 +4383,14 @@
       <c r="BA14" s="60"/>
     </row>
     <row r="15" spans="1:53" ht="63">
-      <c r="A15" s="255"/>
-      <c r="B15" s="221"/>
-      <c r="C15" s="223"/>
-      <c r="D15" s="223"/>
+      <c r="A15" s="288"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="256"/>
+      <c r="D15" s="256"/>
       <c r="E15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="98" t="s">
+      <c r="F15" s="97" t="s">
         <v>148</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -4326,42 +4402,42 @@
       <c r="I15" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="98" t="s">
-        <v>177</v>
+      <c r="J15" s="97" t="s">
+        <v>176</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L15" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="L15" s="224" t="s">
+        <v>229</v>
+      </c>
+      <c r="M15" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="M15" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="N15" s="138" t="s">
+      <c r="N15" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="O15" s="171" t="s">
+      <c r="O15" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="117" t="s">
+      <c r="P15" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="Q15" s="152" t="s">
+      <c r="Q15" s="151" t="s">
         <v>70</v>
       </c>
       <c r="R15" s="72"/>
-      <c r="S15" s="255"/>
-      <c r="T15" s="221"/>
-      <c r="U15" s="223"/>
-      <c r="V15" s="223"/>
+      <c r="S15" s="288"/>
+      <c r="T15" s="254"/>
+      <c r="U15" s="256"/>
+      <c r="V15" s="256"/>
       <c r="W15" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X15" s="59"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="24"/>
-      <c r="AA15" s="180"/>
+      <c r="AA15" s="179"/>
       <c r="AB15" s="59" t="s">
         <v>135</v>
       </c>
@@ -4376,18 +4452,18 @@
       </c>
       <c r="AF15" s="59"/>
       <c r="AG15" s="3"/>
-      <c r="AH15" s="133"/>
+      <c r="AH15" s="132"/>
       <c r="AI15" s="67"/>
-      <c r="AK15" s="255"/>
-      <c r="AL15" s="221"/>
-      <c r="AM15" s="223"/>
-      <c r="AN15" s="223"/>
+      <c r="AK15" s="288"/>
+      <c r="AL15" s="254"/>
+      <c r="AM15" s="256"/>
+      <c r="AN15" s="256"/>
       <c r="AO15" s="11" t="s">
         <v>2</v>
       </c>
       <c r="AP15" s="59"/>
       <c r="AQ15" s="66"/>
-      <c r="AR15" s="90"/>
+      <c r="AR15" s="89"/>
       <c r="AS15" s="34"/>
       <c r="AT15" s="59"/>
       <c r="AU15" s="3"/>
@@ -4399,20 +4475,20 @@
       <c r="BA15" s="67"/>
     </row>
     <row r="16" spans="1:53" ht="94.5">
-      <c r="A16" s="255"/>
-      <c r="B16" s="227">
+      <c r="A16" s="288"/>
+      <c r="B16" s="260">
         <v>7</v>
       </c>
-      <c r="C16" s="226" t="s">
+      <c r="C16" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="226" t="s">
+      <c r="D16" s="259" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="98" t="s">
+      <c r="F16" s="97" t="s">
         <v>148</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -4424,31 +4500,31 @@
       <c r="I16" s="65" t="s">
         <v>150</v>
       </c>
-      <c r="J16" s="98" t="s">
-        <v>173</v>
+      <c r="J16" s="97" t="s">
+        <v>172</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="224" t="s">
+        <v>229</v>
+      </c>
+      <c r="M16" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="M16" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="N16" s="98"/>
+      <c r="N16" s="97"/>
       <c r="O16" s="58"/>
       <c r="P16" s="58"/>
-      <c r="Q16" s="108"/>
+      <c r="Q16" s="107"/>
       <c r="R16" s="72"/>
-      <c r="S16" s="255"/>
-      <c r="T16" s="227">
+      <c r="S16" s="288"/>
+      <c r="T16" s="260">
         <v>6</v>
       </c>
-      <c r="U16" s="226" t="s">
+      <c r="U16" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="V16" s="226" t="s">
+      <c r="V16" s="259" t="s">
         <v>43</v>
       </c>
       <c r="W16" s="11" t="s">
@@ -4457,7 +4533,7 @@
       <c r="X16" s="59"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="24"/>
-      <c r="AA16" s="179"/>
+      <c r="AA16" s="178"/>
       <c r="AB16" s="59" t="s">
         <v>132</v>
       </c>
@@ -4474,14 +4550,14 @@
       <c r="AG16" s="58"/>
       <c r="AH16" s="58"/>
       <c r="AI16" s="60"/>
-      <c r="AK16" s="255"/>
-      <c r="AL16" s="227">
+      <c r="AK16" s="288"/>
+      <c r="AL16" s="260">
         <v>6</v>
       </c>
-      <c r="AM16" s="226" t="s">
+      <c r="AM16" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="AN16" s="226" t="s">
+      <c r="AN16" s="259" t="s">
         <v>43</v>
       </c>
       <c r="AO16" s="11" t="s">
@@ -4501,14 +4577,14 @@
       <c r="BA16" s="34"/>
     </row>
     <row r="17" spans="1:53" ht="63.75" thickBot="1">
-      <c r="A17" s="256"/>
-      <c r="B17" s="228"/>
-      <c r="C17" s="234"/>
-      <c r="D17" s="234"/>
+      <c r="A17" s="289"/>
+      <c r="B17" s="261"/>
+      <c r="C17" s="267"/>
+      <c r="D17" s="267"/>
       <c r="E17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="209" t="s">
+      <c r="F17" s="208" t="s">
         <v>148</v>
       </c>
       <c r="G17" s="12" t="s">
@@ -4517,38 +4593,38 @@
       <c r="H17" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="143" t="s">
+      <c r="I17" s="142" t="s">
         <v>150</v>
       </c>
-      <c r="J17" s="209" t="s">
-        <v>177</v>
+      <c r="J17" s="208" t="s">
+        <v>176</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M17" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="M17" s="143" t="s">
-        <v>176</v>
-      </c>
-      <c r="N17" s="102"/>
+      <c r="N17" s="101"/>
       <c r="O17" s="12"/>
       <c r="P17" s="13"/>
-      <c r="Q17" s="109"/>
+      <c r="Q17" s="108"/>
       <c r="R17" s="72"/>
-      <c r="S17" s="256"/>
-      <c r="T17" s="228"/>
-      <c r="U17" s="234"/>
-      <c r="V17" s="234"/>
+      <c r="S17" s="289"/>
+      <c r="T17" s="261"/>
+      <c r="U17" s="267"/>
+      <c r="V17" s="267"/>
       <c r="W17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="181"/>
-      <c r="Z17" s="181"/>
-      <c r="AA17" s="182"/>
-      <c r="AB17" s="102" t="s">
+      <c r="X17" s="105"/>
+      <c r="Y17" s="180"/>
+      <c r="Z17" s="180"/>
+      <c r="AA17" s="181"/>
+      <c r="AB17" s="101" t="s">
         <v>135</v>
       </c>
       <c r="AC17" s="13" t="s">
@@ -4557,25 +4633,25 @@
       <c r="AD17" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AE17" s="140" t="s">
+      <c r="AE17" s="139" t="s">
         <v>136</v>
       </c>
-      <c r="AF17" s="102"/>
-      <c r="AG17" s="102"/>
-      <c r="AH17" s="102"/>
-      <c r="AI17" s="172"/>
-      <c r="AK17" s="256"/>
-      <c r="AL17" s="228"/>
-      <c r="AM17" s="234"/>
-      <c r="AN17" s="234"/>
+      <c r="AF17" s="101"/>
+      <c r="AG17" s="101"/>
+      <c r="AH17" s="101"/>
+      <c r="AI17" s="171"/>
+      <c r="AK17" s="289"/>
+      <c r="AL17" s="261"/>
+      <c r="AM17" s="267"/>
+      <c r="AN17" s="267"/>
       <c r="AO17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AP17" s="102"/>
-      <c r="AQ17" s="191"/>
-      <c r="AR17" s="191"/>
+      <c r="AP17" s="101"/>
+      <c r="AQ17" s="190"/>
+      <c r="AR17" s="190"/>
       <c r="AS17" s="34"/>
-      <c r="AT17" s="102"/>
+      <c r="AT17" s="101"/>
       <c r="AU17" s="13"/>
       <c r="AV17" s="13"/>
       <c r="AW17" s="36"/>
@@ -4585,43 +4661,43 @@
       <c r="BA17" s="36"/>
     </row>
     <row r="18" spans="1:53" ht="30" customHeight="1">
-      <c r="A18" s="257" t="s">
+      <c r="A18" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="227">
-        <v>1</v>
-      </c>
-      <c r="C18" s="222" t="s">
+      <c r="B18" s="260">
+        <v>1</v>
+      </c>
+      <c r="C18" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="222" t="s">
+      <c r="D18" s="255" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="208"/>
+      <c r="F18" s="207"/>
       <c r="G18" s="73"/>
       <c r="H18" s="24"/>
       <c r="I18" s="35"/>
-      <c r="J18" s="136"/>
+      <c r="J18" s="135"/>
       <c r="K18" s="66"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="96"/>
+      <c r="M18" s="95"/>
       <c r="N18" s="57"/>
       <c r="O18" s="66"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="65"/>
-      <c r="S18" s="257" t="s">
+      <c r="S18" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="T18" s="227">
-        <v>1</v>
-      </c>
-      <c r="U18" s="222" t="s">
+      <c r="T18" s="260">
+        <v>1</v>
+      </c>
+      <c r="U18" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="222" t="s">
+      <c r="V18" s="255" t="s">
         <v>34</v>
       </c>
       <c r="W18" s="76" t="s">
@@ -4630,33 +4706,33 @@
       <c r="X18" s="59"/>
       <c r="Y18" s="66"/>
       <c r="Z18" s="3"/>
-      <c r="AA18" s="91"/>
+      <c r="AA18" s="90"/>
       <c r="AB18" s="59"/>
       <c r="AC18" s="66"/>
-      <c r="AD18" s="133"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH18" s="24" t="s">
+      <c r="AD18" s="132"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="188" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG18" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH18" s="232" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI18" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="AI18" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK18" s="257" t="s">
+      <c r="AK18" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="AL18" s="227">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="222" t="s">
+      <c r="AL18" s="260">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="AN18" s="222" t="s">
+      <c r="AN18" s="255" t="s">
         <v>34</v>
       </c>
       <c r="AO18" s="76" t="s">
@@ -4676,14 +4752,14 @@
       <c r="BA18" s="60"/>
     </row>
     <row r="19" spans="1:53" ht="32.25" customHeight="1">
-      <c r="A19" s="258"/>
-      <c r="B19" s="221"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="223"/>
+      <c r="A19" s="291"/>
+      <c r="B19" s="254"/>
+      <c r="C19" s="256"/>
+      <c r="D19" s="256"/>
       <c r="E19" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="84"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="73"/>
       <c r="H19" s="77"/>
       <c r="I19" s="34"/>
@@ -4691,43 +4767,51 @@
       <c r="K19" s="66"/>
       <c r="L19" s="24"/>
       <c r="M19" s="65"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="126"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="118"/>
-      <c r="S19" s="258"/>
-      <c r="T19" s="221"/>
-      <c r="U19" s="223"/>
-      <c r="V19" s="223"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="117"/>
+      <c r="S19" s="291"/>
+      <c r="T19" s="254"/>
+      <c r="U19" s="256"/>
+      <c r="V19" s="256"/>
       <c r="W19" s="69" t="s">
         <v>2</v>
       </c>
       <c r="X19" s="59"/>
       <c r="Y19" s="66"/>
       <c r="Z19" s="3"/>
-      <c r="AA19" s="91"/>
+      <c r="AA19" s="90"/>
       <c r="AB19" s="59"/>
       <c r="AC19" s="66"/>
-      <c r="AD19" s="133"/>
+      <c r="AD19" s="132"/>
       <c r="AE19" s="60"/>
-      <c r="AF19" s="57"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="60"/>
-      <c r="AK19" s="258"/>
-      <c r="AL19" s="221"/>
-      <c r="AM19" s="223"/>
-      <c r="AN19" s="223"/>
+      <c r="AF19" s="238" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG19" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH19" s="235" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI19" s="234" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK19" s="291"/>
+      <c r="AL19" s="254"/>
+      <c r="AM19" s="256"/>
+      <c r="AN19" s="256"/>
       <c r="AO19" s="69" t="s">
         <v>2</v>
       </c>
       <c r="AP19" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AQ19" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR19" s="93" t="s">
+      <c r="AQ19" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR19" s="92" t="s">
         <v>81</v>
       </c>
       <c r="AS19" s="75" t="s">
@@ -4743,14 +4827,14 @@
       <c r="BA19" s="60"/>
     </row>
     <row r="20" spans="1:53" ht="30" customHeight="1">
-      <c r="A20" s="258"/>
-      <c r="B20" s="224">
-        <v>2</v>
-      </c>
-      <c r="C20" s="225" t="s">
+      <c r="A20" s="291"/>
+      <c r="B20" s="257">
+        <v>2</v>
+      </c>
+      <c r="C20" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="225" t="s">
+      <c r="D20" s="258" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -4764,60 +4848,60 @@
       <c r="K20" s="66"/>
       <c r="L20" s="24"/>
       <c r="M20" s="65"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="126"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="118"/>
-      <c r="S20" s="258"/>
-      <c r="T20" s="224">
-        <v>2</v>
-      </c>
-      <c r="U20" s="225" t="s">
+      <c r="N20" s="120"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="117"/>
+      <c r="S20" s="291"/>
+      <c r="T20" s="257">
+        <v>2</v>
+      </c>
+      <c r="U20" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="V20" s="225" t="s">
+      <c r="V20" s="258" t="s">
         <v>36</v>
       </c>
       <c r="W20" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="X20" s="114"/>
+      <c r="X20" s="113"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="74"/>
-      <c r="AA20" s="91"/>
-      <c r="AB20" s="167"/>
-      <c r="AC20" s="133"/>
-      <c r="AD20" s="165"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="166"/>
+      <c r="AC20" s="132"/>
+      <c r="AD20" s="164"/>
       <c r="AE20" s="60"/>
-      <c r="AF20" s="128" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG20" s="150" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH20" s="24" t="s">
+      <c r="AF20" s="231" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG20" s="168" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH20" s="235" t="s">
         <v>155</v>
       </c>
-      <c r="AI20" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK20" s="258"/>
-      <c r="AL20" s="224">
-        <v>2</v>
-      </c>
-      <c r="AM20" s="225" t="s">
+      <c r="AI20" s="234" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK20" s="291"/>
+      <c r="AL20" s="257">
+        <v>2</v>
+      </c>
+      <c r="AM20" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="AN20" s="225" t="s">
+      <c r="AN20" s="258" t="s">
         <v>36</v>
       </c>
       <c r="AO20" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AP20" s="128"/>
-      <c r="AQ20" s="150"/>
-      <c r="AR20" s="192"/>
-      <c r="AS20" s="152"/>
+      <c r="AP20" s="127"/>
+      <c r="AQ20" s="149"/>
+      <c r="AR20" s="191"/>
+      <c r="AS20" s="151"/>
       <c r="AT20" s="59"/>
       <c r="AU20" s="3"/>
       <c r="AV20" s="24"/>
@@ -4828,10 +4912,10 @@
       <c r="BA20" s="60"/>
     </row>
     <row r="21" spans="1:53" ht="30" customHeight="1">
-      <c r="A21" s="258"/>
-      <c r="B21" s="221"/>
-      <c r="C21" s="223"/>
-      <c r="D21" s="223"/>
+      <c r="A21" s="291"/>
+      <c r="B21" s="254"/>
+      <c r="C21" s="256"/>
+      <c r="D21" s="256"/>
       <c r="E21" s="11" t="s">
         <v>2</v>
       </c>
@@ -4843,43 +4927,51 @@
       <c r="K21" s="58"/>
       <c r="L21" s="24"/>
       <c r="M21" s="65"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="126"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="118"/>
-      <c r="S21" s="258"/>
-      <c r="T21" s="221"/>
-      <c r="U21" s="223"/>
-      <c r="V21" s="223"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="117"/>
+      <c r="S21" s="291"/>
+      <c r="T21" s="254"/>
+      <c r="U21" s="256"/>
+      <c r="V21" s="256"/>
       <c r="W21" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X21" s="59"/>
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
-      <c r="AA21" s="91"/>
-      <c r="AB21" s="138"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="137"/>
       <c r="AC21" s="64"/>
       <c r="AD21" s="64"/>
       <c r="AE21" s="60"/>
-      <c r="AF21" s="128"/>
-      <c r="AG21" s="150"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="60"/>
-      <c r="AK21" s="258"/>
-      <c r="AL21" s="221"/>
-      <c r="AM21" s="223"/>
-      <c r="AN21" s="223"/>
+      <c r="AF21" s="231" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG21" s="168" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH21" s="235" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI21" s="234" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK21" s="291"/>
+      <c r="AL21" s="254"/>
+      <c r="AM21" s="256"/>
+      <c r="AN21" s="256"/>
       <c r="AO21" s="11" t="s">
         <v>2</v>
       </c>
       <c r="AP21" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AQ21" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR21" s="93" t="s">
+      <c r="AQ21" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR21" s="92" t="s">
         <v>81</v>
       </c>
       <c r="AS21" s="75" t="s">
@@ -4895,14 +4987,14 @@
       <c r="BA21" s="60"/>
     </row>
     <row r="22" spans="1:53" ht="54.75" customHeight="1">
-      <c r="A22" s="258"/>
-      <c r="B22" s="224">
+      <c r="A22" s="291"/>
+      <c r="B22" s="257">
         <v>3</v>
       </c>
-      <c r="C22" s="225" t="s">
+      <c r="C22" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="225" t="s">
+      <c r="D22" s="258" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -4912,22 +5004,30 @@
       <c r="G22" s="3"/>
       <c r="H22" s="24"/>
       <c r="I22" s="34"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="119"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="127"/>
-      <c r="S22" s="258"/>
-      <c r="T22" s="224">
+      <c r="J22" s="188" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" s="149" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" s="224" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="N22" s="121"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="118"/>
+      <c r="Q22" s="126"/>
+      <c r="S22" s="291"/>
+      <c r="T22" s="257">
         <v>3</v>
       </c>
-      <c r="U22" s="225" t="s">
+      <c r="U22" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="V22" s="225" t="s">
+      <c r="V22" s="258" t="s">
         <v>47</v>
       </c>
       <c r="W22" s="11" t="s">
@@ -4942,33 +5042,33 @@
       <c r="Z22" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="AA22" s="179">
+      <c r="AA22" s="178">
         <v>418</v>
       </c>
-      <c r="AB22" s="166"/>
-      <c r="AC22" s="168"/>
-      <c r="AD22" s="90"/>
+      <c r="AB22" s="165"/>
+      <c r="AC22" s="167"/>
+      <c r="AD22" s="89"/>
       <c r="AE22" s="60"/>
-      <c r="AF22" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH22" s="24" t="s">
+      <c r="AF22" s="231" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG22" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH22" s="235" t="s">
         <v>155</v>
       </c>
-      <c r="AI22" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK22" s="258"/>
-      <c r="AL22" s="224">
+      <c r="AI22" s="234" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK22" s="291"/>
+      <c r="AL22" s="257">
         <v>3</v>
       </c>
-      <c r="AM22" s="225" t="s">
+      <c r="AM22" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="AN22" s="225" t="s">
+      <c r="AN22" s="258" t="s">
         <v>47</v>
       </c>
       <c r="AO22" s="11" t="s">
@@ -4996,14 +5096,14 @@
       <c r="BA22" s="60"/>
     </row>
     <row r="23" spans="1:53" ht="30" customHeight="1">
-      <c r="A23" s="258"/>
-      <c r="B23" s="221"/>
-      <c r="C23" s="226"/>
-      <c r="D23" s="226"/>
+      <c r="A23" s="291"/>
+      <c r="B23" s="254"/>
+      <c r="C23" s="259"/>
+      <c r="D23" s="259"/>
       <c r="E23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="98" t="s">
+      <c r="F23" s="97" t="s">
         <v>151</v>
       </c>
       <c r="G23" s="73" t="s">
@@ -5015,26 +5115,26 @@
       <c r="I23" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="J23" s="128"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="125" t="s">
+      <c r="J23" s="231"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="224"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="O23" s="171" t="s">
+      <c r="O23" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="P23" s="117" t="s">
+      <c r="P23" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="Q23" s="152" t="s">
+      <c r="Q23" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="S23" s="258"/>
-      <c r="T23" s="221"/>
-      <c r="U23" s="226"/>
-      <c r="V23" s="226"/>
+      <c r="S23" s="291"/>
+      <c r="T23" s="254"/>
+      <c r="U23" s="259"/>
+      <c r="V23" s="259"/>
       <c r="W23" s="11" t="s">
         <v>2</v>
       </c>
@@ -5047,21 +5147,21 @@
       <c r="Z23" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="AA23" s="179" t="s">
+      <c r="AA23" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="AB23" s="166"/>
-      <c r="AC23" s="164"/>
-      <c r="AD23" s="90"/>
+      <c r="AB23" s="165"/>
+      <c r="AC23" s="163"/>
+      <c r="AD23" s="89"/>
       <c r="AE23" s="60"/>
-      <c r="AF23" s="57"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="67"/>
-      <c r="AK23" s="258"/>
-      <c r="AL23" s="221"/>
-      <c r="AM23" s="226"/>
-      <c r="AN23" s="226"/>
+      <c r="AF23" s="238"/>
+      <c r="AG23" s="230"/>
+      <c r="AH23" s="235"/>
+      <c r="AI23" s="236"/>
+      <c r="AK23" s="291"/>
+      <c r="AL23" s="254"/>
+      <c r="AM23" s="259"/>
+      <c r="AN23" s="259"/>
       <c r="AO23" s="11" t="s">
         <v>2</v>
       </c>
@@ -5083,51 +5183,51 @@
       <c r="AW23" s="34"/>
       <c r="AX23" s="59"/>
       <c r="AY23" s="58"/>
-      <c r="AZ23" s="113"/>
+      <c r="AZ23" s="112"/>
       <c r="BA23" s="60"/>
     </row>
     <row r="24" spans="1:53" ht="55.5" customHeight="1">
-      <c r="A24" s="258"/>
-      <c r="B24" s="224">
+      <c r="A24" s="291"/>
+      <c r="B24" s="257">
         <v>4</v>
       </c>
-      <c r="C24" s="225" t="s">
+      <c r="C24" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="225" t="s">
+      <c r="D24" s="258" t="s">
         <v>49</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="98"/>
-      <c r="G24" s="154"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="153"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="98" t="s">
-        <v>178</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L24" s="64" t="s">
-        <v>179</v>
+      <c r="I24" s="95"/>
+      <c r="J24" s="231" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" s="168" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="224" t="s">
+        <v>174</v>
       </c>
       <c r="M24" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="N24" s="138"/>
-      <c r="O24" s="171"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="152"/>
-      <c r="S24" s="258"/>
-      <c r="T24" s="224">
+        <v>160</v>
+      </c>
+      <c r="N24" s="137"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="151"/>
+      <c r="S24" s="291"/>
+      <c r="T24" s="257">
         <v>4</v>
       </c>
-      <c r="U24" s="225" t="s">
+      <c r="U24" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="V24" s="225" t="s">
+      <c r="V24" s="258" t="s">
         <v>49</v>
       </c>
       <c r="W24" s="11" t="s">
@@ -5142,25 +5242,33 @@
       <c r="Z24" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="AA24" s="179">
+      <c r="AA24" s="178">
         <v>418</v>
       </c>
-      <c r="AB24" s="166"/>
-      <c r="AC24" s="133"/>
-      <c r="AD24" s="168"/>
+      <c r="AB24" s="165"/>
+      <c r="AC24" s="132"/>
+      <c r="AD24" s="167"/>
       <c r="AE24" s="60"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="67"/>
-      <c r="AK24" s="258"/>
-      <c r="AL24" s="224">
+      <c r="AF24" s="231" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG24" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH24" s="235" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI24" s="234" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK24" s="291"/>
+      <c r="AL24" s="257">
         <v>4</v>
       </c>
-      <c r="AM24" s="225" t="s">
+      <c r="AM24" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="AN24" s="225" t="s">
+      <c r="AN24" s="258" t="s">
         <v>49</v>
       </c>
       <c r="AO24" s="11" t="s">
@@ -5180,53 +5288,53 @@
       </c>
       <c r="AT24" s="27"/>
       <c r="AU24" s="3"/>
-      <c r="AV24" s="90"/>
+      <c r="AV24" s="89"/>
       <c r="AW24" s="65"/>
       <c r="AX24" s="59"/>
       <c r="AY24" s="58"/>
-      <c r="AZ24" s="113"/>
+      <c r="AZ24" s="112"/>
       <c r="BA24" s="60"/>
     </row>
     <row r="25" spans="1:53" ht="30" customHeight="1">
-      <c r="A25" s="258"/>
-      <c r="B25" s="221"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="223"/>
+      <c r="A25" s="291"/>
+      <c r="B25" s="254"/>
+      <c r="C25" s="256"/>
+      <c r="D25" s="256"/>
       <c r="E25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="98" t="s">
+      <c r="F25" s="97" t="s">
         <v>154</v>
       </c>
-      <c r="G25" s="154" t="s">
+      <c r="G25" s="153" t="s">
         <v>59</v>
       </c>
       <c r="H25" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I25" s="96" t="s">
+      <c r="I25" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="J25" s="98"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="64"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="230"/>
+      <c r="L25" s="224"/>
       <c r="M25" s="65"/>
-      <c r="N25" s="125" t="s">
+      <c r="N25" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="O25" s="171" t="s">
+      <c r="O25" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="P25" s="117" t="s">
+      <c r="P25" s="116" t="s">
         <v>72</v>
       </c>
-      <c r="Q25" s="152" t="s">
+      <c r="Q25" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="S25" s="258"/>
-      <c r="T25" s="221"/>
-      <c r="U25" s="223"/>
-      <c r="V25" s="223"/>
+      <c r="S25" s="291"/>
+      <c r="T25" s="254"/>
+      <c r="U25" s="256"/>
+      <c r="V25" s="256"/>
       <c r="W25" s="11" t="s">
         <v>2</v>
       </c>
@@ -5239,7 +5347,7 @@
       <c r="Z25" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="AA25" s="179" t="s">
+      <c r="AA25" s="178" t="s">
         <v>61</v>
       </c>
       <c r="AB25" s="57"/>
@@ -5250,10 +5358,10 @@
       <c r="AG25" s="3"/>
       <c r="AH25" s="24"/>
       <c r="AI25" s="67"/>
-      <c r="AK25" s="258"/>
-      <c r="AL25" s="221"/>
-      <c r="AM25" s="223"/>
-      <c r="AN25" s="223"/>
+      <c r="AK25" s="291"/>
+      <c r="AL25" s="254"/>
+      <c r="AM25" s="256"/>
+      <c r="AN25" s="256"/>
       <c r="AO25" s="11" t="s">
         <v>2</v>
       </c>
@@ -5275,51 +5383,51 @@
       <c r="AW25" s="34"/>
       <c r="AX25" s="59"/>
       <c r="AY25" s="58"/>
-      <c r="AZ25" s="113"/>
+      <c r="AZ25" s="112"/>
       <c r="BA25" s="60"/>
     </row>
     <row r="26" spans="1:53" ht="47.25" customHeight="1">
-      <c r="A26" s="258"/>
-      <c r="B26" s="224">
+      <c r="A26" s="291"/>
+      <c r="B26" s="257">
         <v>5</v>
       </c>
-      <c r="C26" s="225" t="s">
+      <c r="C26" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="225" t="s">
+      <c r="D26" s="258" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F26" s="98"/>
-      <c r="G26" s="156"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="155"/>
       <c r="H26" s="24"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="98" t="s">
+      <c r="I26" s="95"/>
+      <c r="J26" s="231" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="224" t="s">
         <v>178</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="87" t="s">
-        <v>179</v>
-      </c>
       <c r="M26" s="65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N26" s="57"/>
-      <c r="O26" s="171"/>
+      <c r="O26" s="170"/>
       <c r="P26" s="64"/>
       <c r="Q26" s="65"/>
-      <c r="S26" s="258"/>
-      <c r="T26" s="224">
+      <c r="S26" s="291"/>
+      <c r="T26" s="257">
         <v>5</v>
       </c>
-      <c r="U26" s="225" t="s">
+      <c r="U26" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="V26" s="225" t="s">
+      <c r="V26" s="258" t="s">
         <v>39</v>
       </c>
       <c r="W26" s="11" t="s">
@@ -5328,37 +5436,37 @@
       <c r="X26" s="59"/>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
-      <c r="AA26" s="91"/>
+      <c r="AA26" s="90"/>
       <c r="AB26" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="AC26" s="171" t="s">
+      <c r="AC26" s="170" t="s">
         <v>138</v>
       </c>
-      <c r="AD26" s="90" t="s">
+      <c r="AD26" s="89" t="s">
         <v>139</v>
       </c>
       <c r="AE26" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="AF26" s="100"/>
+      <c r="AF26" s="99"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="24"/>
       <c r="AI26" s="67"/>
-      <c r="AK26" s="258"/>
-      <c r="AL26" s="224">
+      <c r="AK26" s="291"/>
+      <c r="AL26" s="257">
         <v>5</v>
       </c>
-      <c r="AM26" s="225" t="s">
+      <c r="AM26" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="AN26" s="225" t="s">
+      <c r="AN26" s="258" t="s">
         <v>39</v>
       </c>
       <c r="AO26" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AP26" s="100" t="s">
+      <c r="AP26" s="99" t="s">
         <v>117</v>
       </c>
       <c r="AQ26" s="66" t="s">
@@ -5376,148 +5484,156 @@
       <c r="AW26" s="65"/>
       <c r="AX26" s="59"/>
       <c r="AY26" s="58"/>
-      <c r="AZ26" s="113"/>
+      <c r="AZ26" s="112"/>
       <c r="BA26" s="60"/>
     </row>
-    <row r="27" spans="1:53" ht="31.5">
-      <c r="A27" s="258"/>
-      <c r="B27" s="221"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="223"/>
+    <row r="27" spans="1:53" ht="47.25">
+      <c r="A27" s="291"/>
+      <c r="B27" s="254"/>
+      <c r="C27" s="256"/>
+      <c r="D27" s="256"/>
       <c r="E27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="98" t="s">
+      <c r="F27" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="G27" s="157" t="s">
+      <c r="G27" s="156" t="s">
         <v>59</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="I27" s="96" t="s">
+      <c r="I27" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="J27" s="98"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="96"/>
+      <c r="J27" s="231" t="s">
+        <v>179</v>
+      </c>
+      <c r="K27" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="224" t="s">
+        <v>178</v>
+      </c>
+      <c r="M27" s="65" t="s">
+        <v>175</v>
+      </c>
       <c r="N27" s="78"/>
-      <c r="O27" s="171"/>
+      <c r="O27" s="170"/>
       <c r="P27" s="24"/>
       <c r="Q27" s="34"/>
-      <c r="S27" s="258"/>
-      <c r="T27" s="221"/>
-      <c r="U27" s="223"/>
-      <c r="V27" s="223"/>
+      <c r="S27" s="291"/>
+      <c r="T27" s="254"/>
+      <c r="U27" s="256"/>
+      <c r="V27" s="256"/>
       <c r="W27" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X27" s="59"/>
       <c r="Y27" s="27"/>
       <c r="Z27" s="27"/>
-      <c r="AA27" s="179"/>
+      <c r="AA27" s="178"/>
       <c r="AB27" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="AC27" s="171" t="s">
+      <c r="AC27" s="170" t="s">
         <v>59</v>
       </c>
       <c r="AD27" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="AE27" s="91">
+      <c r="AE27" s="90">
         <v>208</v>
       </c>
-      <c r="AF27" s="142"/>
+      <c r="AF27" s="141"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="24"/>
       <c r="AI27" s="67"/>
-      <c r="AK27" s="258"/>
-      <c r="AL27" s="221"/>
-      <c r="AM27" s="223"/>
-      <c r="AN27" s="223"/>
+      <c r="AK27" s="291"/>
+      <c r="AL27" s="254"/>
+      <c r="AM27" s="256"/>
+      <c r="AN27" s="256"/>
       <c r="AO27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AP27" s="100"/>
+      <c r="AP27" s="99"/>
       <c r="AQ27" s="66"/>
       <c r="AR27" s="66"/>
       <c r="AS27" s="34"/>
       <c r="AT27" s="59"/>
       <c r="AU27" s="59"/>
       <c r="AV27" s="59"/>
-      <c r="AW27" s="91"/>
+      <c r="AW27" s="90"/>
       <c r="AX27" s="59"/>
       <c r="AY27" s="58"/>
       <c r="AZ27" s="58"/>
       <c r="BA27" s="60"/>
     </row>
     <row r="28" spans="1:53" ht="47.25">
-      <c r="A28" s="258"/>
-      <c r="B28" s="224">
+      <c r="A28" s="291"/>
+      <c r="B28" s="257">
         <v>6</v>
       </c>
-      <c r="C28" s="225" t="s">
+      <c r="C28" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="225" t="s">
+      <c r="D28" s="258" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="98" t="s">
+      <c r="F28" s="97" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="157" t="s">
+      <c r="G28" s="156" t="s">
         <v>60</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="I28" s="96" t="s">
+      <c r="I28" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="98" t="s">
-        <v>180</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28" s="87" t="s">
-        <v>179</v>
+      <c r="J28" s="231" t="s">
+        <v>177</v>
+      </c>
+      <c r="K28" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="224" t="s">
+        <v>178</v>
       </c>
       <c r="M28" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="N28" s="173" t="s">
+        <v>175</v>
+      </c>
+      <c r="N28" s="172" t="s">
         <v>76</v>
       </c>
-      <c r="O28" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="P28" s="129" t="s">
+      <c r="O28" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="Q28" s="152" t="s">
+      <c r="Q28" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="S28" s="258"/>
-      <c r="T28" s="224">
+      <c r="S28" s="291"/>
+      <c r="T28" s="257">
         <v>5</v>
       </c>
-      <c r="U28" s="225" t="s">
+      <c r="U28" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="V28" s="225" t="s">
+      <c r="V28" s="258" t="s">
         <v>37</v>
       </c>
       <c r="W28" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="X28" s="147" t="s">
+      <c r="X28" s="146" t="s">
         <v>76</v>
       </c>
       <c r="Y28" s="66" t="s">
@@ -5529,36 +5645,36 @@
       <c r="AA28" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="AB28" s="147" t="s">
+      <c r="AB28" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="AC28" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD28" s="129" t="s">
+      <c r="AC28" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD28" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="AE28" s="152" t="s">
+      <c r="AE28" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="AF28" s="100"/>
+      <c r="AF28" s="99"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="24"/>
       <c r="AI28" s="67"/>
-      <c r="AK28" s="258"/>
-      <c r="AL28" s="224">
+      <c r="AK28" s="291"/>
+      <c r="AL28" s="257">
         <v>5</v>
       </c>
-      <c r="AM28" s="225" t="s">
+      <c r="AM28" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="AN28" s="225" t="s">
+      <c r="AN28" s="258" t="s">
         <v>37</v>
       </c>
       <c r="AO28" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AP28" s="100" t="s">
+      <c r="AP28" s="99" t="s">
         <v>117</v>
       </c>
       <c r="AQ28" s="66" t="s">
@@ -5576,49 +5692,57 @@
       <c r="AW28" s="65"/>
       <c r="AX28" s="27"/>
       <c r="AY28" s="3"/>
-      <c r="AZ28" s="90"/>
+      <c r="AZ28" s="89"/>
       <c r="BA28" s="65"/>
     </row>
     <row r="29" spans="1:53" ht="47.25">
-      <c r="A29" s="258"/>
-      <c r="B29" s="221"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="223"/>
+      <c r="A29" s="291"/>
+      <c r="B29" s="254"/>
+      <c r="C29" s="256"/>
+      <c r="D29" s="256"/>
       <c r="E29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="98" t="s">
+      <c r="F29" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="157" t="s">
+      <c r="G29" s="156" t="s">
         <v>59</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="I29" s="96" t="s">
+      <c r="I29" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="J29" s="98"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="96"/>
+      <c r="J29" s="231" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="224" t="s">
+        <v>178</v>
+      </c>
+      <c r="M29" s="65" t="s">
+        <v>175</v>
+      </c>
       <c r="N29" s="78"/>
-      <c r="O29" s="171"/>
+      <c r="O29" s="170"/>
       <c r="P29" s="24"/>
       <c r="Q29" s="34"/>
-      <c r="S29" s="258"/>
-      <c r="T29" s="221"/>
-      <c r="U29" s="223"/>
-      <c r="V29" s="223"/>
+      <c r="S29" s="291"/>
+      <c r="T29" s="254"/>
+      <c r="U29" s="256"/>
+      <c r="V29" s="256"/>
       <c r="W29" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X29" s="63"/>
       <c r="Y29" s="66"/>
       <c r="Z29" s="66"/>
-      <c r="AA29" s="179"/>
-      <c r="AB29" s="98" t="s">
+      <c r="AA29" s="178"/>
+      <c r="AB29" s="97" t="s">
         <v>140</v>
       </c>
       <c r="AC29" s="3" t="s">
@@ -5627,10 +5751,10 @@
       <c r="AD29" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="AE29" s="91">
+      <c r="AE29" s="90">
         <v>208</v>
       </c>
-      <c r="AF29" s="173" t="s">
+      <c r="AF29" s="172" t="s">
         <v>76</v>
       </c>
       <c r="AG29" s="3" t="s">
@@ -5642,90 +5766,90 @@
       <c r="AI29" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="AK29" s="258"/>
-      <c r="AL29" s="221"/>
-      <c r="AM29" s="223"/>
-      <c r="AN29" s="223"/>
+      <c r="AK29" s="291"/>
+      <c r="AL29" s="254"/>
+      <c r="AM29" s="256"/>
+      <c r="AN29" s="256"/>
       <c r="AO29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AP29" s="100"/>
+      <c r="AP29" s="99"/>
       <c r="AQ29" s="66"/>
       <c r="AR29" s="66"/>
       <c r="AS29" s="34"/>
-      <c r="AT29" s="86"/>
+      <c r="AT29" s="85"/>
       <c r="AU29" s="3"/>
       <c r="AV29" s="24"/>
-      <c r="AW29" s="91"/>
+      <c r="AW29" s="90"/>
       <c r="AX29" s="27"/>
       <c r="AY29" s="3"/>
-      <c r="AZ29" s="90"/>
+      <c r="AZ29" s="89"/>
       <c r="BA29" s="65"/>
     </row>
     <row r="30" spans="1:53" ht="47.25">
-      <c r="A30" s="258"/>
-      <c r="B30" s="227">
+      <c r="A30" s="291"/>
+      <c r="B30" s="260">
         <v>7</v>
       </c>
-      <c r="C30" s="226" t="s">
+      <c r="C30" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="226" t="s">
+      <c r="D30" s="259" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="98" t="s">
+      <c r="F30" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="G30" s="157" t="s">
+      <c r="G30" s="156" t="s">
         <v>60</v>
       </c>
       <c r="H30" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="I30" s="96" t="s">
+      <c r="I30" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="J30" s="98" t="s">
-        <v>180</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L30" s="25" t="s">
+      <c r="J30" s="231" t="s">
         <v>179</v>
       </c>
-      <c r="M30" s="96" t="s">
-        <v>176</v>
-      </c>
-      <c r="N30" s="173" t="s">
+      <c r="K30" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="L30" s="224" t="s">
+        <v>178</v>
+      </c>
+      <c r="M30" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="N30" s="172" t="s">
         <v>76</v>
       </c>
-      <c r="O30" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="P30" s="129" t="s">
+      <c r="O30" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="Q30" s="152" t="s">
+      <c r="Q30" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="S30" s="258"/>
-      <c r="T30" s="227">
+      <c r="S30" s="291"/>
+      <c r="T30" s="260">
         <v>6</v>
       </c>
-      <c r="U30" s="226" t="s">
+      <c r="U30" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="V30" s="226" t="s">
+      <c r="V30" s="259" t="s">
         <v>43</v>
       </c>
       <c r="W30" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="X30" s="147" t="s">
+      <c r="X30" s="146" t="s">
         <v>76</v>
       </c>
       <c r="Y30" s="66" t="s">
@@ -5737,30 +5861,30 @@
       <c r="AA30" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="AB30" s="147" t="s">
+      <c r="AB30" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="AC30" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD30" s="129" t="s">
+      <c r="AC30" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD30" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="AE30" s="152" t="s">
+      <c r="AE30" s="151" t="s">
         <v>66</v>
       </c>
       <c r="AF30" s="59"/>
       <c r="AG30" s="58"/>
       <c r="AH30" s="24"/>
       <c r="AI30" s="60"/>
-      <c r="AK30" s="258"/>
-      <c r="AL30" s="227">
+      <c r="AK30" s="291"/>
+      <c r="AL30" s="260">
         <v>6</v>
       </c>
-      <c r="AM30" s="226" t="s">
+      <c r="AM30" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="AN30" s="226" t="s">
+      <c r="AN30" s="259" t="s">
         <v>43</v>
       </c>
       <c r="AO30" s="11" t="s">
@@ -5769,7 +5893,7 @@
       <c r="AP30" s="59"/>
       <c r="AQ30" s="66"/>
       <c r="AR30" s="66"/>
-      <c r="AS30" s="193"/>
+      <c r="AS30" s="192"/>
       <c r="AT30" s="31"/>
       <c r="AU30" s="3"/>
       <c r="AV30" s="24"/>
@@ -5780,63 +5904,63 @@
       <c r="BA30" s="34"/>
     </row>
     <row r="31" spans="1:53" ht="53.25" customHeight="1" thickBot="1">
-      <c r="A31" s="259"/>
-      <c r="B31" s="228"/>
-      <c r="C31" s="234"/>
-      <c r="D31" s="234"/>
+      <c r="A31" s="292"/>
+      <c r="B31" s="261"/>
+      <c r="C31" s="267"/>
+      <c r="D31" s="267"/>
       <c r="E31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="158"/>
-      <c r="G31" s="159"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="102"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="158"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="101"/>
       <c r="K31" s="12"/>
       <c r="L31" s="26"/>
-      <c r="M31" s="97"/>
+      <c r="M31" s="96"/>
       <c r="N31" s="30"/>
       <c r="O31" s="12"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="43"/>
-      <c r="S31" s="259"/>
-      <c r="T31" s="228"/>
-      <c r="U31" s="234"/>
-      <c r="V31" s="234"/>
+      <c r="S31" s="292"/>
+      <c r="T31" s="261"/>
+      <c r="U31" s="267"/>
+      <c r="V31" s="267"/>
       <c r="W31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="X31" s="106"/>
-      <c r="Y31" s="183"/>
-      <c r="Z31" s="183"/>
-      <c r="AA31" s="182"/>
+      <c r="X31" s="105"/>
+      <c r="Y31" s="182"/>
+      <c r="Z31" s="182"/>
+      <c r="AA31" s="181"/>
       <c r="AB31" s="30"/>
       <c r="AC31" s="12"/>
       <c r="AD31" s="26"/>
       <c r="AE31" s="36"/>
-      <c r="AF31" s="174" t="s">
+      <c r="AF31" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="AG31" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH31" s="105" t="s">
+      <c r="AG31" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH31" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="AI31" s="140" t="s">
+      <c r="AI31" s="139" t="s">
         <v>66</v>
       </c>
-      <c r="AK31" s="259"/>
-      <c r="AL31" s="228"/>
-      <c r="AM31" s="234"/>
-      <c r="AN31" s="234"/>
+      <c r="AK31" s="292"/>
+      <c r="AL31" s="261"/>
+      <c r="AM31" s="267"/>
+      <c r="AN31" s="267"/>
       <c r="AO31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AP31" s="102"/>
-      <c r="AQ31" s="194"/>
+      <c r="AP31" s="101"/>
+      <c r="AQ31" s="193"/>
       <c r="AR31" s="66"/>
-      <c r="AS31" s="202"/>
+      <c r="AS31" s="201"/>
       <c r="AT31" s="30"/>
       <c r="AU31" s="12"/>
       <c r="AV31" s="26"/>
@@ -5847,22 +5971,22 @@
       <c r="BA31" s="36"/>
     </row>
     <row r="32" spans="1:53" ht="30" customHeight="1">
-      <c r="A32" s="238" t="s">
+      <c r="A32" s="271" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="220">
-        <v>1</v>
-      </c>
-      <c r="C32" s="222" t="s">
+      <c r="B32" s="253">
+        <v>1</v>
+      </c>
+      <c r="C32" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="222" t="s">
+      <c r="D32" s="255" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="136"/>
+      <c r="F32" s="135"/>
       <c r="G32" s="70"/>
       <c r="H32" s="71"/>
       <c r="I32" s="35"/>
@@ -5870,20 +5994,20 @@
       <c r="K32" s="3"/>
       <c r="L32" s="24"/>
       <c r="M32" s="65"/>
-      <c r="N32" s="138"/>
+      <c r="N32" s="137"/>
       <c r="O32" s="58"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="118"/>
-      <c r="S32" s="238" t="s">
+      <c r="P32" s="116"/>
+      <c r="Q32" s="117"/>
+      <c r="S32" s="271" t="s">
         <v>7</v>
       </c>
-      <c r="T32" s="220">
-        <v>1</v>
-      </c>
-      <c r="U32" s="222" t="s">
+      <c r="T32" s="253">
+        <v>1</v>
+      </c>
+      <c r="U32" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="222" t="s">
+      <c r="V32" s="255" t="s">
         <v>34</v>
       </c>
       <c r="W32" s="9" t="s">
@@ -5891,34 +6015,34 @@
       </c>
       <c r="X32" s="59"/>
       <c r="Y32" s="66"/>
-      <c r="Z32" s="184"/>
-      <c r="AA32" s="179"/>
-      <c r="AB32" s="83"/>
+      <c r="Z32" s="183"/>
+      <c r="AA32" s="178"/>
+      <c r="AB32" s="82"/>
       <c r="AC32" s="66"/>
       <c r="AD32" s="23"/>
       <c r="AE32" s="34"/>
-      <c r="AF32" s="173" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG32" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH32" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI32" s="60" t="s">
+      <c r="AF32" s="231" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG32" s="170" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH32" s="232" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI32" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="AK32" s="238" t="s">
+      <c r="AK32" s="271" t="s">
         <v>7</v>
       </c>
-      <c r="AL32" s="220">
-        <v>1</v>
-      </c>
-      <c r="AM32" s="222" t="s">
+      <c r="AL32" s="253">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="AN32" s="222" t="s">
+      <c r="AN32" s="255" t="s">
         <v>34</v>
       </c>
       <c r="AO32" s="9" t="s">
@@ -5926,22 +6050,22 @@
       </c>
       <c r="AP32" s="59"/>
       <c r="AQ32" s="66"/>
-      <c r="AR32" s="195"/>
+      <c r="AR32" s="194"/>
       <c r="AS32" s="35"/>
-      <c r="AT32" s="83"/>
+      <c r="AT32" s="82"/>
       <c r="AU32" s="66"/>
       <c r="AV32" s="23"/>
       <c r="AW32" s="34"/>
       <c r="AX32" s="59"/>
-      <c r="AY32" s="112"/>
+      <c r="AY32" s="111"/>
       <c r="AZ32" s="58"/>
       <c r="BA32" s="60"/>
     </row>
     <row r="33" spans="1:53" ht="30" customHeight="1">
-      <c r="A33" s="239"/>
-      <c r="B33" s="221"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="223"/>
+      <c r="A33" s="272"/>
+      <c r="B33" s="254"/>
+      <c r="C33" s="256"/>
+      <c r="D33" s="256"/>
       <c r="E33" s="10" t="s">
         <v>2</v>
       </c>
@@ -5953,117 +6077,117 @@
       <c r="K33" s="3"/>
       <c r="L33" s="24"/>
       <c r="M33" s="65"/>
-      <c r="N33" s="138"/>
+      <c r="N33" s="137"/>
       <c r="O33" s="58"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="118"/>
-      <c r="S33" s="239"/>
-      <c r="T33" s="221"/>
-      <c r="U33" s="223"/>
-      <c r="V33" s="223"/>
+      <c r="P33" s="116"/>
+      <c r="Q33" s="117"/>
+      <c r="S33" s="272"/>
+      <c r="T33" s="254"/>
+      <c r="U33" s="256"/>
+      <c r="V33" s="256"/>
       <c r="W33" s="10" t="s">
         <v>2</v>
       </c>
       <c r="X33" s="59"/>
       <c r="Y33" s="66"/>
       <c r="Z33" s="66"/>
-      <c r="AA33" s="179"/>
+      <c r="AA33" s="178"/>
       <c r="AB33" s="59"/>
-      <c r="AC33" s="90"/>
-      <c r="AD33" s="90"/>
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="89"/>
       <c r="AE33" s="60"/>
-      <c r="AF33" s="173"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="24"/>
-      <c r="AI33" s="60"/>
-      <c r="AK33" s="239"/>
-      <c r="AL33" s="221"/>
-      <c r="AM33" s="223"/>
-      <c r="AN33" s="223"/>
+      <c r="AF33" s="231"/>
+      <c r="AG33" s="230"/>
+      <c r="AH33" s="235"/>
+      <c r="AI33" s="234"/>
+      <c r="AK33" s="272"/>
+      <c r="AL33" s="254"/>
+      <c r="AM33" s="256"/>
+      <c r="AN33" s="256"/>
       <c r="AO33" s="10" t="s">
         <v>2</v>
       </c>
       <c r="AP33" s="59"/>
-      <c r="AQ33" s="93"/>
-      <c r="AR33" s="93"/>
+      <c r="AQ33" s="92"/>
+      <c r="AR33" s="92"/>
       <c r="AS33" s="75"/>
       <c r="AT33" s="57"/>
       <c r="AU33" s="66"/>
       <c r="AV33" s="24"/>
       <c r="AW33" s="34"/>
-      <c r="AX33" s="114"/>
-      <c r="AY33" s="110"/>
-      <c r="AZ33" s="110"/>
-      <c r="BA33" s="115"/>
+      <c r="AX33" s="113"/>
+      <c r="AY33" s="109"/>
+      <c r="AZ33" s="109"/>
+      <c r="BA33" s="114"/>
     </row>
     <row r="34" spans="1:53" ht="30" customHeight="1">
-      <c r="A34" s="239"/>
-      <c r="B34" s="224">
-        <v>2</v>
-      </c>
-      <c r="C34" s="225" t="s">
+      <c r="A34" s="272"/>
+      <c r="B34" s="257">
+        <v>2</v>
+      </c>
+      <c r="C34" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="225" t="s">
+      <c r="D34" s="258" t="s">
         <v>36</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="79"/>
-      <c r="G34" s="95"/>
+      <c r="G34" s="94"/>
       <c r="H34" s="58"/>
-      <c r="I34" s="94"/>
+      <c r="I34" s="93"/>
       <c r="J34" s="57"/>
       <c r="K34" s="3"/>
       <c r="L34" s="24"/>
       <c r="M34" s="65"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="118"/>
+      <c r="N34" s="137"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="116"/>
+      <c r="Q34" s="117"/>
       <c r="R34" s="72"/>
-      <c r="S34" s="239"/>
-      <c r="T34" s="224">
-        <v>2</v>
-      </c>
-      <c r="U34" s="225" t="s">
+      <c r="S34" s="272"/>
+      <c r="T34" s="257">
+        <v>2</v>
+      </c>
+      <c r="U34" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="V34" s="225" t="s">
+      <c r="V34" s="258" t="s">
         <v>36</v>
       </c>
       <c r="W34" s="11" t="s">
         <v>1</v>
       </c>
       <c r="X34" s="59"/>
-      <c r="Y34" s="185"/>
+      <c r="Y34" s="184"/>
       <c r="Z34" s="66"/>
-      <c r="AA34" s="179"/>
+      <c r="AA34" s="178"/>
       <c r="AB34" s="59"/>
-      <c r="AC34" s="84"/>
-      <c r="AD34" s="90"/>
+      <c r="AC34" s="83"/>
+      <c r="AD34" s="89"/>
       <c r="AE34" s="60"/>
-      <c r="AF34" s="173" t="s">
-        <v>223</v>
-      </c>
-      <c r="AG34" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH34" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI34" s="60" t="s">
+      <c r="AF34" s="231" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG34" s="230" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH34" s="235" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI34" s="234" t="s">
         <v>61</v>
       </c>
-      <c r="AK34" s="239"/>
-      <c r="AL34" s="224">
-        <v>2</v>
-      </c>
-      <c r="AM34" s="225" t="s">
+      <c r="AK34" s="272"/>
+      <c r="AL34" s="257">
+        <v>2</v>
+      </c>
+      <c r="AM34" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="AN34" s="225" t="s">
+      <c r="AN34" s="258" t="s">
         <v>36</v>
       </c>
       <c r="AO34" s="11" t="s">
@@ -6083,65 +6207,65 @@
       <c r="BA34" s="60"/>
     </row>
     <row r="35" spans="1:53" ht="30" customHeight="1">
-      <c r="A35" s="239"/>
-      <c r="B35" s="221"/>
-      <c r="C35" s="223"/>
-      <c r="D35" s="223"/>
+      <c r="A35" s="272"/>
+      <c r="B35" s="254"/>
+      <c r="C35" s="256"/>
+      <c r="D35" s="256"/>
       <c r="E35" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="98" t="s">
+      <c r="F35" s="97" t="s">
         <v>162</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>59</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="I35" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="I35" s="95" t="s">
         <v>150</v>
       </c>
       <c r="J35" s="57"/>
       <c r="K35" s="3"/>
       <c r="L35" s="24"/>
       <c r="M35" s="65"/>
-      <c r="N35" s="138"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="118"/>
+      <c r="N35" s="137"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="116"/>
+      <c r="Q35" s="117"/>
       <c r="R35" s="72"/>
-      <c r="S35" s="239"/>
-      <c r="T35" s="221"/>
-      <c r="U35" s="223"/>
-      <c r="V35" s="223"/>
+      <c r="S35" s="272"/>
+      <c r="T35" s="254"/>
+      <c r="U35" s="256"/>
+      <c r="V35" s="256"/>
       <c r="W35" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X35" s="59"/>
-      <c r="Y35" s="185"/>
+      <c r="Y35" s="184"/>
       <c r="Z35" s="66"/>
-      <c r="AA35" s="179"/>
+      <c r="AA35" s="178"/>
       <c r="AB35" s="59"/>
-      <c r="AC35" s="84"/>
-      <c r="AD35" s="90"/>
+      <c r="AC35" s="83"/>
+      <c r="AD35" s="89"/>
       <c r="AE35" s="60"/>
-      <c r="AF35" s="173" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH35" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI35" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK35" s="239"/>
-      <c r="AL35" s="221"/>
-      <c r="AM35" s="223"/>
-      <c r="AN35" s="223"/>
+      <c r="AF35" s="231" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG35" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH35" s="235" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI35" s="234" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK35" s="272"/>
+      <c r="AL35" s="254"/>
+      <c r="AM35" s="256"/>
+      <c r="AN35" s="256"/>
       <c r="AO35" s="11" t="s">
         <v>2</v>
       </c>
@@ -6159,23 +6283,23 @@
       <c r="BA35" s="60"/>
     </row>
     <row r="36" spans="1:53" ht="33.75" customHeight="1">
-      <c r="A36" s="239"/>
-      <c r="B36" s="224">
+      <c r="A36" s="272"/>
+      <c r="B36" s="257">
         <v>3</v>
       </c>
-      <c r="C36" s="225" t="s">
+      <c r="C36" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="225" t="s">
+      <c r="D36" s="258" t="s">
         <v>47</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F36" s="98"/>
-      <c r="G36" s="95"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="94"/>
       <c r="H36" s="24"/>
-      <c r="I36" s="94"/>
+      <c r="I36" s="93"/>
       <c r="J36" s="57"/>
       <c r="K36" s="3"/>
       <c r="L36" s="24"/>
@@ -6185,47 +6309,47 @@
       <c r="P36" s="58"/>
       <c r="Q36" s="60"/>
       <c r="R36" s="72"/>
-      <c r="S36" s="239"/>
-      <c r="T36" s="224">
+      <c r="S36" s="272"/>
+      <c r="T36" s="257">
         <v>3</v>
       </c>
-      <c r="U36" s="225" t="s">
+      <c r="U36" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="V36" s="225" t="s">
+      <c r="V36" s="258" t="s">
         <v>47</v>
       </c>
       <c r="W36" s="11" t="s">
         <v>1</v>
       </c>
       <c r="X36" s="59"/>
-      <c r="Y36" s="185"/>
+      <c r="Y36" s="184"/>
       <c r="Z36" s="66"/>
-      <c r="AA36" s="179"/>
+      <c r="AA36" s="178"/>
       <c r="AB36" s="59"/>
-      <c r="AC36" s="84"/>
-      <c r="AD36" s="90"/>
+      <c r="AC36" s="83"/>
+      <c r="AD36" s="89"/>
       <c r="AE36" s="60"/>
-      <c r="AF36" s="173" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG36" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH36" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI36" s="60" t="s">
+      <c r="AF36" s="231" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG36" s="230" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH36" s="235" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI36" s="234" t="s">
         <v>61</v>
       </c>
-      <c r="AK36" s="239"/>
-      <c r="AL36" s="224">
+      <c r="AK36" s="272"/>
+      <c r="AL36" s="257">
         <v>3</v>
       </c>
-      <c r="AM36" s="225" t="s">
+      <c r="AM36" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="AN36" s="225" t="s">
+      <c r="AN36" s="258" t="s">
         <v>47</v>
       </c>
       <c r="AO36" s="11" t="s">
@@ -6245,23 +6369,23 @@
       <c r="BA36" s="60"/>
     </row>
     <row r="37" spans="1:53" ht="30" customHeight="1">
-      <c r="A37" s="239"/>
-      <c r="B37" s="221"/>
-      <c r="C37" s="226"/>
-      <c r="D37" s="226"/>
+      <c r="A37" s="272"/>
+      <c r="B37" s="254"/>
+      <c r="C37" s="259"/>
+      <c r="D37" s="259"/>
       <c r="E37" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="98" t="s">
+      <c r="F37" s="97" t="s">
         <v>162</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>59</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="I37" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="I37" s="95" t="s">
         <v>150</v>
       </c>
       <c r="J37" s="28"/>
@@ -6273,37 +6397,37 @@
       <c r="P37" s="58"/>
       <c r="Q37" s="60"/>
       <c r="R37" s="72"/>
-      <c r="S37" s="239"/>
-      <c r="T37" s="221"/>
-      <c r="U37" s="226"/>
-      <c r="V37" s="226"/>
+      <c r="S37" s="272"/>
+      <c r="T37" s="254"/>
+      <c r="U37" s="259"/>
+      <c r="V37" s="259"/>
       <c r="W37" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X37" s="59"/>
-      <c r="Y37" s="93"/>
-      <c r="Z37" s="93"/>
-      <c r="AA37" s="186"/>
+      <c r="Y37" s="92"/>
+      <c r="Z37" s="92"/>
+      <c r="AA37" s="185"/>
       <c r="AB37" s="59"/>
-      <c r="AC37" s="84"/>
-      <c r="AD37" s="90"/>
+      <c r="AC37" s="83"/>
+      <c r="AD37" s="89"/>
       <c r="AE37" s="60"/>
-      <c r="AF37" s="173" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH37" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI37" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="AK37" s="239"/>
-      <c r="AL37" s="221"/>
-      <c r="AM37" s="226"/>
-      <c r="AN37" s="226"/>
+      <c r="AF37" s="231" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG37" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH37" s="235" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI37" s="234" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK37" s="272"/>
+      <c r="AL37" s="254"/>
+      <c r="AM37" s="259"/>
+      <c r="AN37" s="259"/>
       <c r="AO37" s="11" t="s">
         <v>2</v>
       </c>
@@ -6321,24 +6445,24 @@
       <c r="BA37" s="60"/>
     </row>
     <row r="38" spans="1:53" ht="33.75" customHeight="1">
-      <c r="A38" s="239"/>
-      <c r="B38" s="224">
+      <c r="A38" s="272"/>
+      <c r="B38" s="257">
         <v>4</v>
       </c>
-      <c r="C38" s="225" t="s">
+      <c r="C38" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="225" t="s">
+      <c r="D38" s="258" t="s">
         <v>49</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="98" t="s">
-        <v>212</v>
+      <c r="F38" s="97" t="s">
+        <v>209</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H38" s="24" t="s">
         <v>155</v>
@@ -6346,56 +6470,56 @@
       <c r="I38" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J38" s="148"/>
+      <c r="J38" s="147"/>
       <c r="K38" s="73"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="149"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="148"/>
       <c r="N38" s="59"/>
       <c r="O38" s="58"/>
       <c r="P38" s="58"/>
       <c r="Q38" s="60"/>
       <c r="R38" s="72"/>
-      <c r="S38" s="239"/>
-      <c r="T38" s="224">
+      <c r="S38" s="272"/>
+      <c r="T38" s="257">
         <v>4</v>
       </c>
-      <c r="U38" s="225" t="s">
+      <c r="U38" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="V38" s="225" t="s">
+      <c r="V38" s="258" t="s">
         <v>49</v>
       </c>
       <c r="W38" s="11" t="s">
         <v>1</v>
       </c>
       <c r="X38" s="59"/>
-      <c r="Y38" s="185"/>
+      <c r="Y38" s="184"/>
       <c r="Z38" s="66"/>
-      <c r="AA38" s="179"/>
+      <c r="AA38" s="178"/>
       <c r="AB38" s="59"/>
-      <c r="AC38" s="84"/>
-      <c r="AD38" s="90"/>
+      <c r="AC38" s="83"/>
+      <c r="AD38" s="89"/>
       <c r="AE38" s="60"/>
-      <c r="AF38" s="173" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG38" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH38" s="24" t="s">
+      <c r="AF38" s="231" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG38" s="230" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH38" s="235" t="s">
         <v>155</v>
       </c>
-      <c r="AI38" s="60" t="s">
+      <c r="AI38" s="234" t="s">
         <v>61</v>
       </c>
-      <c r="AK38" s="239"/>
-      <c r="AL38" s="224">
+      <c r="AK38" s="272"/>
+      <c r="AL38" s="257">
         <v>4</v>
       </c>
-      <c r="AM38" s="225" t="s">
+      <c r="AM38" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="AN38" s="225" t="s">
+      <c r="AN38" s="258" t="s">
         <v>49</v>
       </c>
       <c r="AO38" s="11" t="s">
@@ -6405,7 +6529,7 @@
       <c r="AQ38" s="66"/>
       <c r="AR38" s="66"/>
       <c r="AS38" s="34"/>
-      <c r="AT38" s="83"/>
+      <c r="AT38" s="82"/>
       <c r="AU38" s="3"/>
       <c r="AV38" s="24"/>
       <c r="AW38" s="34"/>
@@ -6415,10 +6539,10 @@
       <c r="BA38" s="60"/>
     </row>
     <row r="39" spans="1:53" ht="23.25">
-      <c r="A39" s="239"/>
-      <c r="B39" s="221"/>
-      <c r="C39" s="223"/>
-      <c r="D39" s="223"/>
+      <c r="A39" s="272"/>
+      <c r="B39" s="254"/>
+      <c r="C39" s="256"/>
+      <c r="D39" s="256"/>
       <c r="E39" s="11" t="s">
         <v>2</v>
       </c>
@@ -6426,46 +6550,46 @@
       <c r="G39" s="3"/>
       <c r="H39" s="66"/>
       <c r="I39" s="34"/>
-      <c r="J39" s="148"/>
+      <c r="J39" s="147"/>
       <c r="K39" s="73"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="149"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="148"/>
       <c r="N39" s="59"/>
       <c r="O39" s="58"/>
       <c r="P39" s="58"/>
       <c r="Q39" s="60"/>
       <c r="R39" s="72"/>
-      <c r="S39" s="239"/>
-      <c r="T39" s="221"/>
-      <c r="U39" s="223"/>
-      <c r="V39" s="223"/>
+      <c r="S39" s="272"/>
+      <c r="T39" s="254"/>
+      <c r="U39" s="256"/>
+      <c r="V39" s="256"/>
       <c r="W39" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X39" s="59"/>
-      <c r="Y39" s="93"/>
-      <c r="Z39" s="93"/>
-      <c r="AA39" s="186"/>
+      <c r="Y39" s="92"/>
+      <c r="Z39" s="92"/>
+      <c r="AA39" s="185"/>
       <c r="AB39" s="59"/>
-      <c r="AC39" s="171"/>
+      <c r="AC39" s="170"/>
       <c r="AD39" s="66"/>
-      <c r="AE39" s="152"/>
-      <c r="AF39" s="173" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG39" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH39" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI39" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK39" s="239"/>
-      <c r="AL39" s="221"/>
-      <c r="AM39" s="223"/>
-      <c r="AN39" s="223"/>
+      <c r="AE39" s="151"/>
+      <c r="AF39" s="231" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG39" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH39" s="235" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI39" s="234" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK39" s="272"/>
+      <c r="AL39" s="254"/>
+      <c r="AM39" s="256"/>
+      <c r="AN39" s="256"/>
       <c r="AO39" s="11" t="s">
         <v>2</v>
       </c>
@@ -6483,14 +6607,14 @@
       <c r="BA39" s="60"/>
     </row>
     <row r="40" spans="1:53" ht="31.5">
-      <c r="A40" s="239"/>
-      <c r="B40" s="224">
+      <c r="A40" s="272"/>
+      <c r="B40" s="257">
         <v>5</v>
       </c>
-      <c r="C40" s="225" t="s">
+      <c r="C40" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="225" t="s">
+      <c r="D40" s="258" t="s">
         <v>39</v>
       </c>
       <c r="E40" s="11" t="s">
@@ -6500,56 +6624,56 @@
       <c r="G40" s="58"/>
       <c r="H40" s="24"/>
       <c r="I40" s="34"/>
-      <c r="J40" s="148"/>
+      <c r="J40" s="147"/>
       <c r="K40" s="73"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="149"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="148"/>
       <c r="N40" s="29"/>
       <c r="O40" s="6"/>
       <c r="P40" s="25"/>
       <c r="Q40" s="42"/>
       <c r="R40" s="72"/>
-      <c r="S40" s="239"/>
-      <c r="T40" s="224">
+      <c r="S40" s="272"/>
+      <c r="T40" s="257">
         <v>5</v>
       </c>
-      <c r="U40" s="225" t="s">
+      <c r="U40" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="V40" s="225" t="s">
+      <c r="V40" s="258" t="s">
         <v>39</v>
       </c>
       <c r="W40" s="11" t="s">
         <v>1</v>
       </c>
       <c r="X40" s="59"/>
-      <c r="Y40" s="185"/>
+      <c r="Y40" s="184"/>
       <c r="Z40" s="66"/>
-      <c r="AA40" s="179"/>
+      <c r="AA40" s="178"/>
       <c r="AB40" s="59"/>
-      <c r="AC40" s="171"/>
+      <c r="AC40" s="170"/>
       <c r="AD40" s="66"/>
-      <c r="AE40" s="152"/>
-      <c r="AF40" s="173" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG40" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH40" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI40" s="60" t="s">
+      <c r="AE40" s="151"/>
+      <c r="AF40" s="231" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG40" s="230" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH40" s="235" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI40" s="234" t="s">
         <v>61</v>
       </c>
-      <c r="AK40" s="239"/>
-      <c r="AL40" s="224">
+      <c r="AK40" s="272"/>
+      <c r="AL40" s="257">
         <v>5</v>
       </c>
-      <c r="AM40" s="225" t="s">
+      <c r="AM40" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="AN40" s="225" t="s">
+      <c r="AN40" s="258" t="s">
         <v>39</v>
       </c>
       <c r="AO40" s="11" t="s">
@@ -6569,56 +6693,56 @@
       <c r="BA40" s="60"/>
     </row>
     <row r="41" spans="1:53" ht="23.25">
-      <c r="A41" s="239"/>
-      <c r="B41" s="221"/>
-      <c r="C41" s="223"/>
-      <c r="D41" s="223"/>
+      <c r="A41" s="272"/>
+      <c r="B41" s="254"/>
+      <c r="C41" s="256"/>
+      <c r="D41" s="256"/>
       <c r="E41" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F41" s="59"/>
       <c r="G41" s="73"/>
-      <c r="H41" s="133"/>
+      <c r="H41" s="132"/>
       <c r="I41" s="65"/>
-      <c r="J41" s="148"/>
+      <c r="J41" s="147"/>
       <c r="K41" s="73"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="149"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="148"/>
       <c r="N41" s="29"/>
       <c r="O41" s="6"/>
       <c r="P41" s="25"/>
       <c r="Q41" s="42"/>
-      <c r="S41" s="239"/>
-      <c r="T41" s="221"/>
-      <c r="U41" s="223"/>
-      <c r="V41" s="223"/>
+      <c r="S41" s="272"/>
+      <c r="T41" s="254"/>
+      <c r="U41" s="256"/>
+      <c r="V41" s="256"/>
       <c r="W41" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X41" s="59"/>
       <c r="Y41" s="66"/>
       <c r="Z41" s="66"/>
-      <c r="AA41" s="179"/>
+      <c r="AA41" s="178"/>
       <c r="AB41" s="59"/>
-      <c r="AC41" s="171"/>
+      <c r="AC41" s="170"/>
       <c r="AD41" s="66"/>
-      <c r="AE41" s="152"/>
-      <c r="AF41" s="173" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH41" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI41" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK41" s="239"/>
-      <c r="AL41" s="221"/>
-      <c r="AM41" s="223"/>
-      <c r="AN41" s="223"/>
+      <c r="AE41" s="151"/>
+      <c r="AF41" s="231" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG41" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH41" s="235" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI41" s="234" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK41" s="272"/>
+      <c r="AL41" s="254"/>
+      <c r="AM41" s="256"/>
+      <c r="AN41" s="256"/>
       <c r="AO41" s="11" t="s">
         <v>2</v>
       </c>
@@ -6636,40 +6760,40 @@
       <c r="BA41" s="60"/>
     </row>
     <row r="42" spans="1:53" ht="23.25">
-      <c r="A42" s="239"/>
-      <c r="B42" s="224">
+      <c r="A42" s="272"/>
+      <c r="B42" s="257">
         <v>6</v>
       </c>
-      <c r="C42" s="225" t="s">
+      <c r="C42" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="225" t="s">
+      <c r="D42" s="258" t="s">
         <v>37</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F42" s="59"/>
-      <c r="G42" s="154"/>
-      <c r="H42" s="155"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="154"/>
       <c r="I42" s="65"/>
-      <c r="J42" s="148"/>
+      <c r="J42" s="147"/>
       <c r="K42" s="73"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="149"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="148"/>
       <c r="N42" s="29"/>
       <c r="O42" s="6"/>
       <c r="P42" s="25"/>
       <c r="Q42" s="42"/>
       <c r="R42" s="72"/>
-      <c r="S42" s="239"/>
-      <c r="T42" s="224">
+      <c r="S42" s="272"/>
+      <c r="T42" s="257">
         <v>5</v>
       </c>
-      <c r="U42" s="225" t="s">
+      <c r="U42" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="V42" s="225" t="s">
+      <c r="V42" s="258" t="s">
         <v>37</v>
       </c>
       <c r="W42" s="11" t="s">
@@ -6678,23 +6802,23 @@
       <c r="X42" s="59"/>
       <c r="Y42" s="66"/>
       <c r="Z42" s="66"/>
-      <c r="AA42" s="179"/>
+      <c r="AA42" s="178"/>
       <c r="AB42" s="59"/>
-      <c r="AC42" s="171"/>
+      <c r="AC42" s="170"/>
       <c r="AD42" s="66"/>
-      <c r="AE42" s="152"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="24"/>
-      <c r="AI42" s="34"/>
-      <c r="AK42" s="239"/>
-      <c r="AL42" s="224">
+      <c r="AE42" s="151"/>
+      <c r="AF42" s="241"/>
+      <c r="AG42" s="230"/>
+      <c r="AH42" s="235"/>
+      <c r="AI42" s="229"/>
+      <c r="AK42" s="272"/>
+      <c r="AL42" s="257">
         <v>5</v>
       </c>
-      <c r="AM42" s="225" t="s">
+      <c r="AM42" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="AN42" s="225" t="s">
+      <c r="AN42" s="258" t="s">
         <v>37</v>
       </c>
       <c r="AO42" s="11" t="s">
@@ -6714,48 +6838,54 @@
       <c r="BA42" s="60"/>
     </row>
     <row r="43" spans="1:53" ht="30" customHeight="1">
-      <c r="A43" s="239"/>
-      <c r="B43" s="221"/>
-      <c r="C43" s="223"/>
-      <c r="D43" s="223"/>
+      <c r="A43" s="272"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="256"/>
+      <c r="D43" s="256"/>
       <c r="E43" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F43" s="59"/>
-      <c r="G43" s="154"/>
-      <c r="H43" s="155"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="154"/>
       <c r="I43" s="65"/>
-      <c r="J43" s="148"/>
+      <c r="J43" s="147"/>
       <c r="K43" s="73"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="149"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="148"/>
       <c r="N43" s="29"/>
       <c r="O43" s="6"/>
       <c r="P43" s="25"/>
       <c r="Q43" s="42"/>
-      <c r="S43" s="239"/>
-      <c r="T43" s="221"/>
-      <c r="U43" s="223"/>
-      <c r="V43" s="223"/>
+      <c r="S43" s="272"/>
+      <c r="T43" s="254"/>
+      <c r="U43" s="256"/>
+      <c r="V43" s="256"/>
       <c r="W43" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X43" s="59"/>
       <c r="Y43" s="27"/>
       <c r="Z43" s="27"/>
-      <c r="AA43" s="179"/>
+      <c r="AA43" s="178"/>
       <c r="AB43" s="59"/>
       <c r="AC43" s="59"/>
       <c r="AD43" s="59"/>
       <c r="AE43" s="60"/>
-      <c r="AF43" s="59"/>
-      <c r="AG43" s="3"/>
-      <c r="AH43" s="24"/>
-      <c r="AI43" s="34"/>
-      <c r="AK43" s="239"/>
-      <c r="AL43" s="221"/>
-      <c r="AM43" s="223"/>
-      <c r="AN43" s="223"/>
+      <c r="AF43" s="231" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG43" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH43" s="235" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI43" s="229"/>
+      <c r="AK43" s="272"/>
+      <c r="AL43" s="254"/>
+      <c r="AM43" s="256"/>
+      <c r="AN43" s="256"/>
       <c r="AO43" s="11" t="s">
         <v>2</v>
       </c>
@@ -6773,22 +6903,22 @@
       <c r="BA43" s="60"/>
     </row>
     <row r="44" spans="1:53" ht="30" customHeight="1">
-      <c r="A44" s="239"/>
-      <c r="B44" s="227">
+      <c r="A44" s="272"/>
+      <c r="B44" s="260">
         <v>7</v>
       </c>
-      <c r="C44" s="226" t="s">
+      <c r="C44" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="226" t="s">
+      <c r="D44" s="259" t="s">
         <v>43</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F44" s="59"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="155"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="154"/>
       <c r="I44" s="65"/>
       <c r="J44" s="31"/>
       <c r="K44" s="3"/>
@@ -6798,14 +6928,14 @@
       <c r="O44" s="3"/>
       <c r="P44" s="24"/>
       <c r="Q44" s="41"/>
-      <c r="S44" s="239"/>
-      <c r="T44" s="227">
+      <c r="S44" s="272"/>
+      <c r="T44" s="260">
         <v>6</v>
       </c>
-      <c r="U44" s="226" t="s">
+      <c r="U44" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="V44" s="226" t="s">
+      <c r="V44" s="259" t="s">
         <v>43</v>
       </c>
       <c r="W44" s="11" t="s">
@@ -6814,23 +6944,23 @@
       <c r="X44" s="59"/>
       <c r="Y44" s="66"/>
       <c r="Z44" s="66"/>
-      <c r="AA44" s="179"/>
+      <c r="AA44" s="178"/>
       <c r="AB44" s="59"/>
       <c r="AC44" s="58"/>
       <c r="AD44" s="58"/>
       <c r="AE44" s="60"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="3"/>
-      <c r="AH44" s="24"/>
-      <c r="AI44" s="34"/>
-      <c r="AK44" s="239"/>
-      <c r="AL44" s="227">
+      <c r="AF44" s="241"/>
+      <c r="AG44" s="230"/>
+      <c r="AH44" s="235"/>
+      <c r="AI44" s="229"/>
+      <c r="AK44" s="272"/>
+      <c r="AL44" s="260">
         <v>6</v>
       </c>
-      <c r="AM44" s="226" t="s">
+      <c r="AM44" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="AN44" s="226" t="s">
+      <c r="AN44" s="259" t="s">
         <v>43</v>
       </c>
       <c r="AO44" s="11" t="s">
@@ -6850,17 +6980,17 @@
       <c r="BA44" s="60"/>
     </row>
     <row r="45" spans="1:53" ht="30" customHeight="1" thickBot="1">
-      <c r="A45" s="240"/>
-      <c r="B45" s="228"/>
-      <c r="C45" s="234"/>
-      <c r="D45" s="234"/>
+      <c r="A45" s="273"/>
+      <c r="B45" s="261"/>
+      <c r="C45" s="267"/>
+      <c r="D45" s="267"/>
       <c r="E45" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="103"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="162"/>
-      <c r="I45" s="143"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="160"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="142"/>
       <c r="J45" s="30"/>
       <c r="K45" s="12"/>
       <c r="L45" s="26"/>
@@ -6869,37 +6999,45 @@
       <c r="O45" s="12"/>
       <c r="P45" s="26"/>
       <c r="Q45" s="43"/>
-      <c r="S45" s="240"/>
-      <c r="T45" s="228"/>
-      <c r="U45" s="234"/>
-      <c r="V45" s="234"/>
+      <c r="S45" s="273"/>
+      <c r="T45" s="261"/>
+      <c r="U45" s="267"/>
+      <c r="V45" s="267"/>
       <c r="W45" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="X45" s="181"/>
-      <c r="Y45" s="183"/>
-      <c r="Z45" s="183"/>
-      <c r="AA45" s="182"/>
+      <c r="X45" s="180"/>
+      <c r="Y45" s="182"/>
+      <c r="Z45" s="182"/>
+      <c r="AA45" s="181"/>
       <c r="AB45" s="13"/>
       <c r="AC45" s="13"/>
       <c r="AD45" s="13"/>
       <c r="AE45" s="36"/>
-      <c r="AF45" s="30"/>
-      <c r="AG45" s="12"/>
-      <c r="AH45" s="26"/>
-      <c r="AI45" s="36"/>
-      <c r="AK45" s="240"/>
-      <c r="AL45" s="228"/>
-      <c r="AM45" s="234"/>
-      <c r="AN45" s="234"/>
+      <c r="AF45" s="242" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG45" s="239" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH45" s="240" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI45" s="243" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK45" s="273"/>
+      <c r="AL45" s="261"/>
+      <c r="AM45" s="267"/>
+      <c r="AN45" s="267"/>
       <c r="AO45" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AP45" s="145"/>
-      <c r="AQ45" s="199"/>
-      <c r="AR45" s="199"/>
-      <c r="AS45" s="85"/>
-      <c r="AT45" s="203"/>
+      <c r="AP45" s="144"/>
+      <c r="AQ45" s="198"/>
+      <c r="AR45" s="198"/>
+      <c r="AS45" s="84"/>
+      <c r="AT45" s="202"/>
       <c r="AU45" s="13"/>
       <c r="AV45" s="13"/>
       <c r="AW45" s="36"/>
@@ -6909,22 +7047,22 @@
       <c r="BA45" s="36"/>
     </row>
     <row r="46" spans="1:53" ht="30" customHeight="1">
-      <c r="A46" s="235" t="s">
+      <c r="A46" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="220">
-        <v>1</v>
-      </c>
-      <c r="C46" s="222" t="s">
+      <c r="B46" s="253">
+        <v>1</v>
+      </c>
+      <c r="C46" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="222" t="s">
+      <c r="D46" s="255" t="s">
         <v>34</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="101"/>
+      <c r="F46" s="100"/>
       <c r="G46" s="70"/>
       <c r="H46" s="71"/>
       <c r="I46" s="35"/>
@@ -6936,66 +7074,66 @@
       <c r="O46" s="73"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="75"/>
-      <c r="S46" s="235" t="s">
+      <c r="S46" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="T46" s="220">
-        <v>1</v>
-      </c>
-      <c r="U46" s="222" t="s">
+      <c r="T46" s="253">
+        <v>1</v>
+      </c>
+      <c r="U46" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="222" t="s">
+      <c r="V46" s="255" t="s">
         <v>34</v>
       </c>
       <c r="W46" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="X46" s="187"/>
-      <c r="Y46" s="184"/>
-      <c r="Z46" s="184"/>
-      <c r="AA46" s="188"/>
+      <c r="X46" s="186"/>
+      <c r="Y46" s="183"/>
+      <c r="Z46" s="183"/>
+      <c r="AA46" s="187"/>
       <c r="AB46" s="59"/>
-      <c r="AC46" s="84"/>
-      <c r="AD46" s="90"/>
+      <c r="AC46" s="83"/>
+      <c r="AD46" s="89"/>
       <c r="AE46" s="60"/>
       <c r="AF46" s="79"/>
       <c r="AG46" s="73"/>
       <c r="AH46" s="74"/>
-      <c r="AI46" s="75"/>
-      <c r="AK46" s="235" t="s">
+      <c r="AI46" s="88"/>
+      <c r="AK46" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="AL46" s="220">
-        <v>1</v>
-      </c>
-      <c r="AM46" s="222" t="s">
+      <c r="AL46" s="253">
+        <v>1</v>
+      </c>
+      <c r="AM46" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="AN46" s="222" t="s">
+      <c r="AN46" s="255" t="s">
         <v>34</v>
       </c>
       <c r="AO46" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AP46" s="101"/>
-      <c r="AQ46" s="137"/>
-      <c r="AR46" s="137"/>
+      <c r="AP46" s="100"/>
+      <c r="AQ46" s="136"/>
+      <c r="AR46" s="136"/>
       <c r="AS46" s="35"/>
-      <c r="AT46" s="153"/>
+      <c r="AT46" s="152"/>
       <c r="AU46" s="73"/>
       <c r="AV46" s="74"/>
       <c r="AW46" s="75"/>
       <c r="AX46" s="59"/>
-      <c r="AY46" s="110"/>
-      <c r="AZ46" s="110"/>
+      <c r="AY46" s="109"/>
+      <c r="AZ46" s="109"/>
       <c r="BA46" s="60"/>
     </row>
     <row r="47" spans="1:53" ht="30" customHeight="1">
-      <c r="A47" s="236"/>
-      <c r="B47" s="221"/>
-      <c r="C47" s="223"/>
-      <c r="D47" s="223"/>
+      <c r="A47" s="269"/>
+      <c r="B47" s="254"/>
+      <c r="C47" s="256"/>
+      <c r="D47" s="256"/>
       <c r="E47" s="10" t="s">
         <v>2</v>
       </c>
@@ -7011,37 +7149,37 @@
       <c r="O47" s="3"/>
       <c r="P47" s="24"/>
       <c r="Q47" s="34"/>
-      <c r="S47" s="236"/>
-      <c r="T47" s="221"/>
-      <c r="U47" s="223"/>
-      <c r="V47" s="223"/>
+      <c r="S47" s="269"/>
+      <c r="T47" s="254"/>
+      <c r="U47" s="256"/>
+      <c r="V47" s="256"/>
       <c r="W47" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="X47" s="114" t="s">
+      <c r="X47" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="Y47" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z47" s="93" t="s">
+      <c r="Y47" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z47" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="AA47" s="186" t="s">
+      <c r="AA47" s="185" t="s">
         <v>70</v>
       </c>
       <c r="AB47" s="59"/>
-      <c r="AC47" s="84"/>
-      <c r="AD47" s="90"/>
+      <c r="AC47" s="83"/>
+      <c r="AD47" s="89"/>
       <c r="AE47" s="60"/>
       <c r="AF47" s="27"/>
       <c r="AG47" s="3"/>
       <c r="AH47" s="24"/>
       <c r="AI47" s="34"/>
-      <c r="AK47" s="236"/>
-      <c r="AL47" s="221"/>
-      <c r="AM47" s="223"/>
-      <c r="AN47" s="223"/>
+      <c r="AK47" s="269"/>
+      <c r="AL47" s="254"/>
+      <c r="AM47" s="256"/>
+      <c r="AN47" s="256"/>
       <c r="AO47" s="10" t="s">
         <v>2</v>
       </c>
@@ -7059,54 +7197,54 @@
       <c r="BA47" s="60"/>
     </row>
     <row r="48" spans="1:53" ht="32.25" customHeight="1">
-      <c r="A48" s="236"/>
-      <c r="B48" s="224">
-        <v>2</v>
-      </c>
-      <c r="C48" s="225" t="s">
+      <c r="A48" s="269"/>
+      <c r="B48" s="257">
+        <v>2</v>
+      </c>
+      <c r="C48" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="225" t="s">
+      <c r="D48" s="258" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F48" s="59"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="163"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="162"/>
       <c r="I48" s="65"/>
       <c r="J48" s="57"/>
       <c r="K48" s="3"/>
       <c r="L48" s="24"/>
       <c r="M48" s="34"/>
       <c r="N48" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="O48" s="171" t="s">
+        <v>214</v>
+      </c>
+      <c r="O48" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="P48" s="129" t="s">
+      <c r="P48" s="128" t="s">
         <v>79</v>
       </c>
       <c r="Q48" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="S48" s="236"/>
-      <c r="T48" s="224">
-        <v>2</v>
-      </c>
-      <c r="U48" s="225" t="s">
+      <c r="S48" s="269"/>
+      <c r="T48" s="257">
+        <v>2</v>
+      </c>
+      <c r="U48" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="V48" s="225" t="s">
+      <c r="V48" s="258" t="s">
         <v>36</v>
       </c>
       <c r="W48" s="11" t="s">
         <v>1</v>
       </c>
       <c r="X48" s="79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Y48" s="66" t="s">
         <v>60</v>
@@ -7114,33 +7252,25 @@
       <c r="Z48" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="AA48" s="179" t="s">
+      <c r="AA48" s="178" t="s">
         <v>61</v>
       </c>
       <c r="AB48" s="59"/>
-      <c r="AC48" s="84"/>
-      <c r="AD48" s="90"/>
+      <c r="AC48" s="83"/>
+      <c r="AD48" s="89"/>
       <c r="AE48" s="60"/>
-      <c r="AF48" s="173" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG48" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH48" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI48" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK48" s="236"/>
-      <c r="AL48" s="224">
-        <v>2</v>
-      </c>
-      <c r="AM48" s="225" t="s">
+      <c r="AF48" s="172"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="60"/>
+      <c r="AK48" s="269"/>
+      <c r="AL48" s="257">
+        <v>2</v>
+      </c>
+      <c r="AM48" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="AN48" s="225" t="s">
+      <c r="AN48" s="258" t="s">
         <v>36</v>
       </c>
       <c r="AO48" s="11" t="s">
@@ -7160,29 +7290,29 @@
       <c r="BA48" s="60"/>
     </row>
     <row r="49" spans="1:53" ht="30" customHeight="1">
-      <c r="A49" s="236"/>
-      <c r="B49" s="221"/>
-      <c r="C49" s="223"/>
-      <c r="D49" s="223"/>
+      <c r="A49" s="269"/>
+      <c r="B49" s="254"/>
+      <c r="C49" s="256"/>
+      <c r="D49" s="256"/>
       <c r="E49" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="59"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="165"/>
+      <c r="G49" s="132"/>
+      <c r="H49" s="164"/>
       <c r="I49" s="65"/>
       <c r="J49" s="57"/>
       <c r="K49" s="3"/>
       <c r="L49" s="24"/>
       <c r="M49" s="34"/>
       <c r="N49" s="59"/>
-      <c r="O49" s="171"/>
-      <c r="P49" s="129"/>
+      <c r="O49" s="170"/>
+      <c r="P49" s="128"/>
       <c r="Q49" s="34"/>
-      <c r="S49" s="236"/>
-      <c r="T49" s="221"/>
-      <c r="U49" s="223"/>
-      <c r="V49" s="223"/>
+      <c r="S49" s="269"/>
+      <c r="T49" s="254"/>
+      <c r="U49" s="256"/>
+      <c r="V49" s="256"/>
       <c r="W49" s="11" t="s">
         <v>2</v>
       </c>
@@ -7195,29 +7325,21 @@
       <c r="Z49" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="AA49" s="179" t="s">
+      <c r="AA49" s="178" t="s">
         <v>70</v>
       </c>
       <c r="AB49" s="59"/>
-      <c r="AC49" s="84"/>
-      <c r="AD49" s="90"/>
+      <c r="AC49" s="83"/>
+      <c r="AD49" s="89"/>
       <c r="AE49" s="60"/>
-      <c r="AF49" s="173" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG49" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH49" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI49" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK49" s="236"/>
-      <c r="AL49" s="221"/>
-      <c r="AM49" s="223"/>
-      <c r="AN49" s="223"/>
+      <c r="AF49" s="172"/>
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="74"/>
+      <c r="AI49" s="60"/>
+      <c r="AK49" s="269"/>
+      <c r="AL49" s="254"/>
+      <c r="AM49" s="256"/>
+      <c r="AN49" s="256"/>
       <c r="AO49" s="11" t="s">
         <v>2</v>
       </c>
@@ -7230,67 +7352,67 @@
       <c r="AV49" s="74"/>
       <c r="AW49" s="75"/>
       <c r="AX49" s="59"/>
-      <c r="AY49" s="110"/>
-      <c r="AZ49" s="110"/>
+      <c r="AY49" s="109"/>
+      <c r="AZ49" s="109"/>
       <c r="BA49" s="60"/>
     </row>
     <row r="50" spans="1:53" ht="69.75" customHeight="1">
-      <c r="A50" s="236"/>
-      <c r="B50" s="224">
+      <c r="A50" s="269"/>
+      <c r="B50" s="257">
         <v>3</v>
       </c>
-      <c r="C50" s="225" t="s">
+      <c r="C50" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="225" t="s">
+      <c r="D50" s="258" t="s">
         <v>47</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F50" s="59"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="163"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="162"/>
       <c r="I50" s="65"/>
       <c r="J50" s="59" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K50" s="73" t="s">
         <v>60</v>
       </c>
       <c r="L50" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="M50" s="209" t="s">
         <v>181</v>
       </c>
-      <c r="M50" s="210" t="s">
-        <v>182</v>
-      </c>
       <c r="N50" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="O50" s="171" t="s">
+        <v>214</v>
+      </c>
+      <c r="O50" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="P50" s="129" t="s">
+      <c r="P50" s="128" t="s">
         <v>79</v>
       </c>
       <c r="Q50" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="S50" s="236"/>
-      <c r="T50" s="224">
+      <c r="S50" s="269"/>
+      <c r="T50" s="257">
         <v>3</v>
       </c>
-      <c r="U50" s="225" t="s">
+      <c r="U50" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="V50" s="225" t="s">
+      <c r="V50" s="258" t="s">
         <v>47</v>
       </c>
       <c r="W50" s="11" t="s">
         <v>1</v>
       </c>
       <c r="X50" s="79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Y50" s="66" t="s">
         <v>60</v>
@@ -7298,39 +7420,31 @@
       <c r="Z50" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="AA50" s="179" t="s">
+      <c r="AA50" s="178" t="s">
         <v>61</v>
       </c>
       <c r="AB50" s="59"/>
-      <c r="AC50" s="84"/>
-      <c r="AD50" s="90"/>
+      <c r="AC50" s="83"/>
+      <c r="AD50" s="89"/>
       <c r="AE50" s="60"/>
-      <c r="AF50" s="173" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG50" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH50" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI50" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK50" s="236"/>
-      <c r="AL50" s="224">
+      <c r="AF50" s="172"/>
+      <c r="AG50" s="3"/>
+      <c r="AH50" s="58"/>
+      <c r="AI50" s="60"/>
+      <c r="AK50" s="269"/>
+      <c r="AL50" s="257">
         <v>3</v>
       </c>
-      <c r="AM50" s="225" t="s">
+      <c r="AM50" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="AN50" s="225" t="s">
+      <c r="AN50" s="258" t="s">
         <v>47</v>
       </c>
       <c r="AO50" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AP50" s="98" t="s">
+      <c r="AP50" s="97" t="s">
         <v>119</v>
       </c>
       <c r="AQ50" s="66" t="s">
@@ -7347,42 +7461,42 @@
       <c r="AV50" s="74"/>
       <c r="AW50" s="75"/>
       <c r="AX50" s="59"/>
-      <c r="AY50" s="110"/>
-      <c r="AZ50" s="110"/>
-      <c r="BA50" s="115"/>
+      <c r="AY50" s="109"/>
+      <c r="AZ50" s="109"/>
+      <c r="BA50" s="114"/>
     </row>
-    <row r="51" spans="1:53" ht="35.25" customHeight="1">
-      <c r="A51" s="236"/>
-      <c r="B51" s="221"/>
-      <c r="C51" s="226"/>
-      <c r="D51" s="226"/>
+    <row r="51" spans="1:53" ht="62.25" customHeight="1">
+      <c r="A51" s="269"/>
+      <c r="B51" s="254"/>
+      <c r="C51" s="259"/>
+      <c r="D51" s="259"/>
       <c r="E51" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F51" s="59"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="165"/>
+      <c r="G51" s="132"/>
+      <c r="H51" s="164"/>
       <c r="I51" s="65"/>
-      <c r="J51" s="101"/>
+      <c r="J51" s="100"/>
       <c r="K51" s="73"/>
       <c r="L51" s="24"/>
-      <c r="M51" s="210"/>
+      <c r="M51" s="209"/>
       <c r="N51" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="O51" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="P51" s="129" t="s">
+      <c r="O51" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="Q51" s="144" t="s">
+      <c r="Q51" s="143" t="s">
         <v>70</v>
       </c>
-      <c r="S51" s="236"/>
-      <c r="T51" s="221"/>
-      <c r="U51" s="226"/>
-      <c r="V51" s="226"/>
+      <c r="S51" s="269"/>
+      <c r="T51" s="254"/>
+      <c r="U51" s="259"/>
+      <c r="V51" s="259"/>
       <c r="W51" s="11" t="s">
         <v>2</v>
       </c>
@@ -7395,33 +7509,33 @@
       <c r="Z51" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="AA51" s="179">
+      <c r="AA51" s="178">
         <v>242</v>
       </c>
       <c r="AB51" s="59"/>
-      <c r="AC51" s="84"/>
-      <c r="AD51" s="90"/>
+      <c r="AC51" s="83"/>
+      <c r="AD51" s="89"/>
       <c r="AE51" s="60"/>
-      <c r="AF51" s="173" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG51" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH51" s="58" t="s">
+      <c r="AF51" s="231" t="s">
         <v>194</v>
       </c>
-      <c r="AI51" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK51" s="236"/>
-      <c r="AL51" s="221"/>
-      <c r="AM51" s="226"/>
-      <c r="AN51" s="226"/>
+      <c r="AG51" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH51" s="128" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI51" s="130" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK51" s="269"/>
+      <c r="AL51" s="254"/>
+      <c r="AM51" s="259"/>
+      <c r="AN51" s="259"/>
       <c r="AO51" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AP51" s="98"/>
+      <c r="AP51" s="97"/>
       <c r="AQ51" s="66"/>
       <c r="AR51" s="66"/>
       <c r="AS51" s="34"/>
@@ -7435,62 +7549,62 @@
       <c r="BA51" s="60"/>
     </row>
     <row r="52" spans="1:53" ht="72">
-      <c r="A52" s="236"/>
-      <c r="B52" s="224">
+      <c r="A52" s="269"/>
+      <c r="B52" s="257">
         <v>4</v>
       </c>
-      <c r="C52" s="225" t="s">
+      <c r="C52" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="225" t="s">
+      <c r="D52" s="258" t="s">
         <v>49</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F52" s="59"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="165"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="164"/>
       <c r="I52" s="65"/>
-      <c r="J52" s="101" t="s">
-        <v>214</v>
+      <c r="J52" s="100" t="s">
+        <v>211</v>
       </c>
       <c r="K52" s="24" t="s">
         <v>60</v>
       </c>
       <c r="L52" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="M52" s="209" t="s">
         <v>181</v>
       </c>
-      <c r="M52" s="210" t="s">
-        <v>182</v>
-      </c>
       <c r="N52" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="O52" s="171" t="s">
+        <v>215</v>
+      </c>
+      <c r="O52" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="P52" s="129" t="s">
+      <c r="P52" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="Q52" s="124" t="s">
+      <c r="Q52" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="S52" s="236"/>
-      <c r="T52" s="224">
+      <c r="S52" s="269"/>
+      <c r="T52" s="257">
         <v>4</v>
       </c>
-      <c r="U52" s="225" t="s">
+      <c r="U52" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="V52" s="225" t="s">
+      <c r="V52" s="258" t="s">
         <v>49</v>
       </c>
       <c r="W52" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="X52" s="189" t="s">
-        <v>218</v>
+      <c r="X52" s="188" t="s">
+        <v>215</v>
       </c>
       <c r="Y52" s="66" t="s">
         <v>60</v>
@@ -7498,47 +7612,39 @@
       <c r="Z52" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="AA52" s="179" t="s">
+      <c r="AA52" s="178" t="s">
         <v>61</v>
       </c>
       <c r="AB52" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="AC52" s="171" t="s">
+      <c r="AC52" s="170" t="s">
         <v>138</v>
       </c>
       <c r="AD52" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="AE52" s="152" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF52" s="173" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH52" s="133" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI52" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK52" s="236"/>
-      <c r="AL52" s="224">
+      <c r="AE52" s="151">
+        <v>200</v>
+      </c>
+      <c r="AF52" s="231"/>
+      <c r="AG52" s="230"/>
+      <c r="AH52" s="156"/>
+      <c r="AI52" s="234"/>
+      <c r="AK52" s="269"/>
+      <c r="AL52" s="257">
         <v>4</v>
       </c>
-      <c r="AM52" s="225" t="s">
+      <c r="AM52" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="AN52" s="225" t="s">
+      <c r="AN52" s="258" t="s">
         <v>49</v>
       </c>
       <c r="AO52" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AP52" s="98" t="s">
+      <c r="AP52" s="97" t="s">
         <v>119</v>
       </c>
       <c r="AQ52" s="66" t="s">
@@ -7560,76 +7666,76 @@
       <c r="BA52" s="60"/>
     </row>
     <row r="53" spans="1:53" ht="47.25">
-      <c r="A53" s="236"/>
-      <c r="B53" s="221"/>
-      <c r="C53" s="223"/>
-      <c r="D53" s="223"/>
+      <c r="A53" s="269"/>
+      <c r="B53" s="254"/>
+      <c r="C53" s="256"/>
+      <c r="D53" s="256"/>
       <c r="E53" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F53" s="59"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="165"/>
+      <c r="G53" s="132"/>
+      <c r="H53" s="164"/>
       <c r="I53" s="65"/>
-      <c r="J53" s="101"/>
+      <c r="J53" s="100"/>
       <c r="K53" s="73"/>
       <c r="L53" s="24"/>
-      <c r="M53" s="210"/>
+      <c r="M53" s="209"/>
       <c r="N53" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="O53" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="P53" s="129" t="s">
+      <c r="O53" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="P53" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="Q53" s="124" t="s">
+      <c r="Q53" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="S53" s="236"/>
-      <c r="T53" s="221"/>
-      <c r="U53" s="223"/>
-      <c r="V53" s="223"/>
+      <c r="S53" s="269"/>
+      <c r="T53" s="254"/>
+      <c r="U53" s="256"/>
+      <c r="V53" s="256"/>
       <c r="W53" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="X53" s="153" t="s">
+      <c r="X53" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="Y53" s="137" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z53" s="137" t="s">
+      <c r="Y53" s="136" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z53" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="AA53" s="190">
+      <c r="AA53" s="189">
         <v>242</v>
       </c>
       <c r="AB53" s="59"/>
-      <c r="AC53" s="171"/>
+      <c r="AC53" s="170"/>
       <c r="AD53" s="66"/>
-      <c r="AE53" s="152"/>
-      <c r="AF53" s="173" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH53" s="3" t="s">
+      <c r="AE53" s="151"/>
+      <c r="AF53" s="231" t="s">
         <v>194</v>
       </c>
-      <c r="AI53" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK53" s="236"/>
-      <c r="AL53" s="221"/>
-      <c r="AM53" s="223"/>
-      <c r="AN53" s="223"/>
+      <c r="AG53" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH53" s="230" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI53" s="234" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK53" s="269"/>
+      <c r="AL53" s="254"/>
+      <c r="AM53" s="256"/>
+      <c r="AN53" s="256"/>
       <c r="AO53" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AP53" s="98"/>
+      <c r="AP53" s="97"/>
       <c r="AQ53" s="66"/>
       <c r="AR53" s="66"/>
       <c r="AS53" s="34"/>
@@ -7638,67 +7744,67 @@
       <c r="AV53" s="24"/>
       <c r="AW53" s="34"/>
       <c r="AX53" s="59"/>
-      <c r="AY53" s="110"/>
+      <c r="AY53" s="109"/>
       <c r="AZ53" s="58"/>
       <c r="BA53" s="60"/>
     </row>
     <row r="54" spans="1:53" ht="47.25">
-      <c r="A54" s="236"/>
-      <c r="B54" s="224">
+      <c r="A54" s="269"/>
+      <c r="B54" s="257">
         <v>5</v>
       </c>
-      <c r="C54" s="225" t="s">
+      <c r="C54" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="225" t="s">
+      <c r="D54" s="258" t="s">
         <v>39</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F54" s="59"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="90"/>
+      <c r="G54" s="132"/>
+      <c r="H54" s="89"/>
       <c r="I54" s="65"/>
-      <c r="J54" s="101" t="s">
-        <v>215</v>
+      <c r="J54" s="100" t="s">
+        <v>212</v>
       </c>
       <c r="K54" s="73" t="s">
         <v>60</v>
       </c>
       <c r="L54" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="M54" s="210" t="s">
-        <v>182</v>
+        <v>174</v>
+      </c>
+      <c r="M54" s="209" t="s">
+        <v>181</v>
       </c>
       <c r="N54" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="O54" s="171" t="s">
+        <v>216</v>
+      </c>
+      <c r="O54" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="P54" s="129" t="s">
+      <c r="P54" s="128" t="s">
         <v>83</v>
       </c>
       <c r="Q54" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="S54" s="236"/>
-      <c r="T54" s="224">
+      <c r="S54" s="269"/>
+      <c r="T54" s="257">
         <v>5</v>
       </c>
-      <c r="U54" s="225" t="s">
+      <c r="U54" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="V54" s="225" t="s">
+      <c r="V54" s="258" t="s">
         <v>39</v>
       </c>
       <c r="W54" s="11" t="s">
         <v>1</v>
       </c>
       <c r="X54" s="59" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Y54" s="66" t="s">
         <v>60</v>
@@ -7706,47 +7812,47 @@
       <c r="Z54" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="AA54" s="179" t="s">
+      <c r="AA54" s="178" t="s">
         <v>61</v>
       </c>
       <c r="AB54" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="AC54" s="171" t="s">
+      <c r="AC54" s="170" t="s">
         <v>131</v>
       </c>
       <c r="AD54" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AE54" s="152">
+      <c r="AE54" s="151">
         <v>204</v>
       </c>
-      <c r="AF54" s="173" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG54" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH54" s="133" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI54" s="60" t="s">
+      <c r="AF54" s="231" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG54" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH54" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI54" s="234" t="s">
         <v>160</v>
       </c>
-      <c r="AK54" s="236"/>
-      <c r="AL54" s="224">
+      <c r="AK54" s="269"/>
+      <c r="AL54" s="257">
         <v>5</v>
       </c>
-      <c r="AM54" s="225" t="s">
+      <c r="AM54" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="AN54" s="225" t="s">
+      <c r="AN54" s="258" t="s">
         <v>39</v>
       </c>
       <c r="AO54" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AP54" s="111" t="s">
+      <c r="AP54" s="110" t="s">
         <v>117</v>
       </c>
       <c r="AQ54" s="66" t="s">
@@ -7760,7 +7866,7 @@
       </c>
       <c r="AT54" s="57"/>
       <c r="AU54" s="3"/>
-      <c r="AV54" s="82"/>
+      <c r="AV54" s="81"/>
       <c r="AW54" s="60"/>
       <c r="AX54" s="59"/>
       <c r="AY54" s="58"/>
@@ -7768,72 +7874,72 @@
       <c r="BA54" s="60"/>
     </row>
     <row r="55" spans="1:53" ht="31.5">
-      <c r="A55" s="236"/>
-      <c r="B55" s="221"/>
-      <c r="C55" s="223"/>
-      <c r="D55" s="223"/>
+      <c r="A55" s="269"/>
+      <c r="B55" s="254"/>
+      <c r="C55" s="256"/>
+      <c r="D55" s="256"/>
       <c r="E55" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F55" s="59"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="165"/>
+      <c r="G55" s="132"/>
+      <c r="H55" s="164"/>
       <c r="I55" s="65"/>
-      <c r="J55" s="101"/>
+      <c r="J55" s="100"/>
       <c r="K55" s="73"/>
       <c r="L55" s="24"/>
-      <c r="M55" s="210"/>
+      <c r="M55" s="209"/>
       <c r="N55" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="O55" s="171" t="s">
+      <c r="O55" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="P55" s="129" t="s">
+      <c r="P55" s="128" t="s">
         <v>86</v>
       </c>
       <c r="Q55" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="236"/>
-      <c r="T55" s="221"/>
-      <c r="U55" s="223"/>
-      <c r="V55" s="223"/>
+      <c r="S55" s="269"/>
+      <c r="T55" s="254"/>
+      <c r="U55" s="256"/>
+      <c r="V55" s="256"/>
       <c r="W55" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X55" s="59"/>
       <c r="Y55" s="66"/>
       <c r="Z55" s="66"/>
-      <c r="AA55" s="179"/>
+      <c r="AA55" s="178"/>
       <c r="AB55" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="AC55" s="171" t="s">
+      <c r="AC55" s="170" t="s">
         <v>59</v>
       </c>
       <c r="AD55" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AE55" s="152">
+      <c r="AE55" s="151">
         <v>208</v>
       </c>
-      <c r="AF55" s="173" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG55" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH55" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI55" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK55" s="236"/>
-      <c r="AL55" s="221"/>
-      <c r="AM55" s="223"/>
-      <c r="AN55" s="223"/>
+      <c r="AF55" s="231" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG55" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH55" s="233" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI55" s="234" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK55" s="269"/>
+      <c r="AL55" s="254"/>
+      <c r="AM55" s="256"/>
+      <c r="AN55" s="256"/>
       <c r="AO55" s="11" t="s">
         <v>2</v>
       </c>
@@ -7851,47 +7957,47 @@
       <c r="BA55" s="60"/>
     </row>
     <row r="56" spans="1:53" ht="47.25">
-      <c r="A56" s="236"/>
-      <c r="B56" s="224">
+      <c r="A56" s="269"/>
+      <c r="B56" s="257">
         <v>6</v>
       </c>
-      <c r="C56" s="225" t="s">
+      <c r="C56" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="225" t="s">
+      <c r="D56" s="258" t="s">
         <v>37</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F56" s="101" t="s">
+      <c r="F56" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="G56" s="112" t="s">
+      <c r="G56" s="111" t="s">
         <v>59</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="I56" s="210" t="s">
+      <c r="I56" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="J56" s="101"/>
+      <c r="J56" s="100"/>
       <c r="K56" s="73"/>
       <c r="L56" s="24"/>
-      <c r="M56" s="210"/>
+      <c r="M56" s="209"/>
       <c r="N56" s="59"/>
-      <c r="O56" s="171"/>
-      <c r="P56" s="129"/>
+      <c r="O56" s="170"/>
+      <c r="P56" s="128"/>
       <c r="Q56" s="65"/>
-      <c r="S56" s="236"/>
-      <c r="T56" s="224">
+      <c r="S56" s="269"/>
+      <c r="T56" s="257">
         <v>5</v>
       </c>
-      <c r="U56" s="225" t="s">
+      <c r="U56" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="V56" s="225" t="s">
+      <c r="V56" s="258" t="s">
         <v>37</v>
       </c>
       <c r="W56" s="11" t="s">
@@ -7900,45 +8006,45 @@
       <c r="X56" s="59"/>
       <c r="Y56" s="66"/>
       <c r="Z56" s="66"/>
-      <c r="AA56" s="179"/>
+      <c r="AA56" s="178"/>
       <c r="AB56" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="AC56" s="171" t="s">
+      <c r="AC56" s="170" t="s">
         <v>131</v>
       </c>
       <c r="AD56" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AE56" s="152">
+      <c r="AE56" s="151">
         <v>204</v>
       </c>
-      <c r="AF56" s="173" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG56" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH56" s="133" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI56" s="60" t="s">
+      <c r="AF56" s="231" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG56" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH56" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI56" s="234" t="s">
         <v>160</v>
       </c>
-      <c r="AK56" s="236"/>
-      <c r="AL56" s="224">
+      <c r="AK56" s="269"/>
+      <c r="AL56" s="257">
         <v>5</v>
       </c>
-      <c r="AM56" s="225" t="s">
+      <c r="AM56" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="AN56" s="225" t="s">
+      <c r="AN56" s="258" t="s">
         <v>37</v>
       </c>
       <c r="AO56" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AP56" s="111" t="s">
+      <c r="AP56" s="110" t="s">
         <v>117</v>
       </c>
       <c r="AQ56" s="66" t="s">
@@ -7956,102 +8062,102 @@
       <c r="AW56" s="60"/>
       <c r="AX56" s="27"/>
       <c r="AY56" s="3"/>
-      <c r="AZ56" s="82"/>
+      <c r="AZ56" s="81"/>
       <c r="BA56" s="60"/>
     </row>
     <row r="57" spans="1:53" ht="47.25">
-      <c r="A57" s="236"/>
-      <c r="B57" s="221"/>
-      <c r="C57" s="223"/>
-      <c r="D57" s="223"/>
+      <c r="A57" s="269"/>
+      <c r="B57" s="254"/>
+      <c r="C57" s="256"/>
+      <c r="D57" s="256"/>
       <c r="E57" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="173" t="s">
+      <c r="F57" s="172" t="s">
         <v>76</v>
       </c>
-      <c r="G57" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="H57" s="129" t="s">
+      <c r="G57" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="I57" s="211" t="s">
+      <c r="I57" s="210" t="s">
         <v>66</v>
       </c>
-      <c r="J57" s="173" t="s">
+      <c r="J57" s="172" t="s">
         <v>76</v>
       </c>
-      <c r="K57" s="171" t="s">
+      <c r="K57" s="170" t="s">
         <v>59</v>
       </c>
       <c r="L57" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="M57" s="210" t="s">
+      <c r="M57" s="209" t="s">
         <v>66</v>
       </c>
       <c r="N57" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="O57" s="171" t="s">
+      <c r="O57" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="P57" s="129" t="s">
+      <c r="P57" s="128" t="s">
         <v>86</v>
       </c>
       <c r="Q57" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="S57" s="236"/>
-      <c r="T57" s="221"/>
-      <c r="U57" s="223"/>
-      <c r="V57" s="223"/>
+      <c r="S57" s="269"/>
+      <c r="T57" s="254"/>
+      <c r="U57" s="256"/>
+      <c r="V57" s="256"/>
       <c r="W57" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X57" s="59"/>
       <c r="Y57" s="66"/>
       <c r="Z57" s="66"/>
-      <c r="AA57" s="179"/>
+      <c r="AA57" s="178"/>
       <c r="AB57" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="AC57" s="171" t="s">
+      <c r="AC57" s="170" t="s">
         <v>59</v>
       </c>
       <c r="AD57" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AE57" s="152">
+      <c r="AE57" s="151">
         <v>208</v>
       </c>
-      <c r="AF57" s="173" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG57" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH57" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI57" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK57" s="236"/>
-      <c r="AL57" s="221"/>
-      <c r="AM57" s="223"/>
-      <c r="AN57" s="223"/>
+      <c r="AF57" s="231" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG57" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH57" s="233" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI57" s="234" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK57" s="269"/>
+      <c r="AL57" s="254"/>
+      <c r="AM57" s="256"/>
+      <c r="AN57" s="256"/>
       <c r="AO57" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AP57" s="148" t="s">
+      <c r="AP57" s="147" t="s">
         <v>76</v>
       </c>
       <c r="AQ57" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="AR57" s="196" t="s">
+      <c r="AR57" s="195" t="s">
         <v>120</v>
       </c>
       <c r="AS57" s="60" t="s">
@@ -8067,14 +8173,14 @@
       <c r="BA57" s="60"/>
     </row>
     <row r="58" spans="1:53" ht="30" customHeight="1">
-      <c r="A58" s="236"/>
-      <c r="B58" s="227">
+      <c r="A58" s="269"/>
+      <c r="B58" s="260">
         <v>7</v>
       </c>
-      <c r="C58" s="226" t="s">
+      <c r="C58" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="226" t="s">
+      <c r="D58" s="259" t="s">
         <v>43</v>
       </c>
       <c r="E58" s="11" t="s">
@@ -8089,25 +8195,25 @@
       <c r="H58" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="I58" s="210" t="s">
+      <c r="I58" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="J58" s="101"/>
+      <c r="J58" s="100"/>
       <c r="K58" s="3"/>
       <c r="L58" s="24"/>
-      <c r="M58" s="210"/>
-      <c r="N58" s="98"/>
+      <c r="M58" s="209"/>
+      <c r="N58" s="97"/>
       <c r="O58" s="58"/>
       <c r="P58" s="58"/>
-      <c r="Q58" s="108"/>
-      <c r="S58" s="236"/>
-      <c r="T58" s="227">
+      <c r="Q58" s="107"/>
+      <c r="S58" s="269"/>
+      <c r="T58" s="260">
         <v>6</v>
       </c>
-      <c r="U58" s="226" t="s">
+      <c r="U58" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="V58" s="226" t="s">
+      <c r="V58" s="259" t="s">
         <v>43</v>
       </c>
       <c r="W58" s="11" t="s">
@@ -8116,31 +8222,31 @@
       <c r="X58" s="59"/>
       <c r="Y58" s="66"/>
       <c r="Z58" s="66"/>
-      <c r="AA58" s="179"/>
+      <c r="AA58" s="178"/>
       <c r="AB58" s="59"/>
       <c r="AC58" s="58"/>
       <c r="AD58" s="58"/>
       <c r="AE58" s="34"/>
-      <c r="AF58" s="173" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG58" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH58" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI58" s="60" t="s">
+      <c r="AF58" s="231" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG58" s="230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH58" s="233" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI58" s="234" t="s">
         <v>160</v>
       </c>
-      <c r="AK58" s="236"/>
-      <c r="AL58" s="227">
+      <c r="AK58" s="269"/>
+      <c r="AL58" s="260">
         <v>6</v>
       </c>
-      <c r="AM58" s="226" t="s">
+      <c r="AM58" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="AN58" s="226" t="s">
+      <c r="AN58" s="259" t="s">
         <v>43</v>
       </c>
       <c r="AO58" s="11" t="s">
@@ -8160,89 +8266,89 @@
       <c r="BA58" s="34"/>
     </row>
     <row r="59" spans="1:53" ht="57" customHeight="1" thickBot="1">
-      <c r="A59" s="237"/>
-      <c r="B59" s="228"/>
-      <c r="C59" s="234"/>
-      <c r="D59" s="234"/>
+      <c r="A59" s="270"/>
+      <c r="B59" s="261"/>
+      <c r="C59" s="267"/>
+      <c r="D59" s="267"/>
       <c r="E59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="174" t="s">
+      <c r="F59" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="G59" s="175" t="s">
-        <v>59</v>
-      </c>
-      <c r="H59" s="176" t="s">
+      <c r="G59" s="174" t="s">
+        <v>59</v>
+      </c>
+      <c r="H59" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="I59" s="212" t="s">
+      <c r="I59" s="211" t="s">
         <v>66</v>
       </c>
-      <c r="J59" s="174" t="s">
+      <c r="J59" s="173" t="s">
         <v>76</v>
       </c>
-      <c r="K59" s="175" t="s">
-        <v>59</v>
-      </c>
-      <c r="L59" s="105" t="s">
+      <c r="K59" s="174" t="s">
+        <v>59</v>
+      </c>
+      <c r="L59" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="M59" s="213" t="s">
+      <c r="M59" s="212" t="s">
         <v>66</v>
       </c>
-      <c r="N59" s="145"/>
-      <c r="O59" s="104"/>
+      <c r="N59" s="144"/>
+      <c r="O59" s="103"/>
       <c r="P59" s="13"/>
-      <c r="Q59" s="109"/>
-      <c r="S59" s="237"/>
-      <c r="T59" s="228"/>
-      <c r="U59" s="234"/>
-      <c r="V59" s="234"/>
+      <c r="Q59" s="108"/>
+      <c r="S59" s="270"/>
+      <c r="T59" s="261"/>
+      <c r="U59" s="267"/>
+      <c r="V59" s="267"/>
       <c r="W59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="X59" s="106"/>
-      <c r="Y59" s="183"/>
-      <c r="Z59" s="183"/>
-      <c r="AA59" s="182"/>
+      <c r="X59" s="105"/>
+      <c r="Y59" s="182"/>
+      <c r="Z59" s="182"/>
+      <c r="AA59" s="181"/>
       <c r="AB59" s="30"/>
       <c r="AC59" s="12"/>
       <c r="AD59" s="26"/>
       <c r="AE59" s="36"/>
-      <c r="AF59" s="174" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG59" s="104" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH59" s="145" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI59" s="140" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK59" s="237"/>
-      <c r="AL59" s="228"/>
-      <c r="AM59" s="234"/>
-      <c r="AN59" s="234"/>
+      <c r="AF59" s="242" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG59" s="244" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH59" s="245" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI59" s="246" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK59" s="270"/>
+      <c r="AL59" s="261"/>
+      <c r="AM59" s="267"/>
+      <c r="AN59" s="267"/>
       <c r="AO59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AP59" s="197" t="s">
+      <c r="AP59" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="AQ59" s="198" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR59" s="199" t="s">
+      <c r="AQ59" s="197" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR59" s="198" t="s">
         <v>120</v>
       </c>
-      <c r="AS59" s="140" t="s">
+      <c r="AS59" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="AT59" s="204"/>
-      <c r="AU59" s="205"/>
+      <c r="AT59" s="203"/>
+      <c r="AU59" s="204"/>
       <c r="AV59" s="26"/>
       <c r="AW59" s="36"/>
       <c r="AX59" s="30"/>
@@ -8251,88 +8357,88 @@
       <c r="BA59" s="36"/>
     </row>
     <row r="60" spans="1:53" ht="45" customHeight="1">
-      <c r="A60" s="231" t="s">
+      <c r="A60" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="220">
-        <v>1</v>
-      </c>
-      <c r="C60" s="222" t="s">
+      <c r="B60" s="253">
+        <v>1</v>
+      </c>
+      <c r="C60" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="222" t="s">
+      <c r="D60" s="255" t="s">
         <v>34</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="101" t="s">
+      <c r="F60" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="G60" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="H60" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="G60" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="H60" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="I60" s="210" t="s">
+      <c r="I60" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="J60" s="101"/>
+      <c r="J60" s="100"/>
       <c r="K60" s="70"/>
-      <c r="L60" s="112"/>
-      <c r="M60" s="177"/>
+      <c r="L60" s="111"/>
+      <c r="M60" s="176"/>
       <c r="N60" s="59"/>
       <c r="O60" s="3"/>
       <c r="P60" s="58"/>
-      <c r="Q60" s="149"/>
-      <c r="S60" s="231" t="s">
+      <c r="Q60" s="148"/>
+      <c r="S60" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="T60" s="220">
-        <v>1</v>
-      </c>
-      <c r="U60" s="222" t="s">
+      <c r="T60" s="253">
+        <v>1</v>
+      </c>
+      <c r="U60" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="222" t="s">
+      <c r="V60" s="255" t="s">
         <v>34</v>
       </c>
       <c r="W60" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="X60" s="101"/>
-      <c r="Y60" s="137"/>
-      <c r="Z60" s="137"/>
-      <c r="AA60" s="190"/>
+      <c r="X60" s="100"/>
+      <c r="Y60" s="136"/>
+      <c r="Z60" s="136"/>
+      <c r="AA60" s="189"/>
       <c r="AB60" s="57"/>
       <c r="AC60" s="3"/>
-      <c r="AD60" s="133"/>
+      <c r="AD60" s="132"/>
       <c r="AE60" s="60"/>
-      <c r="AF60" s="101"/>
-      <c r="AG60" s="178"/>
-      <c r="AH60" s="112"/>
-      <c r="AI60" s="89"/>
-      <c r="AK60" s="231" t="s">
+      <c r="AF60" s="100"/>
+      <c r="AG60" s="177"/>
+      <c r="AH60" s="111"/>
+      <c r="AI60" s="88"/>
+      <c r="AK60" s="264" t="s">
         <v>9</v>
       </c>
-      <c r="AL60" s="220">
-        <v>1</v>
-      </c>
-      <c r="AM60" s="222" t="s">
+      <c r="AL60" s="253">
+        <v>1</v>
+      </c>
+      <c r="AM60" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="AN60" s="222" t="s">
+      <c r="AN60" s="255" t="s">
         <v>34</v>
       </c>
       <c r="AO60" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AP60" s="101"/>
-      <c r="AQ60" s="200"/>
-      <c r="AR60" s="137"/>
-      <c r="AS60" s="89"/>
-      <c r="AT60" s="101"/>
+      <c r="AP60" s="100"/>
+      <c r="AQ60" s="199"/>
+      <c r="AR60" s="136"/>
+      <c r="AS60" s="88"/>
+      <c r="AT60" s="100"/>
       <c r="AU60" s="70"/>
       <c r="AV60" s="24"/>
       <c r="AW60" s="34"/>
@@ -8342,72 +8448,72 @@
       <c r="BA60" s="34"/>
     </row>
     <row r="61" spans="1:53" ht="61.5" customHeight="1">
-      <c r="A61" s="232"/>
-      <c r="B61" s="221"/>
-      <c r="C61" s="223"/>
-      <c r="D61" s="223"/>
+      <c r="A61" s="265"/>
+      <c r="B61" s="254"/>
+      <c r="C61" s="256"/>
+      <c r="D61" s="256"/>
       <c r="E61" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F61" s="101" t="s">
-        <v>167</v>
+      <c r="F61" s="100" t="s">
+        <v>166</v>
       </c>
       <c r="G61" s="66" t="s">
         <v>59</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="I61" s="210" t="s">
+        <v>165</v>
+      </c>
+      <c r="I61" s="209" t="s">
         <v>150</v>
       </c>
       <c r="J61" s="59"/>
       <c r="K61" s="3"/>
       <c r="L61" s="58"/>
-      <c r="M61" s="149"/>
+      <c r="M61" s="148"/>
       <c r="N61" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="O61" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="P61" s="129" t="s">
+      <c r="O61" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="Q61" s="149" t="s">
+      <c r="Q61" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="S61" s="232"/>
-      <c r="T61" s="221"/>
-      <c r="U61" s="223"/>
-      <c r="V61" s="223"/>
+      <c r="S61" s="265"/>
+      <c r="T61" s="254"/>
+      <c r="U61" s="256"/>
+      <c r="V61" s="256"/>
       <c r="W61" s="10" t="s">
         <v>2</v>
       </c>
       <c r="X61" s="59"/>
       <c r="Y61" s="66"/>
       <c r="Z61" s="66"/>
-      <c r="AA61" s="179"/>
+      <c r="AA61" s="178"/>
       <c r="AB61" s="57"/>
       <c r="AC61" s="3"/>
-      <c r="AD61" s="133"/>
+      <c r="AD61" s="132"/>
       <c r="AE61" s="60"/>
       <c r="AF61" s="59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG61" s="3" t="s">
         <v>59</v>
       </c>
       <c r="AH61" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI61" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="AI61" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK61" s="232"/>
-      <c r="AL61" s="221"/>
-      <c r="AM61" s="223"/>
-      <c r="AN61" s="223"/>
+      <c r="AK61" s="265"/>
+      <c r="AL61" s="254"/>
+      <c r="AM61" s="256"/>
+      <c r="AN61" s="256"/>
       <c r="AO61" s="10" t="s">
         <v>2</v>
       </c>
@@ -8425,47 +8531,47 @@
       <c r="BA61" s="34"/>
     </row>
     <row r="62" spans="1:53" ht="36.75" customHeight="1">
-      <c r="A62" s="232"/>
-      <c r="B62" s="224">
-        <v>2</v>
-      </c>
-      <c r="C62" s="225" t="s">
+      <c r="A62" s="265"/>
+      <c r="B62" s="257">
+        <v>2</v>
+      </c>
+      <c r="C62" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="D62" s="225" t="s">
+      <c r="D62" s="258" t="s">
         <v>36</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F62" s="101" t="s">
+      <c r="F62" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="H62" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="G62" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="H62" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="I62" s="210" t="s">
+      <c r="I62" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="J62" s="92"/>
+      <c r="J62" s="91"/>
       <c r="K62" s="73"/>
       <c r="L62" s="24"/>
       <c r="M62" s="34"/>
       <c r="N62" s="59"/>
-      <c r="O62" s="171"/>
-      <c r="P62" s="129"/>
-      <c r="Q62" s="123"/>
-      <c r="S62" s="232"/>
-      <c r="T62" s="224">
-        <v>2</v>
-      </c>
-      <c r="U62" s="225" t="s">
+      <c r="O62" s="170"/>
+      <c r="P62" s="128"/>
+      <c r="Q62" s="122"/>
+      <c r="S62" s="265"/>
+      <c r="T62" s="257">
+        <v>2</v>
+      </c>
+      <c r="U62" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="V62" s="225" t="s">
+      <c r="V62" s="258" t="s">
         <v>36</v>
       </c>
       <c r="W62" s="11" t="s">
@@ -8474,8 +8580,8 @@
       <c r="X62" s="59"/>
       <c r="Y62" s="66"/>
       <c r="Z62" s="66"/>
-      <c r="AA62" s="179"/>
-      <c r="AB62" s="84"/>
+      <c r="AA62" s="178"/>
+      <c r="AB62" s="83"/>
       <c r="AC62" s="73"/>
       <c r="AD62" s="24"/>
       <c r="AE62" s="34"/>
@@ -8483,139 +8589,139 @@
       <c r="AG62" s="3"/>
       <c r="AH62" s="58"/>
       <c r="AI62" s="60"/>
-      <c r="AK62" s="232"/>
-      <c r="AL62" s="224">
-        <v>2</v>
-      </c>
-      <c r="AM62" s="225" t="s">
+      <c r="AK62" s="265"/>
+      <c r="AL62" s="257">
+        <v>2</v>
+      </c>
+      <c r="AM62" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="AN62" s="225" t="s">
+      <c r="AN62" s="258" t="s">
         <v>36</v>
       </c>
       <c r="AO62" s="11" t="s">
         <v>1</v>
       </c>
       <c r="AP62" s="59"/>
-      <c r="AQ62" s="93"/>
+      <c r="AQ62" s="92"/>
       <c r="AR62" s="66"/>
       <c r="AS62" s="75"/>
-      <c r="AT62" s="84"/>
+      <c r="AT62" s="83"/>
       <c r="AU62" s="73"/>
       <c r="AV62" s="24"/>
       <c r="AW62" s="34"/>
-      <c r="AX62" s="84"/>
+      <c r="AX62" s="83"/>
       <c r="AY62" s="73"/>
       <c r="AZ62" s="24"/>
       <c r="BA62" s="34"/>
     </row>
     <row r="63" spans="1:53" ht="58.5" customHeight="1">
-      <c r="A63" s="232"/>
-      <c r="B63" s="221"/>
-      <c r="C63" s="223"/>
-      <c r="D63" s="223"/>
+      <c r="A63" s="265"/>
+      <c r="B63" s="254"/>
+      <c r="C63" s="256"/>
+      <c r="D63" s="256"/>
       <c r="E63" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="101" t="s">
-        <v>167</v>
+      <c r="F63" s="100" t="s">
+        <v>166</v>
       </c>
       <c r="G63" s="66" t="s">
         <v>59</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="I63" s="210" t="s">
+        <v>165</v>
+      </c>
+      <c r="I63" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="J63" s="92"/>
+      <c r="J63" s="91"/>
       <c r="K63" s="73"/>
       <c r="L63" s="24"/>
       <c r="M63" s="34"/>
       <c r="N63" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="O63" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="P63" s="129" t="s">
+      <c r="O63" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="P63" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="Q63" s="123" t="s">
+      <c r="Q63" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="S63" s="232"/>
-      <c r="T63" s="221"/>
-      <c r="U63" s="223"/>
-      <c r="V63" s="223"/>
+      <c r="S63" s="265"/>
+      <c r="T63" s="254"/>
+      <c r="U63" s="256"/>
+      <c r="V63" s="256"/>
       <c r="W63" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X63" s="59"/>
       <c r="Y63" s="66"/>
       <c r="Z63" s="66"/>
-      <c r="AA63" s="179"/>
-      <c r="AB63" s="128"/>
-      <c r="AC63" s="84"/>
-      <c r="AD63" s="132"/>
+      <c r="AA63" s="178"/>
+      <c r="AB63" s="127"/>
+      <c r="AC63" s="83"/>
+      <c r="AD63" s="131"/>
       <c r="AE63" s="60"/>
-      <c r="AF63" s="84" t="s">
-        <v>185</v>
+      <c r="AF63" s="83" t="s">
+        <v>183</v>
       </c>
       <c r="AG63" s="3" t="s">
         <v>59</v>
       </c>
       <c r="AH63" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI63" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="AI63" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK63" s="232"/>
-      <c r="AL63" s="221"/>
-      <c r="AM63" s="223"/>
-      <c r="AN63" s="223"/>
+      <c r="AK63" s="265"/>
+      <c r="AL63" s="254"/>
+      <c r="AM63" s="256"/>
+      <c r="AN63" s="256"/>
       <c r="AO63" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AP63" s="114"/>
-      <c r="AQ63" s="93"/>
-      <c r="AR63" s="200"/>
+      <c r="AP63" s="113"/>
+      <c r="AQ63" s="92"/>
+      <c r="AR63" s="199"/>
       <c r="AS63" s="34"/>
-      <c r="AT63" s="84"/>
+      <c r="AT63" s="83"/>
       <c r="AU63" s="73"/>
       <c r="AV63" s="77"/>
       <c r="AW63" s="34"/>
-      <c r="AX63" s="84"/>
+      <c r="AX63" s="83"/>
       <c r="AY63" s="73"/>
       <c r="AZ63" s="77"/>
       <c r="BA63" s="34"/>
     </row>
     <row r="64" spans="1:53" ht="51.75" customHeight="1">
-      <c r="A64" s="232"/>
-      <c r="B64" s="224">
+      <c r="A64" s="265"/>
+      <c r="B64" s="257">
         <v>3</v>
       </c>
-      <c r="C64" s="225" t="s">
+      <c r="C64" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="D64" s="225" t="s">
+      <c r="D64" s="258" t="s">
         <v>47</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F64" s="101" t="s">
-        <v>167</v>
+      <c r="F64" s="100" t="s">
+        <v>166</v>
       </c>
       <c r="G64" s="66" t="s">
         <v>60</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="I64" s="210" t="s">
+        <v>165</v>
+      </c>
+      <c r="I64" s="209" t="s">
         <v>150</v>
       </c>
       <c r="J64" s="61"/>
@@ -8623,32 +8729,32 @@
       <c r="L64" s="24"/>
       <c r="M64" s="34"/>
       <c r="N64" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="O64" s="171" t="s">
+        <v>215</v>
+      </c>
+      <c r="O64" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="P64" s="129" t="s">
+      <c r="P64" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="Q64" s="123" t="s">
+      <c r="Q64" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="S64" s="232"/>
-      <c r="T64" s="224">
+      <c r="S64" s="265"/>
+      <c r="T64" s="257">
         <v>3</v>
       </c>
-      <c r="U64" s="225" t="s">
+      <c r="U64" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="V64" s="225" t="s">
+      <c r="V64" s="258" t="s">
         <v>47</v>
       </c>
       <c r="W64" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="X64" s="189" t="s">
-        <v>218</v>
+      <c r="X64" s="188" t="s">
+        <v>215</v>
       </c>
       <c r="Y64" s="66" t="s">
         <v>60</v>
@@ -8656,32 +8762,32 @@
       <c r="Z64" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="AA64" s="179" t="s">
+      <c r="AA64" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="AB64" s="128"/>
-      <c r="AC64" s="84"/>
-      <c r="AD64" s="132"/>
+      <c r="AB64" s="127"/>
+      <c r="AC64" s="83"/>
+      <c r="AD64" s="131"/>
       <c r="AE64" s="60"/>
-      <c r="AF64" s="128"/>
+      <c r="AF64" s="127"/>
       <c r="AG64" s="3"/>
-      <c r="AH64" s="132"/>
+      <c r="AH64" s="131"/>
       <c r="AI64" s="60"/>
-      <c r="AK64" s="232"/>
-      <c r="AL64" s="224">
+      <c r="AK64" s="265"/>
+      <c r="AL64" s="257">
         <v>3</v>
       </c>
-      <c r="AM64" s="225" t="s">
+      <c r="AM64" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="AN64" s="225" t="s">
+      <c r="AN64" s="258" t="s">
         <v>47</v>
       </c>
       <c r="AO64" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AP64" s="128" t="s">
-        <v>226</v>
+      <c r="AP64" s="127" t="s">
+        <v>219</v>
       </c>
       <c r="AQ64" s="66" t="s">
         <v>60</v>
@@ -8692,55 +8798,55 @@
       <c r="AS64" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AT64" s="128"/>
+      <c r="AT64" s="127"/>
       <c r="AU64" s="66"/>
-      <c r="AV64" s="132"/>
+      <c r="AV64" s="131"/>
       <c r="AW64" s="34"/>
       <c r="AX64" s="59"/>
       <c r="AY64" s="58"/>
-      <c r="AZ64" s="113"/>
+      <c r="AZ64" s="112"/>
       <c r="BA64" s="60"/>
     </row>
     <row r="65" spans="1:53" ht="33" customHeight="1">
-      <c r="A65" s="232"/>
-      <c r="B65" s="221"/>
-      <c r="C65" s="226"/>
-      <c r="D65" s="226"/>
+      <c r="A65" s="265"/>
+      <c r="B65" s="254"/>
+      <c r="C65" s="259"/>
+      <c r="D65" s="259"/>
       <c r="E65" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F65" s="59"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="133"/>
+      <c r="H65" s="132"/>
       <c r="I65" s="65"/>
-      <c r="J65" s="173" t="s">
-        <v>180</v>
+      <c r="J65" s="172" t="s">
+        <v>179</v>
       </c>
       <c r="K65" s="66" t="s">
         <v>60</v>
       </c>
       <c r="L65" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="M65" s="34" t="s">
         <v>181</v>
-      </c>
-      <c r="M65" s="34" t="s">
-        <v>182</v>
       </c>
       <c r="N65" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="O65" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="P65" s="129" t="s">
+      <c r="O65" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="P65" s="128" t="s">
         <v>79</v>
       </c>
       <c r="Q65" s="34">
         <v>242</v>
       </c>
-      <c r="S65" s="232"/>
-      <c r="T65" s="221"/>
-      <c r="U65" s="226"/>
-      <c r="V65" s="226"/>
+      <c r="S65" s="265"/>
+      <c r="T65" s="254"/>
+      <c r="U65" s="259"/>
+      <c r="V65" s="259"/>
       <c r="W65" s="11" t="s">
         <v>2</v>
       </c>
@@ -8753,21 +8859,21 @@
       <c r="Z65" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="AA65" s="91" t="s">
+      <c r="AA65" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="AB65" s="128"/>
-      <c r="AC65" s="84"/>
-      <c r="AD65" s="132"/>
+      <c r="AB65" s="127"/>
+      <c r="AC65" s="83"/>
+      <c r="AD65" s="131"/>
       <c r="AE65" s="60"/>
       <c r="AF65" s="27"/>
       <c r="AG65" s="3"/>
       <c r="AH65" s="24"/>
       <c r="AI65" s="60"/>
-      <c r="AK65" s="232"/>
-      <c r="AL65" s="221"/>
-      <c r="AM65" s="226"/>
-      <c r="AN65" s="226"/>
+      <c r="AK65" s="265"/>
+      <c r="AL65" s="254"/>
+      <c r="AM65" s="259"/>
+      <c r="AN65" s="259"/>
       <c r="AO65" s="11" t="s">
         <v>2</v>
       </c>
@@ -8779,20 +8885,20 @@
       <c r="AU65" s="3"/>
       <c r="AV65" s="24"/>
       <c r="AW65" s="34"/>
-      <c r="AX65" s="128"/>
-      <c r="AY65" s="129"/>
-      <c r="AZ65" s="130"/>
-      <c r="BA65" s="131"/>
+      <c r="AX65" s="127"/>
+      <c r="AY65" s="128"/>
+      <c r="AZ65" s="129"/>
+      <c r="BA65" s="130"/>
     </row>
     <row r="66" spans="1:53" ht="63">
-      <c r="A66" s="232"/>
-      <c r="B66" s="224">
+      <c r="A66" s="265"/>
+      <c r="B66" s="257">
         <v>4</v>
       </c>
-      <c r="C66" s="225" t="s">
+      <c r="C66" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="225" t="s">
+      <c r="D66" s="258" t="s">
         <v>49</v>
       </c>
       <c r="E66" s="11" t="s">
@@ -8800,39 +8906,39 @@
       </c>
       <c r="F66" s="59"/>
       <c r="G66" s="66"/>
-      <c r="H66" s="133"/>
+      <c r="H66" s="132"/>
       <c r="I66" s="65"/>
-      <c r="J66" s="173"/>
+      <c r="J66" s="172"/>
       <c r="K66" s="3"/>
       <c r="L66" s="24"/>
       <c r="M66" s="34"/>
       <c r="N66" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="O66" s="171" t="s">
+        <v>217</v>
+      </c>
+      <c r="O66" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="P66" s="129" t="s">
+      <c r="P66" s="128" t="s">
         <v>89</v>
       </c>
       <c r="Q66" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="S66" s="232"/>
-      <c r="T66" s="224">
+      <c r="S66" s="265"/>
+      <c r="T66" s="257">
         <v>4</v>
       </c>
-      <c r="U66" s="225" t="s">
+      <c r="U66" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="V66" s="225" t="s">
+      <c r="V66" s="258" t="s">
         <v>49</v>
       </c>
       <c r="W66" s="11" t="s">
         <v>1</v>
       </c>
       <c r="X66" s="59" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Y66" s="66" t="s">
         <v>60</v>
@@ -8840,40 +8946,40 @@
       <c r="Z66" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="AA66" s="179" t="s">
+      <c r="AA66" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="AB66" s="128" t="s">
+      <c r="AB66" s="127" t="s">
         <v>146</v>
       </c>
-      <c r="AC66" s="84" t="s">
+      <c r="AC66" s="83" t="s">
         <v>138</v>
       </c>
       <c r="AD66" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AE66" s="179" t="s">
+      <c r="AE66" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="AF66" s="128"/>
+      <c r="AF66" s="127"/>
       <c r="AG66" s="3"/>
-      <c r="AH66" s="132"/>
+      <c r="AH66" s="131"/>
       <c r="AI66" s="60"/>
-      <c r="AK66" s="232"/>
-      <c r="AL66" s="224">
+      <c r="AK66" s="265"/>
+      <c r="AL66" s="257">
         <v>4</v>
       </c>
-      <c r="AM66" s="225" t="s">
+      <c r="AM66" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="AN66" s="225" t="s">
+      <c r="AN66" s="258" t="s">
         <v>49</v>
       </c>
       <c r="AO66" s="11" t="s">
         <v>1</v>
       </c>
       <c r="AP66" s="59" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AQ66" s="66" t="s">
         <v>60</v>
@@ -8884,9 +8990,9 @@
       <c r="AS66" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="AT66" s="128"/>
+      <c r="AT66" s="127"/>
       <c r="AU66" s="66"/>
-      <c r="AV66" s="132"/>
+      <c r="AV66" s="131"/>
       <c r="AW66" s="34"/>
       <c r="AX66" s="28"/>
       <c r="AY66" s="3"/>
@@ -8894,45 +9000,45 @@
       <c r="BA66" s="34"/>
     </row>
     <row r="67" spans="1:53" ht="72">
-      <c r="A67" s="232"/>
-      <c r="B67" s="221"/>
-      <c r="C67" s="223"/>
-      <c r="D67" s="223"/>
+      <c r="A67" s="265"/>
+      <c r="B67" s="254"/>
+      <c r="C67" s="256"/>
+      <c r="D67" s="256"/>
       <c r="E67" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="59"/>
       <c r="G67" s="66"/>
-      <c r="H67" s="133"/>
+      <c r="H67" s="132"/>
       <c r="I67" s="65"/>
-      <c r="J67" s="173" t="s">
-        <v>180</v>
+      <c r="J67" s="172" t="s">
+        <v>179</v>
       </c>
       <c r="K67" s="66" t="s">
         <v>60</v>
       </c>
       <c r="L67" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="M67" s="34" t="s">
         <v>181</v>
-      </c>
-      <c r="M67" s="34" t="s">
-        <v>182</v>
       </c>
       <c r="N67" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="O67" s="171" t="s">
-        <v>59</v>
-      </c>
-      <c r="P67" s="129" t="s">
+      <c r="O67" s="170" t="s">
+        <v>59</v>
+      </c>
+      <c r="P67" s="128" t="s">
         <v>79</v>
       </c>
       <c r="Q67" s="34">
         <v>242</v>
       </c>
-      <c r="S67" s="232"/>
-      <c r="T67" s="221"/>
-      <c r="U67" s="223"/>
-      <c r="V67" s="223"/>
+      <c r="S67" s="265"/>
+      <c r="T67" s="254"/>
+      <c r="U67" s="256"/>
+      <c r="V67" s="256"/>
       <c r="W67" s="11" t="s">
         <v>2</v>
       </c>
@@ -8945,21 +9051,21 @@
       <c r="Z67" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="AA67" s="91" t="s">
+      <c r="AA67" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="AB67" s="128"/>
-      <c r="AC67" s="84"/>
+      <c r="AB67" s="127"/>
+      <c r="AC67" s="83"/>
       <c r="AD67" s="66"/>
-      <c r="AE67" s="179"/>
+      <c r="AE67" s="178"/>
       <c r="AF67" s="59"/>
       <c r="AG67" s="3"/>
       <c r="AH67" s="58"/>
       <c r="AI67" s="60"/>
-      <c r="AK67" s="232"/>
-      <c r="AL67" s="221"/>
-      <c r="AM67" s="223"/>
-      <c r="AN67" s="223"/>
+      <c r="AK67" s="265"/>
+      <c r="AL67" s="254"/>
+      <c r="AM67" s="256"/>
+      <c r="AN67" s="256"/>
       <c r="AO67" s="11" t="s">
         <v>2</v>
       </c>
@@ -8985,14 +9091,14 @@
       <c r="BA67" s="34"/>
     </row>
     <row r="68" spans="1:53" ht="23.25">
-      <c r="A68" s="232"/>
-      <c r="B68" s="224">
+      <c r="A68" s="265"/>
+      <c r="B68" s="257">
         <v>5</v>
       </c>
-      <c r="C68" s="225" t="s">
+      <c r="C68" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="225" t="s">
+      <c r="D68" s="258" t="s">
         <v>39</v>
       </c>
       <c r="E68" s="11" t="s">
@@ -9000,86 +9106,86 @@
       </c>
       <c r="F68" s="59"/>
       <c r="G68" s="24"/>
-      <c r="H68" s="133"/>
+      <c r="H68" s="132"/>
       <c r="I68" s="65"/>
-      <c r="J68" s="173" t="s">
-        <v>216</v>
+      <c r="J68" s="172" t="s">
+        <v>213</v>
       </c>
       <c r="K68" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="L68" s="132"/>
+      <c r="L68" s="131"/>
       <c r="M68" s="34" t="s">
         <v>61</v>
       </c>
       <c r="N68" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="O68" s="171" t="s">
+        <v>213</v>
+      </c>
+      <c r="O68" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="P68" s="129"/>
-      <c r="Q68" s="152" t="s">
+      <c r="P68" s="128"/>
+      <c r="Q68" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="S68" s="232"/>
-      <c r="T68" s="224">
+      <c r="S68" s="265"/>
+      <c r="T68" s="257">
         <v>5</v>
       </c>
-      <c r="U68" s="225" t="s">
+      <c r="U68" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="V68" s="225" t="s">
+      <c r="V68" s="258" t="s">
         <v>39</v>
       </c>
       <c r="W68" s="11" t="s">
         <v>1</v>
       </c>
       <c r="X68" s="59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Y68" s="66" t="s">
         <v>60</v>
       </c>
       <c r="Z68" s="66"/>
-      <c r="AA68" s="179" t="s">
+      <c r="AA68" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="AB68" s="128" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC68" s="150" t="s">
+      <c r="AB68" s="127" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC68" s="149" t="s">
         <v>60</v>
       </c>
       <c r="AD68" s="66"/>
-      <c r="AE68" s="179" t="s">
+      <c r="AE68" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="AF68" s="173" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG68" s="150" t="s">
+      <c r="AF68" s="172" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG68" s="149" t="s">
         <v>60</v>
       </c>
-      <c r="AH68" s="151"/>
-      <c r="AI68" s="152" t="s">
+      <c r="AH68" s="150"/>
+      <c r="AI68" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="AK68" s="232"/>
-      <c r="AL68" s="224">
+      <c r="AK68" s="265"/>
+      <c r="AL68" s="257">
         <v>5</v>
       </c>
-      <c r="AM68" s="225" t="s">
+      <c r="AM68" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="AN68" s="225" t="s">
+      <c r="AN68" s="258" t="s">
         <v>39</v>
       </c>
       <c r="AO68" s="11" t="s">
         <v>1</v>
       </c>
       <c r="AP68" s="59" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AQ68" s="66" t="s">
         <v>60</v>
@@ -9098,39 +9204,39 @@
       <c r="BA68" s="34"/>
     </row>
     <row r="69" spans="1:53" ht="78.75" customHeight="1">
-      <c r="A69" s="232"/>
-      <c r="B69" s="221"/>
-      <c r="C69" s="223"/>
-      <c r="D69" s="223"/>
+      <c r="A69" s="265"/>
+      <c r="B69" s="254"/>
+      <c r="C69" s="256"/>
+      <c r="D69" s="256"/>
       <c r="E69" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="59"/>
       <c r="G69" s="73"/>
-      <c r="H69" s="133" t="s">
-        <v>168</v>
+      <c r="H69" s="132" t="s">
+        <v>167</v>
       </c>
       <c r="I69" s="65"/>
-      <c r="J69" s="173"/>
+      <c r="J69" s="172"/>
       <c r="K69" s="66"/>
-      <c r="L69" s="132"/>
+      <c r="L69" s="131"/>
       <c r="M69" s="34"/>
       <c r="N69" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="O69" s="171" t="s">
+      <c r="O69" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="P69" s="129" t="s">
+      <c r="P69" s="128" t="s">
         <v>72</v>
       </c>
       <c r="Q69" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="S69" s="232"/>
-      <c r="T69" s="221"/>
-      <c r="U69" s="223"/>
-      <c r="V69" s="223"/>
+      <c r="S69" s="265"/>
+      <c r="T69" s="254"/>
+      <c r="U69" s="256"/>
+      <c r="V69" s="256"/>
       <c r="W69" s="11" t="s">
         <v>2</v>
       </c>
@@ -9143,10 +9249,10 @@
       <c r="Z69" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="AA69" s="179" t="s">
+      <c r="AA69" s="178" t="s">
         <v>87</v>
       </c>
-      <c r="AB69" s="128" t="s">
+      <c r="AB69" s="127" t="s">
         <v>147</v>
       </c>
       <c r="AC69" s="66" t="s">
@@ -9155,35 +9261,35 @@
       <c r="AD69" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AE69" s="179">
+      <c r="AE69" s="178">
         <v>200</v>
       </c>
-      <c r="AF69" s="264" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG69" s="265" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH69" s="266" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI69" s="267" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK69" s="232"/>
-      <c r="AL69" s="221"/>
-      <c r="AM69" s="223"/>
-      <c r="AN69" s="223"/>
+      <c r="AF69" s="214" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG69" s="215" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH69" s="216" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI69" s="217" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK69" s="265"/>
+      <c r="AL69" s="254"/>
+      <c r="AM69" s="256"/>
+      <c r="AN69" s="256"/>
       <c r="AO69" s="11" t="s">
         <v>2</v>
       </c>
       <c r="AP69" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="AQ69" s="93" t="s">
+      <c r="AQ69" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="AR69" s="93" t="s">
+      <c r="AR69" s="92" t="s">
         <v>94</v>
       </c>
       <c r="AS69" s="75" t="s">
@@ -9199,60 +9305,60 @@
       <c r="BA69" s="35"/>
     </row>
     <row r="70" spans="1:53" ht="31.5">
-      <c r="A70" s="232"/>
-      <c r="B70" s="224">
+      <c r="A70" s="265"/>
+      <c r="B70" s="257">
         <v>6</v>
       </c>
-      <c r="C70" s="225" t="s">
+      <c r="C70" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="225" t="s">
+      <c r="D70" s="258" t="s">
         <v>37</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="128" t="s">
-        <v>213</v>
-      </c>
-      <c r="G70" s="170" t="s">
+      <c r="F70" s="127" t="s">
+        <v>210</v>
+      </c>
+      <c r="G70" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="H70" s="133"/>
+      <c r="H70" s="132"/>
       <c r="I70" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J70" s="128"/>
+      <c r="J70" s="127"/>
       <c r="K70" s="66"/>
-      <c r="L70" s="132"/>
+      <c r="L70" s="131"/>
       <c r="M70" s="34"/>
       <c r="N70" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="O70" s="171" t="s">
+        <v>218</v>
+      </c>
+      <c r="O70" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="P70" s="129" t="s">
+      <c r="P70" s="128" t="s">
         <v>92</v>
       </c>
       <c r="Q70" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="S70" s="232"/>
-      <c r="T70" s="224">
+      <c r="S70" s="265"/>
+      <c r="T70" s="257">
         <v>5</v>
       </c>
-      <c r="U70" s="225" t="s">
+      <c r="U70" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="V70" s="225" t="s">
+      <c r="V70" s="258" t="s">
         <v>37</v>
       </c>
       <c r="W70" s="11" t="s">
         <v>1</v>
       </c>
       <c r="X70" s="59" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y70" s="66" t="s">
         <v>60</v>
@@ -9260,32 +9366,32 @@
       <c r="Z70" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="AA70" s="179" t="s">
+      <c r="AA70" s="178" t="s">
         <v>61</v>
       </c>
       <c r="AB70" s="61"/>
       <c r="AC70" s="3"/>
       <c r="AD70" s="66"/>
-      <c r="AE70" s="179"/>
+      <c r="AE70" s="178"/>
       <c r="AF70" s="59"/>
       <c r="AG70" s="3"/>
       <c r="AH70" s="58"/>
       <c r="AI70" s="60"/>
-      <c r="AK70" s="232"/>
-      <c r="AL70" s="224">
+      <c r="AK70" s="265"/>
+      <c r="AL70" s="257">
         <v>5</v>
       </c>
-      <c r="AM70" s="225" t="s">
+      <c r="AM70" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="AN70" s="225" t="s">
+      <c r="AN70" s="258" t="s">
         <v>37</v>
       </c>
       <c r="AO70" s="11" t="s">
         <v>1</v>
       </c>
       <c r="AP70" s="59" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AQ70" s="66" t="s">
         <v>60</v>
@@ -9306,37 +9412,37 @@
       <c r="BA70" s="34"/>
     </row>
     <row r="71" spans="1:53" ht="78.75" customHeight="1">
-      <c r="A71" s="232"/>
-      <c r="B71" s="221"/>
-      <c r="C71" s="223"/>
-      <c r="D71" s="223"/>
+      <c r="A71" s="265"/>
+      <c r="B71" s="254"/>
+      <c r="C71" s="256"/>
+      <c r="D71" s="256"/>
       <c r="E71" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F71" s="59"/>
       <c r="G71" s="24"/>
-      <c r="H71" s="133"/>
+      <c r="H71" s="132"/>
       <c r="I71" s="65"/>
       <c r="J71" s="79"/>
       <c r="K71" s="66"/>
-      <c r="L71" s="132"/>
+      <c r="L71" s="131"/>
       <c r="M71" s="34"/>
       <c r="N71" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="O71" s="171" t="s">
+      <c r="O71" s="170" t="s">
         <v>85</v>
       </c>
-      <c r="P71" s="129" t="s">
+      <c r="P71" s="128" t="s">
         <v>72</v>
       </c>
       <c r="Q71" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="S71" s="232"/>
-      <c r="T71" s="221"/>
-      <c r="U71" s="223"/>
-      <c r="V71" s="223"/>
+      <c r="S71" s="265"/>
+      <c r="T71" s="254"/>
+      <c r="U71" s="256"/>
+      <c r="V71" s="256"/>
       <c r="W71" s="11" t="s">
         <v>2</v>
       </c>
@@ -9349,10 +9455,10 @@
       <c r="Z71" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="AA71" s="179" t="s">
+      <c r="AA71" s="178" t="s">
         <v>87</v>
       </c>
-      <c r="AB71" s="128" t="s">
+      <c r="AB71" s="127" t="s">
         <v>147</v>
       </c>
       <c r="AC71" s="6" t="s">
@@ -9361,35 +9467,35 @@
       <c r="AD71" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="AE71" s="179">
+      <c r="AE71" s="178">
         <v>200</v>
       </c>
-      <c r="AF71" s="264" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG71" s="265" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH71" s="266" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI71" s="267" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK71" s="232"/>
-      <c r="AL71" s="221"/>
-      <c r="AM71" s="223"/>
-      <c r="AN71" s="223"/>
+      <c r="AF71" s="214" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG71" s="215" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH71" s="216" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI71" s="217" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK71" s="265"/>
+      <c r="AL71" s="254"/>
+      <c r="AM71" s="256"/>
+      <c r="AN71" s="256"/>
       <c r="AO71" s="11" t="s">
         <v>2</v>
       </c>
       <c r="AP71" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="AQ71" s="93" t="s">
+      <c r="AQ71" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="AR71" s="93" t="s">
+      <c r="AR71" s="92" t="s">
         <v>94</v>
       </c>
       <c r="AS71" s="75" t="s">
@@ -9405,14 +9511,14 @@
       <c r="BA71" s="35"/>
     </row>
     <row r="72" spans="1:53" ht="30" customHeight="1">
-      <c r="A72" s="232"/>
-      <c r="B72" s="227">
+      <c r="A72" s="265"/>
+      <c r="B72" s="260">
         <v>7</v>
       </c>
-      <c r="C72" s="226" t="s">
+      <c r="C72" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="226" t="s">
+      <c r="D72" s="259" t="s">
         <v>43</v>
       </c>
       <c r="E72" s="11" t="s">
@@ -9420,7 +9526,7 @@
       </c>
       <c r="F72" s="59"/>
       <c r="G72" s="24"/>
-      <c r="H72" s="133"/>
+      <c r="H72" s="132"/>
       <c r="I72" s="65"/>
       <c r="J72" s="59"/>
       <c r="K72" s="3"/>
@@ -9430,14 +9536,14 @@
       <c r="O72" s="3"/>
       <c r="P72" s="24"/>
       <c r="Q72" s="41"/>
-      <c r="S72" s="232"/>
-      <c r="T72" s="227">
+      <c r="S72" s="265"/>
+      <c r="T72" s="260">
         <v>6</v>
       </c>
-      <c r="U72" s="226" t="s">
+      <c r="U72" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="V72" s="226" t="s">
+      <c r="V72" s="259" t="s">
         <v>43</v>
       </c>
       <c r="W72" s="11" t="s">
@@ -9446,7 +9552,7 @@
       <c r="X72" s="63"/>
       <c r="Y72" s="66"/>
       <c r="Z72" s="66"/>
-      <c r="AA72" s="179"/>
+      <c r="AA72" s="178"/>
       <c r="AB72" s="62"/>
       <c r="AC72" s="3"/>
       <c r="AD72" s="24"/>
@@ -9455,14 +9561,14 @@
       <c r="AG72" s="3"/>
       <c r="AH72" s="58"/>
       <c r="AI72" s="60"/>
-      <c r="AK72" s="232"/>
-      <c r="AL72" s="227">
+      <c r="AK72" s="265"/>
+      <c r="AL72" s="260">
         <v>6</v>
       </c>
-      <c r="AM72" s="226" t="s">
+      <c r="AM72" s="259" t="s">
         <v>42</v>
       </c>
-      <c r="AN72" s="226" t="s">
+      <c r="AN72" s="259" t="s">
         <v>43</v>
       </c>
       <c r="AO72" s="11" t="s">
@@ -9471,7 +9577,7 @@
       <c r="AP72" s="59"/>
       <c r="AQ72" s="66"/>
       <c r="AR72" s="66"/>
-      <c r="AS72" s="193"/>
+      <c r="AS72" s="192"/>
       <c r="AT72" s="62"/>
       <c r="AU72" s="3"/>
       <c r="AV72" s="24"/>
@@ -9482,62 +9588,62 @@
       <c r="BA72" s="34"/>
     </row>
     <row r="73" spans="1:53" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A73" s="233"/>
-      <c r="B73" s="228"/>
-      <c r="C73" s="234"/>
-      <c r="D73" s="234"/>
+      <c r="A73" s="266"/>
+      <c r="B73" s="261"/>
+      <c r="C73" s="267"/>
+      <c r="D73" s="267"/>
       <c r="E73" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F73" s="103"/>
-      <c r="G73" s="105"/>
-      <c r="H73" s="146"/>
-      <c r="I73" s="143"/>
-      <c r="J73" s="106"/>
-      <c r="K73" s="107"/>
-      <c r="L73" s="105"/>
+      <c r="F73" s="102"/>
+      <c r="G73" s="104"/>
+      <c r="H73" s="145"/>
+      <c r="I73" s="142"/>
+      <c r="J73" s="105"/>
+      <c r="K73" s="106"/>
+      <c r="L73" s="104"/>
       <c r="M73" s="36"/>
       <c r="N73" s="30"/>
       <c r="O73" s="12"/>
       <c r="P73" s="26"/>
       <c r="Q73" s="43"/>
-      <c r="S73" s="233"/>
-      <c r="T73" s="228"/>
-      <c r="U73" s="234"/>
-      <c r="V73" s="234"/>
+      <c r="S73" s="266"/>
+      <c r="T73" s="261"/>
+      <c r="U73" s="267"/>
+      <c r="V73" s="267"/>
       <c r="W73" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="X73" s="106"/>
-      <c r="Y73" s="183"/>
-      <c r="Z73" s="183"/>
-      <c r="AA73" s="182"/>
+      <c r="X73" s="105"/>
+      <c r="Y73" s="182"/>
+      <c r="Z73" s="182"/>
+      <c r="AA73" s="181"/>
       <c r="AB73" s="30"/>
       <c r="AC73" s="12"/>
       <c r="AD73" s="26"/>
       <c r="AE73" s="36"/>
-      <c r="AF73" s="268" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG73" s="269" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH73" s="270" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI73" s="271" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK73" s="233"/>
-      <c r="AL73" s="228"/>
-      <c r="AM73" s="234"/>
-      <c r="AN73" s="234"/>
+      <c r="AF73" s="218" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG73" s="219" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH73" s="220" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI73" s="221" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK73" s="266"/>
+      <c r="AL73" s="261"/>
+      <c r="AM73" s="267"/>
+      <c r="AN73" s="267"/>
       <c r="AO73" s="5" t="s">
         <v>2</v>
       </c>
       <c r="AP73" s="13"/>
-      <c r="AQ73" s="194"/>
-      <c r="AR73" s="194"/>
+      <c r="AQ73" s="193"/>
+      <c r="AR73" s="193"/>
       <c r="AS73" s="36"/>
       <c r="AT73" s="30"/>
       <c r="AU73" s="12"/>
@@ -9549,16 +9655,16 @@
       <c r="BA73" s="36"/>
     </row>
     <row r="74" spans="1:53" ht="76.5" customHeight="1">
-      <c r="A74" s="217" t="s">
+      <c r="A74" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="220">
-        <v>1</v>
-      </c>
-      <c r="C74" s="222" t="s">
+      <c r="B74" s="253">
+        <v>1</v>
+      </c>
+      <c r="C74" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="222" t="s">
+      <c r="D74" s="255" t="s">
         <v>34</v>
       </c>
       <c r="E74" s="9" t="s">
@@ -9567,12 +9673,12 @@
       <c r="F74" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="G74" s="137" t="s">
-        <v>59</v>
-      </c>
-      <c r="H74" s="263"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="83"/>
+      <c r="G74" s="136" t="s">
+        <v>59</v>
+      </c>
+      <c r="H74" s="213"/>
+      <c r="I74" s="95"/>
+      <c r="J74" s="82"/>
       <c r="K74" s="66"/>
       <c r="L74" s="24"/>
       <c r="M74" s="34"/>
@@ -9588,16 +9694,16 @@
       <c r="Q74" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="S74" s="217" t="s">
+      <c r="S74" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="T74" s="220">
-        <v>1</v>
-      </c>
-      <c r="U74" s="222" t="s">
+      <c r="T74" s="253">
+        <v>1</v>
+      </c>
+      <c r="U74" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="222" t="s">
+      <c r="V74" s="255" t="s">
         <v>34</v>
       </c>
       <c r="W74" s="9" t="s">
@@ -9606,41 +9712,41 @@
       <c r="X74" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="Y74" s="93" t="s">
+      <c r="Y74" s="92" t="s">
         <v>74</v>
       </c>
       <c r="Z74" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="AA74" s="91" t="s">
+      <c r="AA74" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="AB74" s="128"/>
-      <c r="AC74" s="169"/>
+      <c r="AB74" s="127"/>
+      <c r="AC74" s="168"/>
       <c r="AD74" s="24"/>
       <c r="AE74" s="60"/>
-      <c r="AF74" s="101" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG74" s="277" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH74" s="278" t="s">
-        <v>208</v>
+      <c r="AF74" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="AG74" s="227" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH74" s="228" t="s">
+        <v>205</v>
       </c>
       <c r="AI74" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK74" s="217" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK74" s="250" t="s">
         <v>10</v>
       </c>
-      <c r="AL74" s="220">
-        <v>1</v>
-      </c>
-      <c r="AM74" s="222" t="s">
+      <c r="AL74" s="253">
+        <v>1</v>
+      </c>
+      <c r="AM74" s="255" t="s">
         <v>33</v>
       </c>
-      <c r="AN74" s="222" t="s">
+      <c r="AN74" s="255" t="s">
         <v>34</v>
       </c>
       <c r="AO74" s="9" t="s">
@@ -9648,28 +9754,28 @@
       </c>
       <c r="AP74" s="59"/>
       <c r="AQ74" s="66"/>
-      <c r="AR74" s="201"/>
+      <c r="AR74" s="200"/>
       <c r="AS74" s="34"/>
-      <c r="AT74" s="83"/>
+      <c r="AT74" s="82"/>
       <c r="AU74" s="66"/>
       <c r="AV74" s="24"/>
       <c r="AW74" s="34"/>
-      <c r="AX74" s="83"/>
+      <c r="AX74" s="82"/>
       <c r="AY74" s="66"/>
       <c r="AZ74" s="24"/>
       <c r="BA74" s="34"/>
     </row>
     <row r="75" spans="1:53" ht="57.75" customHeight="1">
-      <c r="A75" s="218"/>
-      <c r="B75" s="221"/>
-      <c r="C75" s="223"/>
-      <c r="D75" s="223"/>
+      <c r="A75" s="251"/>
+      <c r="B75" s="254"/>
+      <c r="C75" s="256"/>
+      <c r="D75" s="256"/>
       <c r="E75" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F75" s="59"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="133"/>
+      <c r="H75" s="132"/>
       <c r="I75" s="65"/>
       <c r="J75" s="57"/>
       <c r="K75" s="3"/>
@@ -9682,28 +9788,28 @@
         <v>59</v>
       </c>
       <c r="P75" s="58" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q75" s="34">
         <v>346</v>
       </c>
-      <c r="S75" s="218"/>
-      <c r="T75" s="221"/>
-      <c r="U75" s="223"/>
-      <c r="V75" s="223"/>
+      <c r="S75" s="251"/>
+      <c r="T75" s="254"/>
+      <c r="U75" s="256"/>
+      <c r="V75" s="256"/>
       <c r="W75" s="10" t="s">
         <v>2</v>
       </c>
       <c r="X75" s="59"/>
       <c r="Y75" s="66"/>
       <c r="Z75" s="66"/>
-      <c r="AA75" s="179"/>
+      <c r="AA75" s="178"/>
       <c r="AB75" s="57"/>
       <c r="AC75" s="66"/>
       <c r="AD75" s="24"/>
       <c r="AE75" s="60"/>
       <c r="AF75" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG75" s="66" t="s">
         <v>59</v>
@@ -9712,26 +9818,26 @@
         <v>149</v>
       </c>
       <c r="AI75" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK75" s="218"/>
-      <c r="AL75" s="221"/>
-      <c r="AM75" s="223"/>
-      <c r="AN75" s="223"/>
+        <v>175</v>
+      </c>
+      <c r="AK75" s="251"/>
+      <c r="AL75" s="254"/>
+      <c r="AM75" s="256"/>
+      <c r="AN75" s="256"/>
       <c r="AO75" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AP75" s="101" t="s">
+      <c r="AP75" s="100" t="s">
         <v>123</v>
       </c>
       <c r="AQ75" s="58" t="s">
         <v>124</v>
       </c>
       <c r="AR75" s="58" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AS75" s="60" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AT75" s="57"/>
       <c r="AU75" s="3"/>
@@ -9743,32 +9849,32 @@
       <c r="BA75" s="34"/>
     </row>
     <row r="76" spans="1:53" ht="86.25" customHeight="1">
-      <c r="A76" s="218"/>
-      <c r="B76" s="224">
-        <v>2</v>
-      </c>
-      <c r="C76" s="225" t="s">
+      <c r="A76" s="251"/>
+      <c r="B76" s="257">
+        <v>2</v>
+      </c>
+      <c r="C76" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="D76" s="225" t="s">
+      <c r="D76" s="258" t="s">
         <v>36</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F76" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="G76" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="G76" s="136" t="s">
         <v>59</v>
       </c>
       <c r="H76" s="24" t="s">
         <v>158</v>
       </c>
       <c r="I76" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="J76" s="83"/>
+        <v>169</v>
+      </c>
+      <c r="J76" s="82"/>
       <c r="K76" s="66"/>
       <c r="L76" s="24"/>
       <c r="M76" s="34"/>
@@ -9784,14 +9890,14 @@
       <c r="Q76" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="S76" s="218"/>
-      <c r="T76" s="224">
-        <v>2</v>
-      </c>
-      <c r="U76" s="225" t="s">
+      <c r="S76" s="251"/>
+      <c r="T76" s="257">
+        <v>2</v>
+      </c>
+      <c r="U76" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="V76" s="225" t="s">
+      <c r="V76" s="258" t="s">
         <v>36</v>
       </c>
       <c r="W76" s="11" t="s">
@@ -9800,39 +9906,39 @@
       <c r="X76" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="Y76" s="93" t="s">
+      <c r="Y76" s="92" t="s">
         <v>74</v>
       </c>
       <c r="Z76" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="AA76" s="91" t="s">
+      <c r="AA76" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="AB76" s="128"/>
-      <c r="AC76" s="169"/>
+      <c r="AB76" s="127"/>
+      <c r="AC76" s="168"/>
       <c r="AD76" s="24"/>
       <c r="AE76" s="60"/>
       <c r="AF76" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG76" s="277" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH76" s="274" t="s">
-        <v>208</v>
+        <v>200</v>
+      </c>
+      <c r="AG76" s="227" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH76" s="224" t="s">
+        <v>205</v>
       </c>
       <c r="AI76" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK76" s="218"/>
-      <c r="AL76" s="224">
-        <v>2</v>
-      </c>
-      <c r="AM76" s="225" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK76" s="251"/>
+      <c r="AL76" s="257">
+        <v>2</v>
+      </c>
+      <c r="AM76" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="AN76" s="225" t="s">
+      <c r="AN76" s="258" t="s">
         <v>36</v>
       </c>
       <c r="AO76" s="11" t="s">
@@ -9840,22 +9946,22 @@
       </c>
       <c r="AP76" s="59"/>
       <c r="AQ76" s="58"/>
-      <c r="AR76" s="201"/>
+      <c r="AR76" s="200"/>
       <c r="AS76" s="60"/>
-      <c r="AT76" s="83"/>
+      <c r="AT76" s="82"/>
       <c r="AU76" s="66"/>
       <c r="AV76" s="24"/>
       <c r="AW76" s="34"/>
-      <c r="AX76" s="83"/>
+      <c r="AX76" s="82"/>
       <c r="AY76" s="66"/>
       <c r="AZ76" s="24"/>
       <c r="BA76" s="34"/>
     </row>
     <row r="77" spans="1:53" ht="53.25" customHeight="1">
-      <c r="A77" s="218"/>
-      <c r="B77" s="221"/>
-      <c r="C77" s="223"/>
-      <c r="D77" s="223"/>
+      <c r="A77" s="251"/>
+      <c r="B77" s="254"/>
+      <c r="C77" s="256"/>
+      <c r="D77" s="256"/>
       <c r="E77" s="11" t="s">
         <v>2</v>
       </c>
@@ -9873,29 +9979,29 @@
       <c r="O77" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="P77" s="274" t="s">
-        <v>208</v>
+      <c r="P77" s="224" t="s">
+        <v>205</v>
       </c>
       <c r="Q77" s="34">
         <v>346</v>
       </c>
-      <c r="S77" s="218"/>
-      <c r="T77" s="221"/>
-      <c r="U77" s="223"/>
-      <c r="V77" s="223"/>
+      <c r="S77" s="251"/>
+      <c r="T77" s="254"/>
+      <c r="U77" s="256"/>
+      <c r="V77" s="256"/>
       <c r="W77" s="11" t="s">
         <v>2</v>
       </c>
       <c r="X77" s="59"/>
       <c r="Y77" s="66"/>
       <c r="Z77" s="66"/>
-      <c r="AA77" s="179"/>
+      <c r="AA77" s="178"/>
       <c r="AB77" s="57"/>
       <c r="AC77" s="66"/>
       <c r="AD77" s="24"/>
       <c r="AE77" s="60"/>
       <c r="AF77" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG77" s="3" t="s">
         <v>59</v>
@@ -9904,52 +10010,52 @@
         <v>149</v>
       </c>
       <c r="AI77" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK77" s="218"/>
-      <c r="AL77" s="221"/>
-      <c r="AM77" s="223"/>
-      <c r="AN77" s="223"/>
+        <v>175</v>
+      </c>
+      <c r="AK77" s="251"/>
+      <c r="AL77" s="254"/>
+      <c r="AM77" s="256"/>
+      <c r="AN77" s="256"/>
       <c r="AO77" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AP77" s="101" t="s">
+      <c r="AP77" s="100" t="s">
         <v>123</v>
       </c>
       <c r="AQ77" s="58" t="s">
         <v>124</v>
       </c>
       <c r="AR77" s="58" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AS77" s="60" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AT77" s="57"/>
       <c r="AU77" s="3"/>
-      <c r="AV77" s="90"/>
+      <c r="AV77" s="89"/>
       <c r="AW77" s="65"/>
       <c r="AX77" s="57"/>
       <c r="AY77" s="3"/>
-      <c r="AZ77" s="90"/>
+      <c r="AZ77" s="89"/>
       <c r="BA77" s="65"/>
     </row>
     <row r="78" spans="1:53" ht="70.5" customHeight="1">
-      <c r="A78" s="218"/>
-      <c r="B78" s="224">
+      <c r="A78" s="251"/>
+      <c r="B78" s="257">
         <v>3</v>
       </c>
-      <c r="C78" s="225" t="s">
+      <c r="C78" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="D78" s="225" t="s">
+      <c r="D78" s="258" t="s">
         <v>47</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F78" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G78" s="66" t="s">
         <v>59</v>
@@ -9958,16 +10064,16 @@
         <v>158</v>
       </c>
       <c r="I78" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="J78" s="189" t="s">
+        <v>169</v>
+      </c>
+      <c r="J78" s="188" t="s">
         <v>64</v>
       </c>
-      <c r="K78" s="277" t="s">
-        <v>59</v>
-      </c>
-      <c r="L78" s="274" t="s">
-        <v>208</v>
+      <c r="K78" s="227" t="s">
+        <v>59</v>
+      </c>
+      <c r="L78" s="224" t="s">
+        <v>205</v>
       </c>
       <c r="M78" s="34">
         <v>350</v>
@@ -9984,14 +10090,14 @@
       <c r="Q78" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="S78" s="218"/>
-      <c r="T78" s="224">
+      <c r="S78" s="251"/>
+      <c r="T78" s="257">
         <v>3</v>
       </c>
-      <c r="U78" s="225" t="s">
+      <c r="U78" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="V78" s="225" t="s">
+      <c r="V78" s="258" t="s">
         <v>47</v>
       </c>
       <c r="W78" s="11" t="s">
@@ -10000,13 +10106,13 @@
       <c r="X78" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="Y78" s="93" t="s">
+      <c r="Y78" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="Z78" s="93" t="s">
+      <c r="Z78" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="AA78" s="186" t="s">
+      <c r="AA78" s="185" t="s">
         <v>70</v>
       </c>
       <c r="AB78" s="57"/>
@@ -10014,23 +10120,23 @@
       <c r="AD78" s="24"/>
       <c r="AE78" s="60"/>
       <c r="AF78" s="59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AG78" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="AH78" s="135"/>
+      <c r="AH78" s="134"/>
       <c r="AI78" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK78" s="218"/>
-      <c r="AL78" s="224">
+        <v>202</v>
+      </c>
+      <c r="AK78" s="251"/>
+      <c r="AL78" s="257">
         <v>3</v>
       </c>
-      <c r="AM78" s="225" t="s">
+      <c r="AM78" s="258" t="s">
         <v>46</v>
       </c>
-      <c r="AN78" s="225" t="s">
+      <c r="AN78" s="258" t="s">
         <v>47</v>
       </c>
       <c r="AO78" s="11" t="s">
@@ -10038,22 +10144,22 @@
       </c>
       <c r="AP78" s="59"/>
       <c r="AQ78" s="58"/>
-      <c r="AR78" s="201"/>
+      <c r="AR78" s="200"/>
       <c r="AS78" s="34"/>
-      <c r="AT78" s="83"/>
+      <c r="AT78" s="82"/>
       <c r="AU78" s="3"/>
       <c r="AV78" s="24"/>
       <c r="AW78" s="34"/>
-      <c r="AX78" s="83"/>
+      <c r="AX78" s="82"/>
       <c r="AY78" s="3"/>
       <c r="AZ78" s="24"/>
       <c r="BA78" s="34"/>
     </row>
     <row r="79" spans="1:53" ht="72.75" customHeight="1">
-      <c r="A79" s="218"/>
-      <c r="B79" s="221"/>
-      <c r="C79" s="226"/>
-      <c r="D79" s="226"/>
+      <c r="A79" s="251"/>
+      <c r="B79" s="254"/>
+      <c r="C79" s="259"/>
+      <c r="D79" s="259"/>
       <c r="E79" s="11" t="s">
         <v>2</v>
       </c>
@@ -10077,10 +10183,10 @@
       <c r="Q79" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="S79" s="218"/>
-      <c r="T79" s="221"/>
-      <c r="U79" s="226"/>
-      <c r="V79" s="226"/>
+      <c r="S79" s="251"/>
+      <c r="T79" s="254"/>
+      <c r="U79" s="259"/>
+      <c r="V79" s="259"/>
       <c r="W79" s="11" t="s">
         <v>2</v>
       </c>
@@ -10090,26 +10196,26 @@
       <c r="Y79" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="Z79" s="274" t="s">
-        <v>208</v>
+      <c r="Z79" s="224" t="s">
+        <v>205</v>
       </c>
       <c r="AA79" s="34">
         <v>350</v>
       </c>
-      <c r="AB79" s="272" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC79" s="273" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD79" s="274" t="s">
-        <v>232</v>
+      <c r="AB79" s="222" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC79" s="223" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD79" s="224" t="s">
+        <v>225</v>
       </c>
       <c r="AE79" s="60" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AF79" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG79" s="3" t="s">
         <v>59</v>
@@ -10118,16 +10224,16 @@
         <v>149</v>
       </c>
       <c r="AI79" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK79" s="218"/>
-      <c r="AL79" s="221"/>
-      <c r="AM79" s="226"/>
-      <c r="AN79" s="226"/>
+        <v>175</v>
+      </c>
+      <c r="AK79" s="251"/>
+      <c r="AL79" s="254"/>
+      <c r="AM79" s="259"/>
+      <c r="AN79" s="259"/>
       <c r="AO79" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AP79" s="100" t="s">
+      <c r="AP79" s="99" t="s">
         <v>125</v>
       </c>
       <c r="AQ79" s="66" t="s">
@@ -10145,25 +10251,25 @@
       <c r="AW79" s="34"/>
       <c r="AX79" s="57"/>
       <c r="AY79" s="3"/>
-      <c r="AZ79" s="90"/>
+      <c r="AZ79" s="89"/>
       <c r="BA79" s="65"/>
     </row>
     <row r="80" spans="1:53" ht="81" customHeight="1">
-      <c r="A80" s="218"/>
-      <c r="B80" s="224">
+      <c r="A80" s="251"/>
+      <c r="B80" s="257">
         <v>4</v>
       </c>
-      <c r="C80" s="225" t="s">
+      <c r="C80" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="225" t="s">
+      <c r="D80" s="258" t="s">
         <v>49</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F80" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G80" s="66" t="s">
         <v>59</v>
@@ -10172,16 +10278,16 @@
         <v>158</v>
       </c>
       <c r="I80" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="J80" s="189" t="s">
+        <v>169</v>
+      </c>
+      <c r="J80" s="188" t="s">
         <v>64</v>
       </c>
-      <c r="K80" s="277" t="s">
-        <v>59</v>
-      </c>
-      <c r="L80" s="274" t="s">
-        <v>208</v>
+      <c r="K80" s="227" t="s">
+        <v>59</v>
+      </c>
+      <c r="L80" s="224" t="s">
+        <v>205</v>
       </c>
       <c r="M80" s="34">
         <v>350</v>
@@ -10198,14 +10304,14 @@
       <c r="Q80" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="S80" s="218"/>
-      <c r="T80" s="224">
+      <c r="S80" s="251"/>
+      <c r="T80" s="257">
         <v>4</v>
       </c>
-      <c r="U80" s="225" t="s">
+      <c r="U80" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="V80" s="225" t="s">
+      <c r="V80" s="258" t="s">
         <v>49</v>
       </c>
       <c r="W80" s="11" t="s">
@@ -10214,45 +10320,45 @@
       <c r="X80" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="Y80" s="93" t="s">
+      <c r="Y80" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="Z80" s="93" t="s">
+      <c r="Z80" s="92" t="s">
         <v>94</v>
       </c>
       <c r="AA80" s="34" t="s">
         <v>70</v>
       </c>
       <c r="AB80" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC80" s="275" t="s">
-        <v>230</v>
+        <v>222</v>
+      </c>
+      <c r="AC80" s="225" t="s">
+        <v>223</v>
       </c>
       <c r="AD80" s="24"/>
       <c r="AE80" s="60" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AF80" s="59" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AG80" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH80" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="AH80" s="24" t="s">
-        <v>207</v>
-      </c>
       <c r="AI80" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK80" s="218"/>
-      <c r="AL80" s="224">
+        <v>202</v>
+      </c>
+      <c r="AK80" s="251"/>
+      <c r="AL80" s="257">
         <v>4</v>
       </c>
-      <c r="AM80" s="225" t="s">
+      <c r="AM80" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="AN80" s="225" t="s">
+      <c r="AN80" s="258" t="s">
         <v>49</v>
       </c>
       <c r="AO80" s="11" t="s">
@@ -10262,20 +10368,20 @@
       <c r="AQ80" s="58"/>
       <c r="AR80" s="66"/>
       <c r="AS80" s="34"/>
-      <c r="AT80" s="83"/>
+      <c r="AT80" s="82"/>
       <c r="AU80" s="3"/>
       <c r="AV80" s="24"/>
       <c r="AW80" s="34"/>
-      <c r="AX80" s="83"/>
+      <c r="AX80" s="82"/>
       <c r="AY80" s="3"/>
       <c r="AZ80" s="24"/>
       <c r="BA80" s="34"/>
     </row>
     <row r="81" spans="1:53" ht="70.5" customHeight="1">
-      <c r="A81" s="218"/>
-      <c r="B81" s="221"/>
-      <c r="C81" s="223"/>
-      <c r="D81" s="223"/>
+      <c r="A81" s="251"/>
+      <c r="B81" s="254"/>
+      <c r="C81" s="256"/>
+      <c r="D81" s="256"/>
       <c r="E81" s="11" t="s">
         <v>2</v>
       </c>
@@ -10299,10 +10405,10 @@
       <c r="Q81" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="S81" s="218"/>
-      <c r="T81" s="221"/>
-      <c r="U81" s="223"/>
-      <c r="V81" s="223"/>
+      <c r="S81" s="251"/>
+      <c r="T81" s="254"/>
+      <c r="U81" s="256"/>
+      <c r="V81" s="256"/>
       <c r="W81" s="11" t="s">
         <v>2</v>
       </c>
@@ -10312,26 +10418,26 @@
       <c r="Y81" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="Z81" s="274" t="s">
-        <v>208</v>
+      <c r="Z81" s="224" t="s">
+        <v>205</v>
       </c>
       <c r="AA81" s="34">
         <v>350</v>
       </c>
-      <c r="AB81" s="272" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC81" s="273" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD81" s="274" t="s">
-        <v>232</v>
+      <c r="AB81" s="222" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC81" s="223" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD81" s="224" t="s">
+        <v>225</v>
       </c>
       <c r="AE81" s="60" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AF81" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG81" s="3" t="s">
         <v>59</v>
@@ -10340,16 +10446,16 @@
         <v>149</v>
       </c>
       <c r="AI81" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK81" s="218"/>
-      <c r="AL81" s="221"/>
-      <c r="AM81" s="223"/>
-      <c r="AN81" s="223"/>
+        <v>175</v>
+      </c>
+      <c r="AK81" s="251"/>
+      <c r="AL81" s="254"/>
+      <c r="AM81" s="256"/>
+      <c r="AN81" s="256"/>
       <c r="AO81" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="AP81" s="100" t="s">
+      <c r="AP81" s="99" t="s">
         <v>125</v>
       </c>
       <c r="AQ81" s="66" t="s">
@@ -10365,27 +10471,27 @@
       <c r="AU81" s="3"/>
       <c r="AV81" s="24"/>
       <c r="AW81" s="34"/>
-      <c r="AX81" s="86"/>
+      <c r="AX81" s="85"/>
       <c r="AY81" s="3"/>
       <c r="AZ81" s="24"/>
       <c r="BA81" s="60"/>
     </row>
     <row r="82" spans="1:53" ht="60.75" customHeight="1">
-      <c r="A82" s="218"/>
-      <c r="B82" s="224">
+      <c r="A82" s="251"/>
+      <c r="B82" s="257">
         <v>5</v>
       </c>
-      <c r="C82" s="225" t="s">
+      <c r="C82" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="D82" s="225" t="s">
+      <c r="D82" s="258" t="s">
         <v>39</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F82" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>59</v>
@@ -10394,7 +10500,7 @@
         <v>158</v>
       </c>
       <c r="I82" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J82" s="31"/>
       <c r="K82" s="3"/>
@@ -10404,14 +10510,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="24"/>
       <c r="Q82" s="41"/>
-      <c r="S82" s="218"/>
-      <c r="T82" s="224">
+      <c r="S82" s="251"/>
+      <c r="T82" s="257">
         <v>5</v>
       </c>
-      <c r="U82" s="225" t="s">
+      <c r="U82" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="V82" s="225" t="s">
+      <c r="V82" s="258" t="s">
         <v>39</v>
       </c>
       <c r="W82" s="11" t="s">
@@ -10422,9 +10528,9 @@
       <c r="Z82" s="24"/>
       <c r="AA82" s="34"/>
       <c r="AB82" s="59" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC82" s="276" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC82" s="226" t="s">
         <v>59</v>
       </c>
       <c r="AD82" s="24"/>
@@ -10432,53 +10538,53 @@
         <v>208</v>
       </c>
       <c r="AF82" s="59" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AG82" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AH82" s="90" t="s">
-        <v>207</v>
+      <c r="AH82" s="89" t="s">
+        <v>204</v>
       </c>
       <c r="AI82" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK82" s="218"/>
-      <c r="AL82" s="224">
+        <v>202</v>
+      </c>
+      <c r="AK82" s="251"/>
+      <c r="AL82" s="257">
         <v>5</v>
       </c>
-      <c r="AM82" s="225" t="s">
+      <c r="AM82" s="258" t="s">
         <v>38</v>
       </c>
-      <c r="AN82" s="225" t="s">
+      <c r="AN82" s="258" t="s">
         <v>39</v>
       </c>
       <c r="AO82" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AP82" s="134"/>
+      <c r="AP82" s="133"/>
       <c r="AQ82" s="3"/>
       <c r="AR82" s="24"/>
       <c r="AS82" s="34"/>
-      <c r="AT82" s="86"/>
+      <c r="AT82" s="85"/>
       <c r="AU82" s="3"/>
       <c r="AV82" s="24"/>
       <c r="AW82" s="60"/>
       <c r="AX82" s="57"/>
       <c r="AY82" s="3"/>
-      <c r="AZ82" s="90"/>
+      <c r="AZ82" s="89"/>
       <c r="BA82" s="65"/>
     </row>
     <row r="83" spans="1:53" ht="39" customHeight="1">
-      <c r="A83" s="218"/>
-      <c r="B83" s="221"/>
-      <c r="C83" s="223"/>
-      <c r="D83" s="223"/>
+      <c r="A83" s="251"/>
+      <c r="B83" s="254"/>
+      <c r="C83" s="256"/>
+      <c r="D83" s="256"/>
       <c r="E83" s="11" t="s">
         <v>2</v>
       </c>
       <c r="F83" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>59</v>
@@ -10487,7 +10593,7 @@
         <v>158</v>
       </c>
       <c r="I83" s="65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J83" s="29"/>
       <c r="K83" s="6"/>
@@ -10497,10 +10603,10 @@
       <c r="O83" s="6"/>
       <c r="P83" s="25"/>
       <c r="Q83" s="42"/>
-      <c r="S83" s="218"/>
-      <c r="T83" s="221"/>
-      <c r="U83" s="223"/>
-      <c r="V83" s="223"/>
+      <c r="S83" s="251"/>
+      <c r="T83" s="254"/>
+      <c r="U83" s="256"/>
+      <c r="V83" s="256"/>
       <c r="W83" s="11" t="s">
         <v>2</v>
       </c>
@@ -10508,12 +10614,12 @@
       <c r="Y83" s="6"/>
       <c r="Z83" s="25"/>
       <c r="AA83" s="35"/>
-      <c r="AB83" s="86"/>
+      <c r="AB83" s="85"/>
       <c r="AC83" s="3"/>
       <c r="AD83" s="24"/>
       <c r="AE83" s="60"/>
       <c r="AF83" s="59" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AG83" s="3" t="s">
         <v>59</v>
@@ -10522,12 +10628,12 @@
         <v>149</v>
       </c>
       <c r="AI83" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK83" s="218"/>
-      <c r="AL83" s="221"/>
-      <c r="AM83" s="223"/>
-      <c r="AN83" s="223"/>
+        <v>175</v>
+      </c>
+      <c r="AK83" s="251"/>
+      <c r="AL83" s="254"/>
+      <c r="AM83" s="256"/>
+      <c r="AN83" s="256"/>
       <c r="AO83" s="11" t="s">
         <v>2</v>
       </c>
@@ -10535,24 +10641,24 @@
       <c r="AQ83" s="6"/>
       <c r="AR83" s="25"/>
       <c r="AS83" s="35"/>
-      <c r="AT83" s="86"/>
+      <c r="AT83" s="85"/>
       <c r="AU83" s="3"/>
       <c r="AV83" s="24"/>
       <c r="AW83" s="60"/>
-      <c r="AX83" s="86"/>
+      <c r="AX83" s="85"/>
       <c r="AY83" s="3"/>
       <c r="AZ83" s="24"/>
       <c r="BA83" s="60"/>
     </row>
     <row r="84" spans="1:53" ht="56.25" customHeight="1">
-      <c r="A84" s="218"/>
-      <c r="B84" s="227">
+      <c r="A84" s="251"/>
+      <c r="B84" s="260">
         <v>6</v>
       </c>
-      <c r="C84" s="225" t="s">
+      <c r="C84" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="225" t="s">
+      <c r="D84" s="258" t="s">
         <v>37</v>
       </c>
       <c r="E84" s="11" t="s">
@@ -10570,14 +10676,14 @@
       <c r="O84" s="3"/>
       <c r="P84" s="24"/>
       <c r="Q84" s="41"/>
-      <c r="S84" s="218"/>
-      <c r="T84" s="227">
+      <c r="S84" s="251"/>
+      <c r="T84" s="260">
         <v>6</v>
       </c>
-      <c r="U84" s="225" t="s">
+      <c r="U84" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="V84" s="225" t="s">
+      <c r="V84" s="258" t="s">
         <v>37</v>
       </c>
       <c r="W84" s="11" t="s">
@@ -10592,25 +10698,25 @@
       <c r="AD84" s="24"/>
       <c r="AE84" s="34"/>
       <c r="AF84" s="59" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AG84" s="3" t="s">
         <v>59</v>
       </c>
       <c r="AH84" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AI84" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK84" s="218"/>
-      <c r="AL84" s="227">
+        <v>202</v>
+      </c>
+      <c r="AK84" s="251"/>
+      <c r="AL84" s="260">
         <v>6</v>
       </c>
-      <c r="AM84" s="225" t="s">
+      <c r="AM84" s="258" t="s">
         <v>12</v>
       </c>
-      <c r="AN84" s="225" t="s">
+      <c r="AN84" s="258" t="s">
         <v>37</v>
       </c>
       <c r="AO84" s="11" t="s">
@@ -10630,24 +10736,24 @@
       <c r="BA84" s="34"/>
     </row>
     <row r="85" spans="1:53" ht="30" customHeight="1" thickBot="1">
-      <c r="A85" s="219"/>
-      <c r="B85" s="228"/>
-      <c r="C85" s="234"/>
-      <c r="D85" s="234"/>
+      <c r="A85" s="252"/>
+      <c r="B85" s="261"/>
+      <c r="C85" s="267"/>
+      <c r="D85" s="267"/>
       <c r="E85" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F85" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="G85" s="205" t="s">
-        <v>59</v>
-      </c>
-      <c r="H85" s="105" t="s">
+      <c r="F85" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="G85" s="204" t="s">
+        <v>59</v>
+      </c>
+      <c r="H85" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I85" s="143" t="s">
-        <v>170</v>
+      <c r="I85" s="142" t="s">
+        <v>169</v>
       </c>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
@@ -10657,10 +10763,10 @@
       <c r="O85" s="12"/>
       <c r="P85" s="13"/>
       <c r="Q85" s="43"/>
-      <c r="S85" s="219"/>
-      <c r="T85" s="228"/>
-      <c r="U85" s="223"/>
-      <c r="V85" s="223"/>
+      <c r="S85" s="252"/>
+      <c r="T85" s="261"/>
+      <c r="U85" s="256"/>
+      <c r="V85" s="256"/>
       <c r="W85" s="5" t="s">
         <v>2</v>
       </c>
@@ -10672,8 +10778,8 @@
       <c r="AC85" s="12"/>
       <c r="AD85" s="13"/>
       <c r="AE85" s="36"/>
-      <c r="AF85" s="103" t="s">
-        <v>190</v>
+      <c r="AF85" s="102" t="s">
+        <v>188</v>
       </c>
       <c r="AG85" s="12" t="s">
         <v>59</v>
@@ -10682,12 +10788,12 @@
         <v>149</v>
       </c>
       <c r="AI85" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK85" s="219"/>
-      <c r="AL85" s="228"/>
-      <c r="AM85" s="234"/>
-      <c r="AN85" s="234"/>
+        <v>175</v>
+      </c>
+      <c r="AK85" s="252"/>
+      <c r="AL85" s="261"/>
+      <c r="AM85" s="267"/>
+      <c r="AN85" s="267"/>
       <c r="AO85" s="5" t="s">
         <v>2</v>
       </c>
@@ -10720,20 +10826,20 @@
       </c>
       <c r="J86" s="48"/>
       <c r="K86" s="49"/>
-      <c r="L86" s="214" t="s">
+      <c r="L86" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="M86" s="214"/>
-      <c r="N86" s="214"/>
-      <c r="O86" s="215" t="s">
+      <c r="M86" s="247"/>
+      <c r="N86" s="247"/>
+      <c r="O86" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="P86" s="215"/>
-      <c r="Q86" s="216"/>
+      <c r="P86" s="248"/>
+      <c r="Q86" s="249"/>
       <c r="S86" s="44"/>
       <c r="T86" s="44"/>
-      <c r="U86" s="229"/>
-      <c r="V86" s="229"/>
+      <c r="U86" s="262"/>
+      <c r="V86" s="262"/>
       <c r="W86" s="47"/>
       <c r="X86" s="45"/>
       <c r="Y86" s="48"/>
@@ -10743,20 +10849,20 @@
       </c>
       <c r="AB86" s="48"/>
       <c r="AC86" s="49"/>
-      <c r="AD86" s="214" t="s">
+      <c r="AD86" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="AE86" s="214"/>
-      <c r="AF86" s="214"/>
-      <c r="AG86" s="215" t="s">
+      <c r="AE86" s="247"/>
+      <c r="AF86" s="247"/>
+      <c r="AG86" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="AH86" s="215"/>
-      <c r="AI86" s="216"/>
+      <c r="AH86" s="248"/>
+      <c r="AI86" s="249"/>
       <c r="AK86" s="51"/>
       <c r="AL86" s="44"/>
-      <c r="AM86" s="261"/>
-      <c r="AN86" s="261"/>
+      <c r="AM86" s="294"/>
+      <c r="AN86" s="294"/>
       <c r="AO86" s="47"/>
       <c r="AP86" s="45"/>
       <c r="AQ86" s="48"/>
@@ -10766,16 +10872,16 @@
       </c>
       <c r="AT86" s="48"/>
       <c r="AU86" s="49"/>
-      <c r="AV86" s="214" t="s">
+      <c r="AV86" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="AW86" s="214"/>
-      <c r="AX86" s="214"/>
-      <c r="AY86" s="215" t="s">
+      <c r="AW86" s="247"/>
+      <c r="AX86" s="247"/>
+      <c r="AY86" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="AZ86" s="215"/>
-      <c r="BA86" s="216"/>
+      <c r="AZ86" s="248"/>
+      <c r="BA86" s="249"/>
     </row>
     <row r="87" spans="1:53" ht="31.5" thickBot="1">
       <c r="A87" s="14"/>
@@ -10797,8 +10903,8 @@
       <c r="Q87" s="38"/>
       <c r="S87" s="14"/>
       <c r="T87" s="15"/>
-      <c r="U87" s="230"/>
-      <c r="V87" s="230"/>
+      <c r="U87" s="263"/>
+      <c r="V87" s="263"/>
       <c r="W87" s="14"/>
       <c r="X87" s="15"/>
       <c r="Y87" s="15"/>
@@ -10814,8 +10920,8 @@
       <c r="AI87" s="38"/>
       <c r="AK87" s="51"/>
       <c r="AL87" s="15"/>
-      <c r="AM87" s="262"/>
-      <c r="AN87" s="262"/>
+      <c r="AM87" s="295"/>
+      <c r="AN87" s="295"/>
       <c r="AO87" s="14"/>
       <c r="AP87" s="15"/>
       <c r="AQ87" s="15"/>
@@ -10861,10 +10967,10 @@
       <c r="AI88" s="39"/>
       <c r="AK88" s="51"/>
       <c r="AL88" s="52"/>
-      <c r="AM88" s="206" t="s">
+      <c r="AM88" s="205" t="s">
         <v>20</v>
       </c>
-      <c r="AN88" s="207"/>
+      <c r="AN88" s="206"/>
       <c r="AO88" s="54"/>
       <c r="AP88" s="54"/>
       <c r="AQ88" s="54"/>
